--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\70012672\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84033D7-2970-4ABB-84ED-42A7413DF7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1271E21-6602-4ED3-8641-99F02A8F9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$687</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$687</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="87">
   <si>
     <t>archivo</t>
   </si>
@@ -294,6 +294,9 @@
   <si>
     <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\EMP\t96.pdf</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -348,10 +351,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,14 +662,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:J689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="J687" sqref="J687"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -673,7 +681,7 @@
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -722,11 +730,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -747,12 +755,15 @@
       <c r="I3">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -773,8 +784,11 @@
       <c r="I4">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -797,11 +811,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -822,12 +836,15 @@
       <c r="I6">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -848,12 +865,15 @@
       <c r="I7">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -874,12 +894,15 @@
       <c r="I8">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -900,12 +923,15 @@
       <c r="I9">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -926,12 +952,15 @@
       <c r="I10">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -952,12 +981,15 @@
       <c r="I11">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
@@ -978,8 +1010,11 @@
       <c r="I12">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1002,11 +1037,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
@@ -1027,12 +1062,15 @@
       <c r="I14">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
@@ -1053,12 +1091,15 @@
       <c r="I15">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
@@ -1079,8 +1120,11 @@
       <c r="I16">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1103,11 +1147,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
@@ -1128,12 +1172,15 @@
       <c r="I18">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
@@ -1154,8 +1201,11 @@
       <c r="I19">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1178,11 +1228,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
@@ -1203,12 +1253,15 @@
       <c r="I21">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
@@ -1229,12 +1282,15 @@
       <c r="I22">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
@@ -1255,12 +1311,15 @@
       <c r="I23">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
@@ -1281,12 +1340,15 @@
       <c r="I24">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
@@ -1307,12 +1369,15 @@
       <c r="I25">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
@@ -1333,12 +1398,15 @@
       <c r="I26">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
@@ -1359,12 +1427,15 @@
       <c r="I27">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
@@ -1385,8 +1456,11 @@
       <c r="I28">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1409,11 +1483,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
@@ -1434,12 +1508,15 @@
       <c r="I30">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -1460,12 +1537,15 @@
       <c r="I31">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
@@ -1486,12 +1566,15 @@
       <c r="I32">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
@@ -1512,8 +1595,11 @@
       <c r="I33">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1536,11 +1622,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
@@ -1561,12 +1647,15 @@
       <c r="I35">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -1587,8 +1676,11 @@
       <c r="I36">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1611,11 +1703,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
@@ -1636,12 +1728,15 @@
       <c r="I38">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" t="s">
@@ -1662,12 +1757,15 @@
       <c r="I39">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
@@ -1688,12 +1786,15 @@
       <c r="I40">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C41" t="s">
@@ -1714,12 +1815,15 @@
       <c r="I41">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C42" t="s">
@@ -1740,12 +1844,15 @@
       <c r="I42">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
@@ -1766,12 +1873,15 @@
       <c r="I43">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
@@ -1792,12 +1902,15 @@
       <c r="I44">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" t="s">
@@ -1818,8 +1931,11 @@
       <c r="I45">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1842,11 +1958,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C47" t="s">
@@ -1867,12 +1983,15 @@
       <c r="I47">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C48" t="s">
@@ -1893,12 +2012,15 @@
       <c r="I48">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C49" t="s">
@@ -1919,12 +2041,15 @@
       <c r="I49">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C50" t="s">
@@ -1945,8 +2070,11 @@
       <c r="I50">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1969,11 +2097,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
@@ -1994,12 +2122,15 @@
       <c r="I52">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
@@ -2020,8 +2151,11 @@
       <c r="I53">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2044,11 +2178,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
@@ -2069,12 +2203,15 @@
       <c r="I55">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C56" t="s">
@@ -2095,12 +2232,15 @@
       <c r="I56">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C57" t="s">
@@ -2121,12 +2261,15 @@
       <c r="I57">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
@@ -2147,12 +2290,15 @@
       <c r="I58">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C59" t="s">
@@ -2173,12 +2319,15 @@
       <c r="I59">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C60" t="s">
@@ -2199,12 +2348,15 @@
       <c r="I60">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
@@ -2225,12 +2377,15 @@
       <c r="I61">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C62" t="s">
@@ -2251,8 +2406,11 @@
       <c r="I62">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2275,11 +2433,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
@@ -2300,12 +2458,15 @@
       <c r="I64">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C65" t="s">
@@ -2326,12 +2487,15 @@
       <c r="I65">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C66" t="s">
@@ -2352,12 +2516,15 @@
       <c r="I66">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
@@ -2378,8 +2545,11 @@
       <c r="I67">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2402,11 +2572,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C69" t="s">
@@ -2428,11 +2598,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C70" t="s">
@@ -2454,7 +2624,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2477,11 +2647,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C72" t="s">
@@ -2503,11 +2673,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C73" t="s">
@@ -2529,11 +2699,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
@@ -2555,11 +2725,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C75" t="s">
@@ -2581,11 +2751,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C76" t="s">
@@ -2607,11 +2777,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C77" t="s">
@@ -2633,11 +2803,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C78" t="s">
@@ -2659,11 +2829,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C79" t="s">
@@ -2685,11 +2855,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C80" t="s">
@@ -2738,7 +2908,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C82" t="s">
@@ -2764,7 +2934,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C83" t="s">
@@ -2790,7 +2960,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C84" t="s">
@@ -2816,7 +2986,7 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C85" t="s">
@@ -2842,7 +3012,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C86" t="s">
@@ -2891,7 +3061,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C88" t="s">
@@ -2940,7 +3110,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C90" t="s">
@@ -2966,7 +3136,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C91" t="s">
@@ -2992,7 +3162,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C92" t="s">
@@ -3018,7 +3188,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C93" t="s">
@@ -3044,7 +3214,7 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C94" t="s">
@@ -3070,7 +3240,7 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C95" t="s">
@@ -3096,7 +3266,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C96" t="s">
@@ -3122,7 +3292,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C97" t="s">
@@ -3171,7 +3341,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C99" t="s">
@@ -3197,7 +3367,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C100" t="s">
@@ -3223,7 +3393,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C101" t="s">
@@ -3249,7 +3419,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C102" t="s">
@@ -3298,7 +3468,7 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C104" t="s">
@@ -3347,7 +3517,7 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C106" t="s">
@@ -3373,7 +3543,7 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C107" t="s">
@@ -3399,7 +3569,7 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C108" t="s">
@@ -3425,7 +3595,7 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C109" t="s">
@@ -3451,7 +3621,7 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C110" t="s">
@@ -3477,7 +3647,7 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C111" t="s">
@@ -3503,7 +3673,7 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C112" t="s">
@@ -3529,7 +3699,7 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C113" t="s">
@@ -3578,7 +3748,7 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C115" t="s">
@@ -3604,7 +3774,7 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C116" t="s">
@@ -3630,7 +3800,7 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C117" t="s">
@@ -3656,7 +3826,7 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C118" t="s">
@@ -3705,7 +3875,7 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C120" t="s">
@@ -3731,7 +3901,7 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C121" t="s">
@@ -3780,7 +3950,7 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C123" t="s">
@@ -3806,7 +3976,7 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C124" t="s">
@@ -3832,7 +4002,7 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C125" t="s">
@@ -3858,7 +4028,7 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C126" t="s">
@@ -3884,7 +4054,7 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C127" t="s">
@@ -3910,7 +4080,7 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C128" t="s">
@@ -3936,7 +4106,7 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C129" t="s">
@@ -3962,7 +4132,7 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C130" t="s">
@@ -4011,7 +4181,7 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C132" t="s">
@@ -4037,7 +4207,7 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C133" t="s">
@@ -4063,7 +4233,7 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C134" t="s">
@@ -4089,7 +4259,7 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C135" t="s">
@@ -4115,7 +4285,7 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C136" t="s">
@@ -4164,7 +4334,7 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C138" t="s">
@@ -4213,7 +4383,7 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C140" t="s">
@@ -4239,7 +4409,7 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C141" t="s">
@@ -4265,7 +4435,7 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C142" t="s">
@@ -4291,7 +4461,7 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C143" t="s">
@@ -4317,7 +4487,7 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C144" t="s">
@@ -4339,11 +4509,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C145" t="s">
@@ -4365,11 +4535,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C146" t="s">
@@ -4391,11 +4561,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C147" t="s">
@@ -4417,7 +4587,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4440,11 +4610,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C149" t="s">
@@ -4466,11 +4636,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C150" t="s">
@@ -4492,11 +4662,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C151" t="s">
@@ -4518,11 +4688,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C152" t="s">
@@ -4544,7 +4714,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4567,11 +4737,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C154" t="s">
@@ -4592,12 +4762,15 @@
       <c r="I154">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C155" t="s">
@@ -4618,8 +4791,11 @@
       <c r="I155">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4642,11 +4818,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C157" t="s">
@@ -4667,12 +4843,15 @@
       <c r="I157">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C158" t="s">
@@ -4693,12 +4872,15 @@
       <c r="I158">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C159" t="s">
@@ -4719,12 +4901,15 @@
       <c r="I159">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C160" t="s">
@@ -4745,12 +4930,15 @@
       <c r="I160">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C161" t="s">
@@ -4771,12 +4959,15 @@
       <c r="I161">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C162" t="s">
@@ -4797,12 +4988,15 @@
       <c r="I162">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C163" t="s">
@@ -4823,12 +5017,15 @@
       <c r="I163">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C164" t="s">
@@ -4849,8 +5046,11 @@
       <c r="I164">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4873,11 +5073,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C166" t="s">
@@ -4898,12 +5098,15 @@
       <c r="I166">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C167" t="s">
@@ -4924,12 +5127,15 @@
       <c r="I167">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C168" t="s">
@@ -4950,12 +5156,15 @@
       <c r="I168">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C169" t="s">
@@ -4976,8 +5185,11 @@
       <c r="I169">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5000,11 +5212,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C171" t="s">
@@ -5026,11 +5238,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C172" t="s">
@@ -5052,7 +5264,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5075,11 +5287,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C174" t="s">
@@ -5101,11 +5313,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C175" t="s">
@@ -5127,11 +5339,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C176" t="s">
@@ -5157,7 +5369,7 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C177" t="s">
@@ -5183,7 +5395,7 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C178" t="s">
@@ -5209,7 +5421,7 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C179" t="s">
@@ -5235,7 +5447,7 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C180" t="s">
@@ -5284,7 +5496,7 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C182" t="s">
@@ -5310,7 +5522,7 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C183" t="s">
@@ -5336,7 +5548,7 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C184" t="s">
@@ -5385,7 +5597,7 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C186" t="s">
@@ -5411,7 +5623,7 @@
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C187" t="s">
@@ -5460,7 +5672,7 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C189" t="s">
@@ -5486,7 +5698,7 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C190" t="s">
@@ -5512,7 +5724,7 @@
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C191" t="s">
@@ -5538,7 +5750,7 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C192" t="s">
@@ -5564,7 +5776,7 @@
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C193" t="s">
@@ -5590,7 +5802,7 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C194" t="s">
@@ -5616,7 +5828,7 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C195" t="s">
@@ -5642,7 +5854,7 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C196" t="s">
@@ -5691,7 +5903,7 @@
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C198" t="s">
@@ -5717,7 +5929,7 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C199" t="s">
@@ -5743,7 +5955,7 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C200" t="s">
@@ -5769,7 +5981,7 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C201" t="s">
@@ -5818,7 +6030,7 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C203" t="s">
@@ -5844,7 +6056,7 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C204" t="s">
@@ -5893,7 +6105,7 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C206" t="s">
@@ -5919,7 +6131,7 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C207" t="s">
@@ -5945,7 +6157,7 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C208" t="s">
@@ -5971,7 +6183,7 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C209" t="s">
@@ -5997,7 +6209,7 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C210" t="s">
@@ -6023,7 +6235,7 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C211" t="s">
@@ -6049,7 +6261,7 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C212" t="s">
@@ -6075,7 +6287,7 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C213" t="s">
@@ -6124,7 +6336,7 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C215" t="s">
@@ -6150,7 +6362,7 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C216" t="s">
@@ -6176,7 +6388,7 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C217" t="s">
@@ -6202,7 +6414,7 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C218" t="s">
@@ -6251,7 +6463,7 @@
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C220" t="s">
@@ -6277,7 +6489,7 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C221" t="s">
@@ -6326,7 +6538,7 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C223" t="s">
@@ -6352,7 +6564,7 @@
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C224" t="s">
@@ -6374,11 +6586,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C225" t="s">
@@ -6400,11 +6612,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C226" t="s">
@@ -6426,11 +6638,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C227" t="s">
@@ -6452,11 +6664,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C228" t="s">
@@ -6478,11 +6690,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C229" t="s">
@@ -6504,7 +6716,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6527,11 +6739,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C231" t="s">
@@ -6553,11 +6765,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C232" t="s">
@@ -6579,11 +6791,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C233" t="s">
@@ -6605,11 +6817,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C234" t="s">
@@ -6631,7 +6843,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6654,11 +6866,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C236" t="s">
@@ -6679,12 +6891,15 @@
       <c r="I236">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C237" t="s">
@@ -6705,8 +6920,11 @@
       <c r="I237">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6729,11 +6947,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C239" t="s">
@@ -6754,12 +6972,15 @@
       <c r="I239">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C240" t="s">
@@ -6780,12 +7001,15 @@
       <c r="I240">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C241" t="s">
@@ -6806,12 +7030,15 @@
       <c r="I241">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C242" t="s">
@@ -6832,12 +7059,15 @@
       <c r="I242">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C243" t="s">
@@ -6858,12 +7088,15 @@
       <c r="I243">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C244" t="s">
@@ -6884,12 +7117,15 @@
       <c r="I244">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C245" t="s">
@@ -6910,12 +7146,15 @@
       <c r="I245">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C246" t="s">
@@ -6936,8 +7175,11 @@
       <c r="I246">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6960,11 +7202,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C248" t="s">
@@ -6985,12 +7227,15 @@
       <c r="I248">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C249" t="s">
@@ -7011,12 +7256,15 @@
       <c r="I249">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C250" t="s">
@@ -7037,12 +7285,15 @@
       <c r="I250">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C251" t="s">
@@ -7063,8 +7314,11 @@
       <c r="I251">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J251" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7087,11 +7341,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C253" t="s">
@@ -7113,11 +7367,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C254" t="s">
@@ -7139,7 +7393,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7162,11 +7416,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C256" t="s">
@@ -7192,7 +7446,7 @@
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C257" t="s">
@@ -7218,7 +7472,7 @@
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C258" t="s">
@@ -7244,7 +7498,7 @@
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C259" t="s">
@@ -7270,7 +7524,7 @@
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C260" t="s">
@@ -7296,7 +7550,7 @@
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C261" t="s">
@@ -7322,7 +7576,7 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C262" t="s">
@@ -7371,7 +7625,7 @@
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C264" t="s">
@@ -7397,7 +7651,7 @@
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C265" t="s">
@@ -7423,7 +7677,7 @@
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C266" t="s">
@@ -7472,7 +7726,7 @@
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C268" t="s">
@@ -7521,7 +7775,7 @@
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C270" t="s">
@@ -7547,7 +7801,7 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C271" t="s">
@@ -7573,7 +7827,7 @@
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C272" t="s">
@@ -7599,7 +7853,7 @@
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C273" t="s">
@@ -7625,7 +7879,7 @@
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C274" t="s">
@@ -7651,7 +7905,7 @@
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C275" t="s">
@@ -7700,7 +7954,7 @@
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C277" t="s">
@@ -7726,7 +7980,7 @@
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C278" t="s">
@@ -7775,7 +8029,7 @@
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C280" t="s">
@@ -7801,7 +8055,7 @@
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C281" t="s">
@@ -7850,7 +8104,7 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C283" t="s">
@@ -7876,7 +8130,7 @@
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C284" t="s">
@@ -7902,7 +8156,7 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C285" t="s">
@@ -7928,7 +8182,7 @@
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C286" t="s">
@@ -7954,7 +8208,7 @@
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C287" t="s">
@@ -7980,7 +8234,7 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C288" t="s">
@@ -8006,7 +8260,7 @@
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C289" t="s">
@@ -8032,7 +8286,7 @@
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C290" t="s">
@@ -8058,7 +8312,7 @@
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C291" t="s">
@@ -8107,7 +8361,7 @@
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C293" t="s">
@@ -8133,7 +8387,7 @@
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C294" t="s">
@@ -8159,7 +8413,7 @@
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C295" t="s">
@@ -8185,7 +8439,7 @@
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C296" t="s">
@@ -8234,7 +8488,7 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C298" t="s">
@@ -8260,7 +8514,7 @@
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C299" t="s">
@@ -8309,7 +8563,7 @@
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C301" t="s">
@@ -8335,7 +8589,7 @@
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C302" t="s">
@@ -8361,7 +8615,7 @@
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C303" t="s">
@@ -8387,7 +8641,7 @@
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C304" t="s">
@@ -8413,7 +8667,7 @@
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C305" t="s">
@@ -8439,7 +8693,7 @@
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C306" t="s">
@@ -8465,7 +8719,7 @@
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C307" t="s">
@@ -8491,7 +8745,7 @@
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C308" t="s">
@@ -8540,7 +8794,7 @@
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C310" t="s">
@@ -8566,7 +8820,7 @@
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C311" t="s">
@@ -8592,7 +8846,7 @@
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C312" t="s">
@@ -8618,7 +8872,7 @@
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C313" t="s">
@@ -8667,7 +8921,7 @@
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C315" t="s">
@@ -8693,7 +8947,7 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C316" t="s">
@@ -8742,7 +8996,7 @@
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C318" t="s">
@@ -8768,7 +9022,7 @@
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C319" t="s">
@@ -8794,7 +9048,7 @@
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C320" t="s">
@@ -8820,7 +9074,7 @@
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C321" t="s">
@@ -8846,7 +9100,7 @@
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C322" t="s">
@@ -8872,7 +9126,7 @@
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C323" t="s">
@@ -8898,7 +9152,7 @@
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C324" t="s">
@@ -8924,7 +9178,7 @@
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C325" t="s">
@@ -8950,7 +9204,7 @@
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C326" t="s">
@@ -8999,7 +9253,7 @@
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C328" t="s">
@@ -9025,7 +9279,7 @@
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C329" t="s">
@@ -9051,7 +9305,7 @@
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C330" t="s">
@@ -9077,7 +9331,7 @@
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C331" t="s">
@@ -9126,7 +9380,7 @@
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C333" t="s">
@@ -9152,7 +9406,7 @@
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C334" t="s">
@@ -9201,7 +9455,7 @@
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C336" t="s">
@@ -9227,7 +9481,7 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C337" t="s">
@@ -9253,7 +9507,7 @@
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C338" t="s">
@@ -9279,7 +9533,7 @@
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C339" t="s">
@@ -9305,7 +9559,7 @@
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C340" t="s">
@@ -9331,7 +9585,7 @@
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C341" t="s">
@@ -9357,7 +9611,7 @@
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C342" t="s">
@@ -9383,7 +9637,7 @@
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C343" t="s">
@@ -9432,7 +9686,7 @@
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C345" t="s">
@@ -9458,7 +9712,7 @@
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C346" t="s">
@@ -9484,7 +9738,7 @@
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C347" t="s">
@@ -9533,7 +9787,7 @@
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C349" t="s">
@@ -9582,7 +9836,7 @@
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C351" t="s">
@@ -9608,7 +9862,7 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C352" t="s">
@@ -9630,11 +9884,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C353" t="s">
@@ -9656,11 +9910,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C354" t="s">
@@ -9682,11 +9936,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C355" t="s">
@@ -9708,11 +9962,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C356" t="s">
@@ -9734,11 +9988,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C357" t="s">
@@ -9760,11 +10014,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C358" t="s">
@@ -9786,7 +10040,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -9809,11 +10063,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C360" t="s">
@@ -9835,11 +10089,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C361" t="s">
@@ -9861,11 +10115,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C362" t="s">
@@ -9887,11 +10141,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C363" t="s">
@@ -9913,7 +10167,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9936,11 +10190,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C365" t="s">
@@ -9961,12 +10215,15 @@
       <c r="I365">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C366" t="s">
@@ -9987,8 +10244,11 @@
       <c r="I366">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J366" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10011,11 +10271,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C368" t="s">
@@ -10036,12 +10296,15 @@
       <c r="I368">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C369" t="s">
@@ -10062,12 +10325,15 @@
       <c r="I369">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C370" t="s">
@@ -10088,12 +10354,15 @@
       <c r="I370">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C371" t="s">
@@ -10114,12 +10383,15 @@
       <c r="I371">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C372" t="s">
@@ -10140,12 +10412,15 @@
       <c r="I372">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C373" t="s">
@@ -10166,12 +10441,15 @@
       <c r="I373">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C374" t="s">
@@ -10192,12 +10470,15 @@
       <c r="I374">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C375" t="s">
@@ -10218,8 +10499,11 @@
       <c r="I375">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J375" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10242,11 +10526,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C377" t="s">
@@ -10267,12 +10551,15 @@
       <c r="I377">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C378" t="s">
@@ -10293,12 +10580,15 @@
       <c r="I378">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C379" t="s">
@@ -10319,12 +10609,15 @@
       <c r="I379">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C380" t="s">
@@ -10345,8 +10638,11 @@
       <c r="I380">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J380" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10369,11 +10665,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C382" t="s">
@@ -10395,11 +10691,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C383" t="s">
@@ -10421,7 +10717,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10448,7 +10744,7 @@
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C385" t="s">
@@ -10474,7 +10770,7 @@
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C386" t="s">
@@ -10500,7 +10796,7 @@
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C387" t="s">
@@ -10526,7 +10822,7 @@
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C388" t="s">
@@ -10552,7 +10848,7 @@
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C389" t="s">
@@ -10578,7 +10874,7 @@
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C390" t="s">
@@ -10604,7 +10900,7 @@
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C391" t="s">
@@ -10630,7 +10926,7 @@
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C392" t="s">
@@ -10679,7 +10975,7 @@
       <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C394" t="s">
@@ -10705,7 +11001,7 @@
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C395" t="s">
@@ -10731,7 +11027,7 @@
       <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C396" t="s">
@@ -10780,7 +11076,7 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C398" t="s">
@@ -10829,7 +11125,7 @@
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C400" t="s">
@@ -10855,7 +11151,7 @@
       <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C401" t="s">
@@ -10881,7 +11177,7 @@
       <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C402" t="s">
@@ -10907,7 +11203,7 @@
       <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C403" t="s">
@@ -10933,7 +11229,7 @@
       <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C404" t="s">
@@ -10959,7 +11255,7 @@
       <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C405" t="s">
@@ -10985,7 +11281,7 @@
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C406" t="s">
@@ -11011,7 +11307,7 @@
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C407" t="s">
@@ -11060,7 +11356,7 @@
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C409" t="s">
@@ -11086,7 +11382,7 @@
       <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C410" t="s">
@@ -11112,7 +11408,7 @@
       <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C411" t="s">
@@ -11138,7 +11434,7 @@
       <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C412" t="s">
@@ -11187,7 +11483,7 @@
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C414" t="s">
@@ -11213,7 +11509,7 @@
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C415" t="s">
@@ -11262,7 +11558,7 @@
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C417" t="s">
@@ -11288,7 +11584,7 @@
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C418" t="s">
@@ -11314,7 +11610,7 @@
       <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C419" t="s">
@@ -11340,7 +11636,7 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C420" t="s">
@@ -11366,7 +11662,7 @@
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C421" t="s">
@@ -11392,7 +11688,7 @@
       <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C422" t="s">
@@ -11418,7 +11714,7 @@
       <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C423" t="s">
@@ -11444,7 +11740,7 @@
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C424" t="s">
@@ -11493,7 +11789,7 @@
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C426" t="s">
@@ -11519,7 +11815,7 @@
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C427" t="s">
@@ -11545,7 +11841,7 @@
       <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C428" t="s">
@@ -11571,7 +11867,7 @@
       <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C429" t="s">
@@ -11597,7 +11893,7 @@
       <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C430" t="s">
@@ -11646,7 +11942,7 @@
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C432" t="s">
@@ -11672,7 +11968,7 @@
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C433" t="s">
@@ -11721,7 +12017,7 @@
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C435" t="s">
@@ -11747,7 +12043,7 @@
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C436" t="s">
@@ -11773,7 +12069,7 @@
       <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C437" t="s">
@@ -11799,7 +12095,7 @@
       <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C438" t="s">
@@ -11825,7 +12121,7 @@
       <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C439" t="s">
@@ -11851,7 +12147,7 @@
       <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C440" t="s">
@@ -11877,7 +12173,7 @@
       <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C441" t="s">
@@ -11903,7 +12199,7 @@
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C442" t="s">
@@ -11952,7 +12248,7 @@
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C444" t="s">
@@ -11978,7 +12274,7 @@
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C445" t="s">
@@ -12004,7 +12300,7 @@
       <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C446" t="s">
@@ -12030,7 +12326,7 @@
       <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C447" t="s">
@@ -12079,7 +12375,7 @@
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C449" t="s">
@@ -12128,7 +12424,7 @@
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C451" t="s">
@@ -12154,7 +12450,7 @@
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C452" t="s">
@@ -12180,7 +12476,7 @@
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C453" t="s">
@@ -12206,7 +12502,7 @@
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C454" t="s">
@@ -12232,7 +12528,7 @@
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C455" t="s">
@@ -12258,7 +12554,7 @@
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C456" t="s">
@@ -12284,7 +12580,7 @@
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C457" t="s">
@@ -12310,7 +12606,7 @@
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C458" t="s">
@@ -12359,7 +12655,7 @@
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C460" t="s">
@@ -12385,7 +12681,7 @@
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C461" t="s">
@@ -12411,7 +12707,7 @@
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C462" t="s">
@@ -12460,7 +12756,7 @@
       <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C464" t="s">
@@ -12486,7 +12782,7 @@
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C465" t="s">
@@ -12535,7 +12831,7 @@
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C467" t="s">
@@ -12561,7 +12857,7 @@
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C468" t="s">
@@ -12587,7 +12883,7 @@
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C469" t="s">
@@ -12613,7 +12909,7 @@
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C470" t="s">
@@ -12639,7 +12935,7 @@
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C471" t="s">
@@ -12665,7 +12961,7 @@
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C472" t="s">
@@ -12691,7 +12987,7 @@
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C473" t="s">
@@ -12717,7 +13013,7 @@
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C474" t="s">
@@ -12766,7 +13062,7 @@
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C476" t="s">
@@ -12792,7 +13088,7 @@
       <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C477" t="s">
@@ -12818,7 +13114,7 @@
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C478" t="s">
@@ -12844,7 +13140,7 @@
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C479" t="s">
@@ -12870,7 +13166,7 @@
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C480" t="s">
@@ -12892,7 +13188,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -12915,11 +13211,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C482" t="s">
@@ -12940,12 +13236,15 @@
       <c r="I482">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C483" t="s">
@@ -12966,8 +13265,11 @@
       <c r="I483">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J483" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -12990,11 +13292,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C485" t="s">
@@ -13015,12 +13317,15 @@
       <c r="I485">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C486" t="s">
@@ -13041,12 +13346,15 @@
       <c r="I486">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C487" t="s">
@@ -13067,12 +13375,15 @@
       <c r="I487">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C488" t="s">
@@ -13093,12 +13404,15 @@
       <c r="I488">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C489" t="s">
@@ -13119,12 +13433,15 @@
       <c r="I489">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C490" t="s">
@@ -13145,12 +13462,15 @@
       <c r="I490">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C491" t="s">
@@ -13171,12 +13491,15 @@
       <c r="I491">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C492" t="s">
@@ -13197,8 +13520,11 @@
       <c r="I492">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J492" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -13221,11 +13547,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C494" t="s">
@@ -13246,12 +13572,15 @@
       <c r="I494">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C495" t="s">
@@ -13272,12 +13601,15 @@
       <c r="I495">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C496" t="s">
@@ -13298,12 +13630,15 @@
       <c r="I496">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C497" t="s">
@@ -13324,8 +13659,11 @@
       <c r="I497">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J497" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -13348,11 +13686,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C499" t="s">
@@ -13374,11 +13712,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C500" t="s">
@@ -13400,7 +13738,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -13423,11 +13761,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C502" t="s">
@@ -13449,11 +13787,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C503" t="s">
@@ -13475,11 +13813,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C504" t="s">
@@ -13501,11 +13839,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C505" t="s">
@@ -13527,11 +13865,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C506" t="s">
@@ -13553,11 +13891,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C507" t="s">
@@ -13579,11 +13917,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C508" t="s">
@@ -13605,11 +13943,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C509" t="s">
@@ -13631,7 +13969,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -13654,11 +13992,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C511" t="s">
@@ -13680,11 +14018,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C512" t="s">
@@ -13710,7 +14048,7 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C513" t="s">
@@ -13736,7 +14074,7 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C514" t="s">
@@ -13785,7 +14123,7 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C516" t="s">
@@ -13811,7 +14149,7 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C517" t="s">
@@ -13860,7 +14198,7 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C519" t="s">
@@ -13886,7 +14224,7 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C520" t="s">
@@ -13912,7 +14250,7 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C521" t="s">
@@ -13938,7 +14276,7 @@
       <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C522" t="s">
@@ -13964,7 +14302,7 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C523" t="s">
@@ -13990,7 +14328,7 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C524" t="s">
@@ -14016,7 +14354,7 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C525" t="s">
@@ -14042,7 +14380,7 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C526" t="s">
@@ -14091,7 +14429,7 @@
       <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C528" t="s">
@@ -14117,7 +14455,7 @@
       <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C529" t="s">
@@ -14143,7 +14481,7 @@
       <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C530" t="s">
@@ -14169,7 +14507,7 @@
       <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C531" t="s">
@@ -14218,7 +14556,7 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C533" t="s">
@@ -14244,7 +14582,7 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C534" t="s">
@@ -14293,7 +14631,7 @@
       <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C536" t="s">
@@ -14319,7 +14657,7 @@
       <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C537" t="s">
@@ -14345,7 +14683,7 @@
       <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C538" t="s">
@@ -14371,7 +14709,7 @@
       <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C539" t="s">
@@ -14397,7 +14735,7 @@
       <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C540" t="s">
@@ -14423,7 +14761,7 @@
       <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C541" t="s">
@@ -14449,7 +14787,7 @@
       <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C542" t="s">
@@ -14475,7 +14813,7 @@
       <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C543" t="s">
@@ -14524,7 +14862,7 @@
       <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C545" t="s">
@@ -14550,7 +14888,7 @@
       <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C546" t="s">
@@ -14576,7 +14914,7 @@
       <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C547" t="s">
@@ -14602,7 +14940,7 @@
       <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C548" t="s">
@@ -14651,7 +14989,7 @@
       <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C550" t="s">
@@ -14677,7 +15015,7 @@
       <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C551" t="s">
@@ -14726,7 +15064,7 @@
       <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C553" t="s">
@@ -14752,7 +15090,7 @@
       <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C554" t="s">
@@ -14778,7 +15116,7 @@
       <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C555" t="s">
@@ -14804,7 +15142,7 @@
       <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C556" t="s">
@@ -14830,7 +15168,7 @@
       <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C557" t="s">
@@ -14856,7 +15194,7 @@
       <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C558" t="s">
@@ -14882,7 +15220,7 @@
       <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C559" t="s">
@@ -14908,7 +15246,7 @@
       <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C560" t="s">
@@ -14930,7 +15268,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -14953,11 +15291,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C562" t="s">
@@ -14979,11 +15317,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C563" t="s">
@@ -15005,11 +15343,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C564" t="s">
@@ -15031,11 +15369,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C565" t="s">
@@ -15057,7 +15395,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -15080,11 +15418,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C567" t="s">
@@ -15105,12 +15443,15 @@
       <c r="I567">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J567" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C568" t="s">
@@ -15131,8 +15472,11 @@
       <c r="I568">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J568" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -15155,11 +15499,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C570" t="s">
@@ -15180,12 +15524,15 @@
       <c r="I570">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J570" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C571" t="s">
@@ -15206,12 +15553,15 @@
       <c r="I571">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J571" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C572" t="s">
@@ -15232,12 +15582,15 @@
       <c r="I572">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J572" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C573" t="s">
@@ -15258,12 +15611,15 @@
       <c r="I573">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J573" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C574" t="s">
@@ -15284,12 +15640,15 @@
       <c r="I574">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J574" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C575" t="s">
@@ -15310,12 +15669,15 @@
       <c r="I575">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J575" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C576" t="s">
@@ -15336,12 +15698,15 @@
       <c r="I576">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J576" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C577" t="s">
@@ -15362,8 +15727,11 @@
       <c r="I577">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J577" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -15386,11 +15754,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C579" t="s">
@@ -15411,12 +15779,15 @@
       <c r="I579">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J579" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C580" t="s">
@@ -15437,12 +15808,15 @@
       <c r="I580">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J580" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C581" t="s">
@@ -15463,12 +15837,15 @@
       <c r="I581">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J581" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C582" t="s">
@@ -15489,8 +15866,11 @@
       <c r="I582">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J582" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -15513,11 +15893,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C584" t="s">
@@ -15539,11 +15919,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C585" t="s">
@@ -15565,7 +15945,7 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -15588,11 +15968,11 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C587" t="s">
@@ -15614,11 +15994,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C588" t="s">
@@ -15640,11 +16020,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C589" t="s">
@@ -15666,11 +16046,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C590" t="s">
@@ -15692,11 +16072,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C591" t="s">
@@ -15718,11 +16098,11 @@
         <v>89.43</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C592" t="s">
@@ -15748,7 +16128,7 @@
       <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C593" t="s">
@@ -15774,7 +16154,7 @@
       <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C594" t="s">
@@ -15823,7 +16203,7 @@
       <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C596" t="s">
@@ -15849,7 +16229,7 @@
       <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C597" t="s">
@@ -15875,7 +16255,7 @@
       <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C598" t="s">
@@ -15901,7 +16281,7 @@
       <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C599" t="s">
@@ -15950,7 +16330,7 @@
       <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C601" t="s">
@@ -15976,7 +16356,7 @@
       <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C602" t="s">
@@ -16025,7 +16405,7 @@
       <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C604" t="s">
@@ -16051,7 +16431,7 @@
       <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C605" t="s">
@@ -16077,7 +16457,7 @@
       <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C606" t="s">
@@ -16103,7 +16483,7 @@
       <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C607" t="s">
@@ -16129,7 +16509,7 @@
       <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C608" t="s">
@@ -16155,7 +16535,7 @@
       <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C609" t="s">
@@ -16181,7 +16561,7 @@
       <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C610" t="s">
@@ -16207,7 +16587,7 @@
       <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C611" t="s">
@@ -16256,7 +16636,7 @@
       <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C613" t="s">
@@ -16282,7 +16662,7 @@
       <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C614" t="s">
@@ -16308,7 +16688,7 @@
       <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C615" t="s">
@@ -16334,7 +16714,7 @@
       <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C616" t="s">
@@ -16383,7 +16763,7 @@
       <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C618" t="s">
@@ -16409,7 +16789,7 @@
       <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C619" t="s">
@@ -16458,7 +16838,7 @@
       <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C621" t="s">
@@ -16484,7 +16864,7 @@
       <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C622" t="s">
@@ -16510,7 +16890,7 @@
       <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C623" t="s">
@@ -16536,7 +16916,7 @@
       <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C624" t="s">
@@ -16562,7 +16942,7 @@
       <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C625" t="s">
@@ -16588,7 +16968,7 @@
       <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C626" t="s">
@@ -16614,7 +16994,7 @@
       <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C627" t="s">
@@ -16640,7 +17020,7 @@
       <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C628" t="s">
@@ -16689,7 +17069,7 @@
       <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C630" t="s">
@@ -16715,7 +17095,7 @@
       <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C631" t="s">
@@ -16741,7 +17121,7 @@
       <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C632" t="s">
@@ -16767,7 +17147,7 @@
       <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C633" t="s">
@@ -16816,7 +17196,7 @@
       <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C635" t="s">
@@ -16842,7 +17222,7 @@
       <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C636" t="s">
@@ -16891,7 +17271,7 @@
       <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C638" t="s">
@@ -16917,7 +17297,7 @@
       <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C639" t="s">
@@ -16943,7 +17323,7 @@
       <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C640" t="s">
@@ -16969,7 +17349,7 @@
       <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C641" t="s">
@@ -16995,7 +17375,7 @@
       <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C642" t="s">
@@ -17021,7 +17401,7 @@
       <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C643" t="s">
@@ -17047,7 +17427,7 @@
       <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C644" t="s">
@@ -17073,7 +17453,7 @@
       <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C645" t="s">
@@ -17099,7 +17479,7 @@
       <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C646" t="s">
@@ -17148,7 +17528,7 @@
       <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C648" t="s">
@@ -17174,7 +17554,7 @@
       <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C649" t="s">
@@ -17200,7 +17580,7 @@
       <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C650" t="s">
@@ -17226,7 +17606,7 @@
       <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B651" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C651" t="s">
@@ -17275,7 +17655,7 @@
       <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C653" t="s">
@@ -17301,7 +17681,7 @@
       <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C654" t="s">
@@ -17350,7 +17730,7 @@
       <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C656" t="s">
@@ -17376,7 +17756,7 @@
       <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C657" t="s">
@@ -17402,7 +17782,7 @@
       <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C658" t="s">
@@ -17428,7 +17808,7 @@
       <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C659" t="s">
@@ -17454,7 +17834,7 @@
       <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B660" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C660" t="s">
@@ -17480,7 +17860,7 @@
       <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C661" t="s">
@@ -17506,7 +17886,7 @@
       <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C662" t="s">
@@ -17532,7 +17912,7 @@
       <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C663" t="s">
@@ -17558,7 +17938,7 @@
       <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C664" t="s">
@@ -17607,7 +17987,7 @@
       <c r="A666" s="1">
         <v>664</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C666" t="s">
@@ -17633,7 +18013,7 @@
       <c r="A667" s="1">
         <v>665</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C667" t="s">
@@ -17659,7 +18039,7 @@
       <c r="A668" s="1">
         <v>666</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C668" t="s">
@@ -17685,7 +18065,7 @@
       <c r="A669" s="1">
         <v>667</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C669" t="s">
@@ -17711,7 +18091,7 @@
       <c r="A670" s="1">
         <v>668</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C670" t="s">
@@ -17760,7 +18140,7 @@
       <c r="A672" s="1">
         <v>670</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C672" t="s">
@@ -17786,7 +18166,7 @@
       <c r="A673" s="1">
         <v>671</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C673" t="s">
@@ -17835,7 +18215,7 @@
       <c r="A675" s="1">
         <v>673</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C675" t="s">
@@ -17861,7 +18241,7 @@
       <c r="A676" s="1">
         <v>674</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C676" t="s">
@@ -17887,7 +18267,7 @@
       <c r="A677" s="1">
         <v>675</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C677" t="s">
@@ -17913,7 +18293,7 @@
       <c r="A678" s="1">
         <v>676</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B678" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C678" t="s">
@@ -17939,7 +18319,7 @@
       <c r="A679" s="1">
         <v>677</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B679" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C679" t="s">
@@ -17965,7 +18345,7 @@
       <c r="A680" s="1">
         <v>678</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B680" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C680" t="s">
@@ -17991,7 +18371,7 @@
       <c r="A681" s="1">
         <v>679</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B681" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C681" t="s">
@@ -18017,7 +18397,7 @@
       <c r="A682" s="1">
         <v>680</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B682" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C682" t="s">
@@ -18066,7 +18446,7 @@
       <c r="A684" s="1">
         <v>682</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B684" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C684" t="s">
@@ -18092,7 +18472,7 @@
       <c r="A685" s="1">
         <v>683</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B685" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C685" t="s">
@@ -18118,7 +18498,7 @@
       <c r="A686" s="1">
         <v>684</v>
       </c>
-      <c r="B686" t="s">
+      <c r="B686" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C686" t="s">
@@ -18144,7 +18524,7 @@
       <c r="A687" s="1">
         <v>685</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B687" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C687" t="s">
@@ -18173,7 +18553,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I687" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:J687" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="89,43"/>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1271E21-6602-4ED3-8641-99F02A8F9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86DE53-33E1-4ACF-88FB-C4F6B27A4D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5895" yWindow="5370" windowWidth="7905" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="87">
   <si>
     <t>archivo</t>
   </si>
@@ -664,8 +664,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="B651" sqref="B651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2597,6 +2597,9 @@
       <c r="I69">
         <v>89.43</v>
       </c>
+      <c r="J69" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2623,6 +2626,9 @@
       <c r="I70">
         <v>89.43</v>
       </c>
+      <c r="J70" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2672,6 +2678,9 @@
       <c r="I72">
         <v>89.43</v>
       </c>
+      <c r="J72" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2698,6 +2707,9 @@
       <c r="I73">
         <v>89.43</v>
       </c>
+      <c r="J73" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2724,6 +2736,9 @@
       <c r="I74">
         <v>89.43</v>
       </c>
+      <c r="J74" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -2750,6 +2765,9 @@
       <c r="I75">
         <v>89.43</v>
       </c>
+      <c r="J75" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2776,6 +2794,9 @@
       <c r="I76">
         <v>89.43</v>
       </c>
+      <c r="J76" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2802,6 +2823,9 @@
       <c r="I77">
         <v>89.43</v>
       </c>
+      <c r="J77" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2828,6 +2852,9 @@
       <c r="I78">
         <v>89.43</v>
       </c>
+      <c r="J78" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2854,6 +2881,9 @@
       <c r="I79">
         <v>89.43</v>
       </c>
+      <c r="J79" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -2880,8 +2910,11 @@
       <c r="I80">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2904,7 +2937,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2929,8 +2962,11 @@
       <c r="I82">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2955,8 +2991,11 @@
       <c r="I83">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2981,8 +3020,11 @@
       <c r="I84">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3007,8 +3049,11 @@
       <c r="I85">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3033,8 +3078,11 @@
       <c r="I86">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3057,7 +3105,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3082,8 +3130,11 @@
       <c r="I88">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3106,7 +3157,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3131,8 +3182,11 @@
       <c r="I90">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3157,8 +3211,11 @@
       <c r="I91">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3183,8 +3240,11 @@
       <c r="I92">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3209,8 +3269,11 @@
       <c r="I93">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3235,8 +3298,11 @@
       <c r="I94">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3261,8 +3327,11 @@
       <c r="I95">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3287,8 +3356,11 @@
       <c r="I96">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3313,8 +3385,11 @@
       <c r="I97">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3337,7 +3412,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3362,8 +3437,11 @@
       <c r="I99">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3388,8 +3466,11 @@
       <c r="I100">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3414,8 +3495,11 @@
       <c r="I101">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3440,8 +3524,11 @@
       <c r="I102">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3464,7 +3551,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3489,8 +3576,11 @@
       <c r="I104">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3513,7 +3603,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3538,8 +3628,11 @@
       <c r="I106">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3564,8 +3657,11 @@
       <c r="I107">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3590,8 +3686,11 @@
       <c r="I108">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3616,8 +3715,11 @@
       <c r="I109">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3642,8 +3744,11 @@
       <c r="I110">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3668,8 +3773,11 @@
       <c r="I111">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3694,8 +3802,11 @@
       <c r="I112">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3720,8 +3831,11 @@
       <c r="I113">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3744,7 +3858,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3769,8 +3883,11 @@
       <c r="I115">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3795,8 +3912,11 @@
       <c r="I116">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3821,8 +3941,11 @@
       <c r="I117">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3847,8 +3970,11 @@
       <c r="I118">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3871,7 +3997,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3896,8 +4022,11 @@
       <c r="I120">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3922,8 +4051,11 @@
       <c r="I121">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3946,7 +4078,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3971,8 +4103,11 @@
       <c r="I123">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3997,8 +4132,11 @@
       <c r="I124">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4023,8 +4161,11 @@
       <c r="I125">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4049,8 +4190,11 @@
       <c r="I126">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4075,8 +4219,11 @@
       <c r="I127">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4101,8 +4248,11 @@
       <c r="I128">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4127,8 +4277,11 @@
       <c r="I129">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4153,8 +4306,11 @@
       <c r="I130">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4177,7 +4333,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4202,8 +4358,11 @@
       <c r="I132">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4228,8 +4387,11 @@
       <c r="I133">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4254,8 +4416,11 @@
       <c r="I134">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4280,8 +4445,11 @@
       <c r="I135">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4306,8 +4474,11 @@
       <c r="I136">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4330,7 +4501,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4355,8 +4526,11 @@
       <c r="I138">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4379,7 +4553,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4404,8 +4578,11 @@
       <c r="I140">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4430,8 +4607,11 @@
       <c r="I141">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4456,8 +4636,11 @@
       <c r="I142">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4482,8 +4665,11 @@
       <c r="I143">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4507,6 +4693,9 @@
       </c>
       <c r="I144">
         <v>89.43</v>
+      </c>
+      <c r="J144" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -4534,6 +4723,9 @@
       <c r="I145">
         <v>89.43</v>
       </c>
+      <c r="J145" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -4560,6 +4752,9 @@
       <c r="I146">
         <v>89.43</v>
       </c>
+      <c r="J146" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -4586,6 +4781,9 @@
       <c r="I147">
         <v>89.43</v>
       </c>
+      <c r="J147" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -4635,6 +4833,9 @@
       <c r="I149">
         <v>89.43</v>
       </c>
+      <c r="J149" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -4661,6 +4862,9 @@
       <c r="I150">
         <v>89.43</v>
       </c>
+      <c r="J150" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -4687,6 +4891,9 @@
       <c r="I151">
         <v>89.43</v>
       </c>
+      <c r="J151" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -4713,6 +4920,9 @@
       <c r="I152">
         <v>89.43</v>
       </c>
+      <c r="J152" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -5237,6 +5447,9 @@
       <c r="I171">
         <v>89.43</v>
       </c>
+      <c r="J171" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -5263,6 +5476,9 @@
       <c r="I172">
         <v>89.43</v>
       </c>
+      <c r="J172" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -5312,6 +5528,9 @@
       <c r="I174">
         <v>89.43</v>
       </c>
+      <c r="J174" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -5338,6 +5557,9 @@
       <c r="I175">
         <v>89.43</v>
       </c>
+      <c r="J175" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -5364,8 +5586,11 @@
       <c r="I176">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5390,8 +5615,11 @@
       <c r="I177">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5416,8 +5644,11 @@
       <c r="I178">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5442,8 +5673,11 @@
       <c r="I179">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5468,8 +5702,11 @@
       <c r="I180">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5492,7 +5729,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5517,8 +5754,11 @@
       <c r="I182">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5543,8 +5783,11 @@
       <c r="I183">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5569,8 +5812,11 @@
       <c r="I184">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5593,7 +5839,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5618,8 +5864,11 @@
       <c r="I186">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5644,8 +5893,11 @@
       <c r="I187">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5668,7 +5920,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5693,8 +5945,11 @@
       <c r="I189">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5719,8 +5974,11 @@
       <c r="I190">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5745,8 +6003,11 @@
       <c r="I191">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5771,8 +6032,11 @@
       <c r="I192">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5797,8 +6061,11 @@
       <c r="I193">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5823,8 +6090,11 @@
       <c r="I194">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5849,8 +6119,11 @@
       <c r="I195">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5875,8 +6148,11 @@
       <c r="I196">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5899,7 +6175,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5924,8 +6200,11 @@
       <c r="I198">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5950,8 +6229,11 @@
       <c r="I199">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5976,8 +6258,11 @@
       <c r="I200">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6002,8 +6287,11 @@
       <c r="I201">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6026,7 +6314,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6051,8 +6339,11 @@
       <c r="I203">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6077,8 +6368,11 @@
       <c r="I204">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6101,7 +6395,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6126,8 +6420,11 @@
       <c r="I206">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6152,8 +6449,11 @@
       <c r="I207">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6178,8 +6478,11 @@
       <c r="I208">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6204,8 +6507,11 @@
       <c r="I209">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6230,8 +6536,11 @@
       <c r="I210">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6256,8 +6565,11 @@
       <c r="I211">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6282,8 +6594,11 @@
       <c r="I212">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6308,8 +6623,11 @@
       <c r="I213">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6332,7 +6650,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6357,8 +6675,11 @@
       <c r="I215">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6383,8 +6704,11 @@
       <c r="I216">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6409,8 +6733,11 @@
       <c r="I217">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6435,8 +6762,11 @@
       <c r="I218">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6459,7 +6789,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6484,8 +6814,11 @@
       <c r="I220">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6510,8 +6843,11 @@
       <c r="I221">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6534,7 +6870,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6559,8 +6895,11 @@
       <c r="I223">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6584,6 +6923,9 @@
       </c>
       <c r="I224">
         <v>89.43</v>
+      </c>
+      <c r="J224" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -6611,6 +6953,9 @@
       <c r="I225">
         <v>89.43</v>
       </c>
+      <c r="J225" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
@@ -6637,6 +6982,9 @@
       <c r="I226">
         <v>89.43</v>
       </c>
+      <c r="J226" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
@@ -6663,6 +7011,9 @@
       <c r="I227">
         <v>89.43</v>
       </c>
+      <c r="J227" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
@@ -6689,6 +7040,9 @@
       <c r="I228">
         <v>89.43</v>
       </c>
+      <c r="J228" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
@@ -6715,6 +7069,9 @@
       <c r="I229">
         <v>89.43</v>
       </c>
+      <c r="J229" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
@@ -6764,6 +7121,9 @@
       <c r="I231">
         <v>89.43</v>
       </c>
+      <c r="J231" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
@@ -6790,6 +7150,9 @@
       <c r="I232">
         <v>89.43</v>
       </c>
+      <c r="J232" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -6816,6 +7179,9 @@
       <c r="I233">
         <v>89.43</v>
       </c>
+      <c r="J233" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -6842,6 +7208,9 @@
       <c r="I234">
         <v>89.43</v>
       </c>
+      <c r="J234" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
@@ -7366,6 +7735,9 @@
       <c r="I253">
         <v>89.43</v>
       </c>
+      <c r="J253" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
@@ -7392,6 +7764,9 @@
       <c r="I254">
         <v>89.43</v>
       </c>
+      <c r="J254" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
@@ -7441,8 +7816,11 @@
       <c r="I256">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7467,8 +7845,11 @@
       <c r="I257">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7493,8 +7874,11 @@
       <c r="I258">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7519,8 +7903,11 @@
       <c r="I259">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7545,8 +7932,11 @@
       <c r="I260">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7571,8 +7961,11 @@
       <c r="I261">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7597,8 +7990,11 @@
       <c r="I262">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7621,7 +8017,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7646,8 +8042,11 @@
       <c r="I264">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7672,8 +8071,11 @@
       <c r="I265">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7698,8 +8100,11 @@
       <c r="I266">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7722,7 +8127,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7747,8 +8152,11 @@
       <c r="I268">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J268" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7771,7 +8179,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7796,8 +8204,11 @@
       <c r="I270">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7822,8 +8233,11 @@
       <c r="I271">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7848,8 +8262,11 @@
       <c r="I272">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7874,8 +8291,11 @@
       <c r="I273">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7900,8 +8320,11 @@
       <c r="I274">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7926,8 +8349,11 @@
       <c r="I275">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J275" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7950,7 +8376,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7975,8 +8401,11 @@
       <c r="I277">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8001,8 +8430,11 @@
       <c r="I278">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J278" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8025,7 +8457,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8050,8 +8482,11 @@
       <c r="I280">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8076,8 +8511,11 @@
       <c r="I281">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J281" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8100,7 +8538,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8125,8 +8563,11 @@
       <c r="I283">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8151,8 +8592,11 @@
       <c r="I284">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8177,8 +8621,11 @@
       <c r="I285">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8203,8 +8650,11 @@
       <c r="I286">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -8229,8 +8679,11 @@
       <c r="I287">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8255,8 +8708,11 @@
       <c r="I288">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -8281,8 +8737,11 @@
       <c r="I289">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8307,8 +8766,11 @@
       <c r="I290">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8333,8 +8795,11 @@
       <c r="I291">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J291" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8357,7 +8822,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8382,8 +8847,11 @@
       <c r="I293">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8408,8 +8876,11 @@
       <c r="I294">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -8434,8 +8905,11 @@
       <c r="I295">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8460,8 +8934,11 @@
       <c r="I296">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J296" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8484,7 +8961,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8509,8 +8986,11 @@
       <c r="I298">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8535,8 +9015,11 @@
       <c r="I299">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J299" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8559,7 +9042,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8584,8 +9067,11 @@
       <c r="I301">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8610,8 +9096,11 @@
       <c r="I302">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8636,8 +9125,11 @@
       <c r="I303">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8662,8 +9154,11 @@
       <c r="I304">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8688,8 +9183,11 @@
       <c r="I305">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8714,8 +9212,11 @@
       <c r="I306">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8740,8 +9241,11 @@
       <c r="I307">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -8766,8 +9270,11 @@
       <c r="I308">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J308" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8790,7 +9297,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8815,8 +9322,11 @@
       <c r="I310">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8841,8 +9351,11 @@
       <c r="I311">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -8867,8 +9380,11 @@
       <c r="I312">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8893,8 +9409,11 @@
       <c r="I313">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J313" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8917,7 +9436,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8942,8 +9461,11 @@
       <c r="I315">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8968,8 +9490,11 @@
       <c r="I316">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J316" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8992,7 +9517,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9017,8 +9542,11 @@
       <c r="I318">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9043,8 +9571,11 @@
       <c r="I319">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9069,8 +9600,11 @@
       <c r="I320">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9095,8 +9629,11 @@
       <c r="I321">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9121,8 +9658,11 @@
       <c r="I322">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9147,8 +9687,11 @@
       <c r="I323">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9173,8 +9716,11 @@
       <c r="I324">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9199,8 +9745,11 @@
       <c r="I325">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9225,8 +9774,11 @@
       <c r="I326">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J326" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9249,7 +9801,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9274,8 +9826,11 @@
       <c r="I328">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9300,8 +9855,11 @@
       <c r="I329">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9326,8 +9884,11 @@
       <c r="I330">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9352,8 +9913,11 @@
       <c r="I331">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J331" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9376,7 +9940,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9401,8 +9965,11 @@
       <c r="I333">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9427,8 +9994,11 @@
       <c r="I334">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J334" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -9451,7 +10021,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9476,8 +10046,11 @@
       <c r="I336">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -9502,8 +10075,11 @@
       <c r="I337">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -9528,8 +10104,11 @@
       <c r="I338">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -9554,8 +10133,11 @@
       <c r="I339">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -9580,8 +10162,11 @@
       <c r="I340">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -9606,8 +10191,11 @@
       <c r="I341">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9632,8 +10220,11 @@
       <c r="I342">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -9658,8 +10249,11 @@
       <c r="I343">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J343" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -9682,7 +10276,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -9707,8 +10301,11 @@
       <c r="I345">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -9733,8 +10330,11 @@
       <c r="I346">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -9759,8 +10359,11 @@
       <c r="I347">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J347" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9783,7 +10386,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -9808,8 +10411,11 @@
       <c r="I349">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J349" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -9832,7 +10438,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -9857,8 +10463,11 @@
       <c r="I351">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -9882,6 +10491,9 @@
       </c>
       <c r="I352">
         <v>89.43</v>
+      </c>
+      <c r="J352" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -9909,6 +10521,9 @@
       <c r="I353">
         <v>89.43</v>
       </c>
+      <c r="J353" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
@@ -9935,6 +10550,9 @@
       <c r="I354">
         <v>89.43</v>
       </c>
+      <c r="J354" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
@@ -9961,6 +10579,9 @@
       <c r="I355">
         <v>89.43</v>
       </c>
+      <c r="J355" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
@@ -9987,6 +10608,9 @@
       <c r="I356">
         <v>89.43</v>
       </c>
+      <c r="J356" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
@@ -10013,6 +10637,9 @@
       <c r="I357">
         <v>89.43</v>
       </c>
+      <c r="J357" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
@@ -10039,6 +10666,9 @@
       <c r="I358">
         <v>89.43</v>
       </c>
+      <c r="J358" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
@@ -10088,6 +10718,9 @@
       <c r="I360">
         <v>89.43</v>
       </c>
+      <c r="J360" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
@@ -10114,6 +10747,9 @@
       <c r="I361">
         <v>89.43</v>
       </c>
+      <c r="J361" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
@@ -10140,6 +10776,9 @@
       <c r="I362">
         <v>89.43</v>
       </c>
+      <c r="J362" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
@@ -10166,6 +10805,9 @@
       <c r="I363">
         <v>89.43</v>
       </c>
+      <c r="J363" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
@@ -10690,6 +11332,9 @@
       <c r="I382">
         <v>89.43</v>
       </c>
+      <c r="J382" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
@@ -10716,6 +11361,9 @@
       <c r="I383">
         <v>89.43</v>
       </c>
+      <c r="J383" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
@@ -10740,7 +11388,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10765,8 +11413,11 @@
       <c r="I385">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10791,8 +11442,11 @@
       <c r="I386">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10817,8 +11471,11 @@
       <c r="I387">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10843,8 +11500,11 @@
       <c r="I388">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10869,8 +11529,11 @@
       <c r="I389">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10895,8 +11558,11 @@
       <c r="I390">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10921,8 +11587,11 @@
       <c r="I391">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10947,8 +11616,11 @@
       <c r="I392">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J392" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10971,7 +11643,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10996,8 +11668,11 @@
       <c r="I394">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -11022,8 +11697,11 @@
       <c r="I395">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -11048,8 +11726,11 @@
       <c r="I396">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J396" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -11072,7 +11753,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -11097,8 +11778,11 @@
       <c r="I398">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J398" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -11121,7 +11805,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -11146,8 +11830,11 @@
       <c r="I400">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -11172,8 +11859,11 @@
       <c r="I401">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -11198,8 +11888,11 @@
       <c r="I402">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -11224,8 +11917,11 @@
       <c r="I403">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -11250,8 +11946,11 @@
       <c r="I404">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -11276,8 +11975,11 @@
       <c r="I405">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -11302,8 +12004,11 @@
       <c r="I406">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11328,8 +12033,11 @@
       <c r="I407">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J407" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -11352,7 +12060,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -11377,8 +12085,11 @@
       <c r="I409">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -11403,8 +12114,11 @@
       <c r="I410">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -11429,8 +12143,11 @@
       <c r="I411">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11455,8 +12172,11 @@
       <c r="I412">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J412" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -11479,7 +12199,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -11504,8 +12224,11 @@
       <c r="I414">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -11530,8 +12253,11 @@
       <c r="I415">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J415" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -11554,7 +12280,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -11579,8 +12305,11 @@
       <c r="I417">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11605,8 +12334,11 @@
       <c r="I418">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -11631,8 +12363,11 @@
       <c r="I419">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -11657,8 +12392,11 @@
       <c r="I420">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -11683,8 +12421,11 @@
       <c r="I421">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -11709,8 +12450,11 @@
       <c r="I422">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -11735,8 +12479,11 @@
       <c r="I423">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -11761,8 +12508,11 @@
       <c r="I424">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J424" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11785,7 +12535,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11810,8 +12560,11 @@
       <c r="I426">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11836,8 +12589,11 @@
       <c r="I427">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11862,8 +12618,11 @@
       <c r="I428">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11888,8 +12647,11 @@
       <c r="I429">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11914,8 +12676,11 @@
       <c r="I430">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J430" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11938,7 +12703,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11963,8 +12728,11 @@
       <c r="I432">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11989,8 +12757,11 @@
       <c r="I433">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J433" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -12013,7 +12784,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -12038,8 +12809,11 @@
       <c r="I435">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -12064,8 +12838,11 @@
       <c r="I436">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -12090,8 +12867,11 @@
       <c r="I437">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -12116,8 +12896,11 @@
       <c r="I438">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -12142,8 +12925,11 @@
       <c r="I439">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -12168,8 +12954,11 @@
       <c r="I440">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -12194,8 +12983,11 @@
       <c r="I441">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -12220,8 +13012,11 @@
       <c r="I442">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J442" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -12244,7 +13039,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -12269,8 +13064,11 @@
       <c r="I444">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -12295,8 +13093,11 @@
       <c r="I445">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -12321,8 +13122,11 @@
       <c r="I446">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -12347,8 +13151,11 @@
       <c r="I447">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J447" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -12371,7 +13178,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -12396,8 +13203,11 @@
       <c r="I449">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J449" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -12420,7 +13230,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -12445,8 +13255,11 @@
       <c r="I451">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -12471,8 +13284,11 @@
       <c r="I452">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -12497,8 +13313,11 @@
       <c r="I453">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -12523,8 +13342,11 @@
       <c r="I454">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -12549,8 +13371,11 @@
       <c r="I455">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -12575,8 +13400,11 @@
       <c r="I456">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -12601,8 +13429,11 @@
       <c r="I457">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -12627,8 +13458,11 @@
       <c r="I458">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J458" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -12651,7 +13485,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -12676,8 +13510,11 @@
       <c r="I460">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -12702,8 +13539,11 @@
       <c r="I461">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -12728,8 +13568,11 @@
       <c r="I462">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J462" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -12752,7 +13595,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -12777,8 +13620,11 @@
       <c r="I464">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -12803,8 +13649,11 @@
       <c r="I465">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J465" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -12827,7 +13676,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -12852,8 +13701,11 @@
       <c r="I467">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12878,8 +13730,11 @@
       <c r="I468">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -12904,8 +13759,11 @@
       <c r="I469">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -12930,8 +13788,11 @@
       <c r="I470">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -12956,8 +13817,11 @@
       <c r="I471">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -12982,8 +13846,11 @@
       <c r="I472">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -13008,8 +13875,11 @@
       <c r="I473">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -13034,8 +13904,11 @@
       <c r="I474">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J474" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -13058,7 +13931,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -13083,8 +13956,11 @@
       <c r="I476">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -13109,8 +13985,11 @@
       <c r="I477">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -13135,8 +14014,11 @@
       <c r="I478">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -13161,8 +14043,11 @@
       <c r="I479">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -13186,6 +14071,9 @@
       </c>
       <c r="I480">
         <v>89.43</v>
+      </c>
+      <c r="J480" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -13711,6 +14599,9 @@
       <c r="I499">
         <v>89.43</v>
       </c>
+      <c r="J499" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
@@ -13737,6 +14628,9 @@
       <c r="I500">
         <v>89.43</v>
       </c>
+      <c r="J500" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
@@ -13786,6 +14680,9 @@
       <c r="I502">
         <v>89.43</v>
       </c>
+      <c r="J502" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
@@ -13812,6 +14709,9 @@
       <c r="I503">
         <v>89.43</v>
       </c>
+      <c r="J503" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
@@ -13838,6 +14738,9 @@
       <c r="I504">
         <v>89.43</v>
       </c>
+      <c r="J504" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
@@ -13864,6 +14767,9 @@
       <c r="I505">
         <v>89.43</v>
       </c>
+      <c r="J505" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
@@ -13890,6 +14796,9 @@
       <c r="I506">
         <v>89.43</v>
       </c>
+      <c r="J506" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
@@ -13916,6 +14825,9 @@
       <c r="I507">
         <v>89.43</v>
       </c>
+      <c r="J507" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
@@ -13942,6 +14854,9 @@
       <c r="I508">
         <v>89.43</v>
       </c>
+      <c r="J508" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
@@ -13968,6 +14883,9 @@
       <c r="I509">
         <v>89.43</v>
       </c>
+      <c r="J509" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
@@ -14017,6 +14935,9 @@
       <c r="I511">
         <v>89.43</v>
       </c>
+      <c r="J511" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
@@ -14043,8 +14964,11 @@
       <c r="I512">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J512" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -14069,8 +14993,11 @@
       <c r="I513">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J513" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -14095,8 +15022,11 @@
       <c r="I514">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J514" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -14119,7 +15049,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -14144,8 +15074,11 @@
       <c r="I516">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J516" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -14170,8 +15103,11 @@
       <c r="I517">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J517" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -14194,7 +15130,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -14219,8 +15155,11 @@
       <c r="I519">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J519" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -14245,8 +15184,11 @@
       <c r="I520">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J520" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -14271,8 +15213,11 @@
       <c r="I521">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J521" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -14297,8 +15242,11 @@
       <c r="I522">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J522" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14323,8 +15271,11 @@
       <c r="I523">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J523" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -14349,8 +15300,11 @@
       <c r="I524">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J524" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -14375,8 +15329,11 @@
       <c r="I525">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J525" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -14401,8 +15358,11 @@
       <c r="I526">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J526" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -14425,7 +15385,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14450,8 +15410,11 @@
       <c r="I528">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J528" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -14476,8 +15439,11 @@
       <c r="I529">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J529" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -14502,8 +15468,11 @@
       <c r="I530">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J530" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -14528,8 +15497,11 @@
       <c r="I531">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J531" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -14552,7 +15524,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -14577,8 +15549,11 @@
       <c r="I533">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J533" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -14603,8 +15578,11 @@
       <c r="I534">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J534" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -14627,7 +15605,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -14652,8 +15630,11 @@
       <c r="I536">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J536" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -14678,8 +15659,11 @@
       <c r="I537">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J537" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -14704,8 +15688,11 @@
       <c r="I538">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J538" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -14730,8 +15717,11 @@
       <c r="I539">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J539" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -14756,8 +15746,11 @@
       <c r="I540">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J540" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -14782,8 +15775,11 @@
       <c r="I541">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J541" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -14808,8 +15804,11 @@
       <c r="I542">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J542" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -14834,8 +15833,11 @@
       <c r="I543">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J543" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -14858,7 +15860,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -14883,8 +15885,11 @@
       <c r="I545">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J545" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -14909,8 +15914,11 @@
       <c r="I546">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J546" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -14935,8 +15943,11 @@
       <c r="I547">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J547" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -14961,8 +15972,11 @@
       <c r="I548">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J548" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -14985,7 +15999,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -15010,8 +16024,11 @@
       <c r="I550">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J550" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -15036,8 +16053,11 @@
       <c r="I551">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J551" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -15060,7 +16080,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -15085,8 +16105,11 @@
       <c r="I553">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J553" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -15111,8 +16134,11 @@
       <c r="I554">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J554" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -15137,8 +16163,11 @@
       <c r="I555">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J555" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -15163,8 +16192,11 @@
       <c r="I556">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J556" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -15189,8 +16221,11 @@
       <c r="I557">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J557" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -15215,8 +16250,11 @@
       <c r="I558">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J558" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -15241,8 +16279,11 @@
       <c r="I559">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J559" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -15266,6 +16307,9 @@
       </c>
       <c r="I560">
         <v>89.43</v>
+      </c>
+      <c r="J560" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -15316,6 +16360,9 @@
       <c r="I562">
         <v>89.43</v>
       </c>
+      <c r="J562" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
@@ -15342,6 +16389,9 @@
       <c r="I563">
         <v>89.43</v>
       </c>
+      <c r="J563" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
@@ -15368,6 +16418,9 @@
       <c r="I564">
         <v>89.43</v>
       </c>
+      <c r="J564" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
@@ -15394,6 +16447,9 @@
       <c r="I565">
         <v>89.43</v>
       </c>
+      <c r="J565" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
@@ -15918,6 +16974,9 @@
       <c r="I584">
         <v>89.43</v>
       </c>
+      <c r="J584" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
@@ -15944,6 +17003,9 @@
       <c r="I585">
         <v>89.43</v>
       </c>
+      <c r="J585" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
@@ -15993,6 +17055,9 @@
       <c r="I587">
         <v>89.43</v>
       </c>
+      <c r="J587" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
@@ -16019,6 +17084,9 @@
       <c r="I588">
         <v>89.43</v>
       </c>
+      <c r="J588" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
@@ -16045,6 +17113,9 @@
       <c r="I589">
         <v>89.43</v>
       </c>
+      <c r="J589" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
@@ -16071,6 +17142,9 @@
       <c r="I590">
         <v>89.43</v>
       </c>
+      <c r="J590" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
@@ -16097,6 +17171,9 @@
       <c r="I591">
         <v>89.43</v>
       </c>
+      <c r="J591" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
@@ -16123,8 +17200,11 @@
       <c r="I592">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J592" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -16149,8 +17229,11 @@
       <c r="I593">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J593" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -16175,8 +17258,11 @@
       <c r="I594">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J594" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -16199,7 +17285,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -16224,8 +17310,11 @@
       <c r="I596">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J596" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -16250,8 +17339,11 @@
       <c r="I597">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J597" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -16276,8 +17368,11 @@
       <c r="I598">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J598" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -16302,8 +17397,11 @@
       <c r="I599">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J599" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16326,7 +17424,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -16351,8 +17449,11 @@
       <c r="I601">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J601" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -16377,8 +17478,11 @@
       <c r="I602">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J602" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -16401,7 +17505,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -16426,8 +17530,11 @@
       <c r="I604">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J604" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -16452,8 +17559,11 @@
       <c r="I605">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J605" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16478,8 +17588,11 @@
       <c r="I606">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J606" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -16504,8 +17617,11 @@
       <c r="I607">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J607" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -16530,8 +17646,11 @@
       <c r="I608">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J608" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -16556,8 +17675,11 @@
       <c r="I609">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J609" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -16582,8 +17704,11 @@
       <c r="I610">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J610" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -16608,8 +17733,11 @@
       <c r="I611">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J611" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16632,7 +17760,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -16657,8 +17785,11 @@
       <c r="I613">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J613" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -16683,8 +17814,11 @@
       <c r="I614">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J614" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -16709,8 +17843,11 @@
       <c r="I615">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J615" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -16735,8 +17872,11 @@
       <c r="I616">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J616" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -16759,7 +17899,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16784,8 +17924,11 @@
       <c r="I618">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J618" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -16810,8 +17953,11 @@
       <c r="I619">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J619" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -16834,7 +17980,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -16859,8 +18005,11 @@
       <c r="I621">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J621" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -16885,8 +18034,11 @@
       <c r="I622">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J622" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -16911,8 +18063,11 @@
       <c r="I623">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J623" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16937,8 +18092,11 @@
       <c r="I624">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J624" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -16963,8 +18121,11 @@
       <c r="I625">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J625" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -16989,8 +18150,11 @@
       <c r="I626">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J626" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -17015,8 +18179,11 @@
       <c r="I627">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J627" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -17041,8 +18208,11 @@
       <c r="I628">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J628" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -17065,7 +18235,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -17090,8 +18260,11 @@
       <c r="I630">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J630" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -17116,8 +18289,11 @@
       <c r="I631">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J631" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -17142,8 +18318,11 @@
       <c r="I632">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J632" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -17168,8 +18347,11 @@
       <c r="I633">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -17192,7 +18374,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -17217,8 +18399,11 @@
       <c r="I635">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J635" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -17243,8 +18428,11 @@
       <c r="I636">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J636" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -17267,7 +18455,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -17292,8 +18480,11 @@
       <c r="I638">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J638" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -17318,8 +18509,11 @@
       <c r="I639">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J639" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -17344,8 +18538,11 @@
       <c r="I640">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J640" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -17370,8 +18567,11 @@
       <c r="I641">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J641" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -17396,8 +18596,11 @@
       <c r="I642">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J642" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -17422,8 +18625,11 @@
       <c r="I643">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J643" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -17448,8 +18654,11 @@
       <c r="I644">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J644" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -17474,8 +18683,11 @@
       <c r="I645">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J645" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -17500,8 +18712,11 @@
       <c r="I646">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J646" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -17524,7 +18739,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -17549,8 +18764,11 @@
       <c r="I648">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J648" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -17575,8 +18793,11 @@
       <c r="I649">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J649" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -17601,8 +18822,11 @@
       <c r="I650">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J650" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -17627,8 +18851,11 @@
       <c r="I651">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J651" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -17651,7 +18878,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -17676,8 +18903,11 @@
       <c r="I653">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J653" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -17702,8 +18932,11 @@
       <c r="I654">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J654" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -17726,7 +18959,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -17751,8 +18984,11 @@
       <c r="I656">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J656" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -17777,8 +19013,11 @@
       <c r="I657">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J657" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -17803,8 +19042,11 @@
       <c r="I658">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J658" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -17829,8 +19071,11 @@
       <c r="I659">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J659" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -17855,8 +19100,11 @@
       <c r="I660">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J660" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -17881,8 +19129,11 @@
       <c r="I661">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J661" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -17907,8 +19158,11 @@
       <c r="I662">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J662" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -17933,8 +19187,11 @@
       <c r="I663">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J663" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -17959,8 +19216,11 @@
       <c r="I664">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J664" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -17983,7 +19243,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -18008,8 +19268,11 @@
       <c r="I666">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J666" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -18034,8 +19297,11 @@
       <c r="I667">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J667" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -18060,8 +19326,11 @@
       <c r="I668">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J668" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -18086,8 +19355,11 @@
       <c r="I669">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J669" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -18112,8 +19384,11 @@
       <c r="I670">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J670" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -18136,7 +19411,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -18161,8 +19436,11 @@
       <c r="I672">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J672" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -18187,8 +19465,11 @@
       <c r="I673">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J673" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -18211,7 +19492,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -18236,8 +19517,11 @@
       <c r="I675">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J675" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -18262,8 +19546,11 @@
       <c r="I676">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J676" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -18288,8 +19575,11 @@
       <c r="I677">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J677" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -18314,8 +19604,11 @@
       <c r="I678">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J678" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -18340,8 +19633,11 @@
       <c r="I679">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J679" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -18366,8 +19662,11 @@
       <c r="I680">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J680" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -18392,8 +19691,11 @@
       <c r="I681">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J681" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -18418,8 +19720,11 @@
       <c r="I682">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J682" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -18442,7 +19747,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -18467,8 +19772,11 @@
       <c r="I684">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J684" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -18493,8 +19801,11 @@
       <c r="I685">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J685" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -18519,8 +19830,11 @@
       <c r="I686">
         <v>89.43</v>
       </c>
-    </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J686" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -18544,6 +19858,9 @@
       </c>
       <c r="I687">
         <v>89.43</v>
+      </c>
+      <c r="J687" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="689" spans="9:9" x14ac:dyDescent="0.25">

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86DE53-33E1-4ACF-88FB-C4F6B27A4D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5AC17-B64E-4D5E-B4F2-4EE730532AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5895" yWindow="5370" windowWidth="7905" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-675" yWindow="11715" windowWidth="7545" windowHeight="4545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$687</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$689</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="90">
   <si>
     <t>archivo</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
+    <t>PAST DUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -661,11 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="B651" sqref="B651"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +685,7 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -726,8 +734,14 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -776,19 +790,19 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I4">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -805,10 +819,16 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -831,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>89.43</v>
@@ -857,10 +877,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>89.43</v>
@@ -886,10 +906,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <v>89.43</v>
@@ -918,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>89.43</v>
@@ -944,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>89.43</v>
@@ -973,10 +993,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>89.43</v>
@@ -1005,16 +1025,16 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I12">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1031,10 +1051,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
       <c r="I13">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>89.43</v>
@@ -1086,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>89.43</v>
@@ -1115,16 +1141,16 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I16">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1143,8 +1169,14 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
       <c r="I17">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1164,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1193,19 +1225,19 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I19">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1224,8 +1256,14 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
       <c r="I20">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I21">
         <v>89.43</v>
@@ -1274,10 +1312,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>89.43</v>
@@ -1303,10 +1341,10 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23">
         <v>89.43</v>
@@ -1364,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I25">
         <v>89.43</v>
@@ -1390,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I26">
         <v>89.43</v>
@@ -1419,10 +1457,10 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I27">
         <v>89.43</v>
@@ -1451,16 +1489,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I28">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1479,8 +1517,14 @@
       <c r="F29" t="s">
         <v>12</v>
       </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
       <c r="I29">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1500,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I30">
         <v>89.43</v>
@@ -1561,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I32">
         <v>89.43</v>
@@ -1587,19 +1631,19 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I33">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1618,8 +1662,14 @@
       <c r="F34" t="s">
         <v>12</v>
       </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
       <c r="I34">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1671,16 +1721,16 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I36">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1697,10 +1747,16 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1720,10 +1776,10 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I38">
         <v>89.43</v>
@@ -1749,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I39">
         <v>89.43</v>
@@ -1781,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <v>89.43</v>
@@ -1807,7 +1863,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
@@ -1836,10 +1892,10 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I42">
         <v>89.43</v>
@@ -1868,7 +1924,7 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>89.43</v>
@@ -1894,10 +1950,10 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I44">
         <v>89.43</v>
@@ -1923,19 +1979,19 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I45">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1952,10 +2008,16 @@
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
       </c>
       <c r="I46">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1978,7 +2040,7 @@
         <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I47">
         <v>89.43</v>
@@ -2036,7 +2098,7 @@
         <v>29</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I49">
         <v>89.43</v>
@@ -2065,16 +2127,16 @@
         <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I50">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2091,10 +2153,16 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
       </c>
       <c r="I51">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2114,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2143,19 +2211,19 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I53">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2174,8 +2242,14 @@
       <c r="F54" t="s">
         <v>12</v>
       </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
       <c r="I54">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I55">
         <v>89.43</v>
@@ -2224,10 +2298,10 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I56">
         <v>89.43</v>
@@ -2253,10 +2327,10 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <v>89.43</v>
@@ -2314,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I59">
         <v>89.43</v>
@@ -2340,10 +2414,10 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I60">
         <v>89.43</v>
@@ -2369,10 +2443,10 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I61">
         <v>89.43</v>
@@ -2398,19 +2472,19 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I62">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2429,8 +2503,14 @@
       <c r="F63" t="s">
         <v>12</v>
       </c>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
       <c r="I63">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2450,10 +2530,10 @@
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I64">
         <v>89.43</v>
@@ -2511,7 +2591,7 @@
         <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I66">
         <v>89.43</v>
@@ -2537,19 +2617,19 @@
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I67">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2568,8 +2648,14 @@
       <c r="F68" t="s">
         <v>12</v>
       </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
       <c r="I68">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,16 +2707,16 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I70">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2649,8 +2735,14 @@
       <c r="F71" t="s">
         <v>12</v>
       </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
       <c r="I71">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2670,10 +2762,10 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I72">
         <v>89.43</v>
@@ -2702,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I73">
         <v>89.43</v>
@@ -2728,10 +2820,10 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I74">
         <v>89.43</v>
@@ -2757,10 +2849,10 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I75">
         <v>89.43</v>
@@ -2789,7 +2881,7 @@
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I76">
         <v>89.43</v>
@@ -2815,10 +2907,10 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I77">
         <v>89.43</v>
@@ -2844,10 +2936,10 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I78">
         <v>89.43</v>
@@ -2876,7 +2968,7 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I79">
         <v>89.43</v>
@@ -2902,19 +2994,19 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I80">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2933,8 +3025,14 @@
       <c r="F81" t="s">
         <v>12</v>
       </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
       <c r="I81">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J81" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2957,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I82">
         <v>89.43</v>
@@ -2986,7 +3084,7 @@
         <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I83">
         <v>89.43</v>
@@ -3015,7 +3113,7 @@
         <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I84">
         <v>89.43</v>
@@ -3044,7 +3142,7 @@
         <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I85">
         <v>89.43</v>
@@ -3073,16 +3171,16 @@
         <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I86">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3101,8 +3199,14 @@
       <c r="F87" t="s">
         <v>12</v>
       </c>
+      <c r="H87" t="s">
+        <v>36</v>
+      </c>
       <c r="I87">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J87" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,16 +3229,16 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I88">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3153,8 +3257,14 @@
       <c r="F89" t="s">
         <v>12</v>
       </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
       <c r="I89">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3174,10 +3284,10 @@
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I90">
         <v>89.43</v>
@@ -3203,10 +3313,10 @@
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I91">
         <v>89.43</v>
@@ -3235,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I92">
         <v>89.43</v>
@@ -3261,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
         <v>45</v>
@@ -3290,10 +3400,10 @@
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I94">
         <v>89.43</v>
@@ -3322,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I95">
         <v>89.43</v>
@@ -3348,10 +3458,10 @@
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I96">
         <v>89.43</v>
@@ -3377,19 +3487,19 @@
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I97">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J97" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3408,8 +3518,14 @@
       <c r="F98" t="s">
         <v>12</v>
       </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
       <c r="I98">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J98" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3432,7 +3548,7 @@
         <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I99">
         <v>89.43</v>
@@ -3490,7 +3606,7 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I101">
         <v>89.43</v>
@@ -3519,16 +3635,16 @@
         <v>29</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I102">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3547,8 +3663,14 @@
       <c r="F103" t="s">
         <v>12</v>
       </c>
+      <c r="H103" t="s">
+        <v>36</v>
+      </c>
       <c r="I103">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J103" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,16 +3693,16 @@
         <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I104">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3599,8 +3721,14 @@
       <c r="F105" t="s">
         <v>12</v>
       </c>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
       <c r="I105">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J105" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3620,10 +3748,10 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H106" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I106">
         <v>89.43</v>
@@ -3649,10 +3777,10 @@
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I107">
         <v>89.43</v>
@@ -3681,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I108">
         <v>89.43</v>
@@ -3707,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
         <v>45</v>
@@ -3736,10 +3864,10 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I110">
         <v>89.43</v>
@@ -3768,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I111">
         <v>89.43</v>
@@ -3794,10 +3922,10 @@
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I112">
         <v>89.43</v>
@@ -3823,19 +3951,19 @@
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I113">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3854,8 +3982,14 @@
       <c r="F114" t="s">
         <v>12</v>
       </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
       <c r="I114">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -3878,7 +4012,7 @@
         <v>29</v>
       </c>
       <c r="H115" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I115">
         <v>89.43</v>
@@ -3936,7 +4070,7 @@
         <v>29</v>
       </c>
       <c r="H117" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I117">
         <v>89.43</v>
@@ -3965,16 +4099,16 @@
         <v>29</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I118">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3993,8 +4127,14 @@
       <c r="F119" t="s">
         <v>12</v>
       </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
       <c r="I119">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J119" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,16 +4186,16 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I121">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J121" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4074,8 +4214,14 @@
       <c r="F122" t="s">
         <v>12</v>
       </c>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
       <c r="I122">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J122" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4095,10 +4241,10 @@
         <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I123">
         <v>89.43</v>
@@ -4127,7 +4273,7 @@
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I124">
         <v>89.43</v>
@@ -4156,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I125">
         <v>89.43</v>
@@ -4182,7 +4328,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H126" t="s">
         <v>39</v>
@@ -4211,10 +4357,10 @@
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I127">
         <v>89.43</v>
@@ -4243,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I128">
         <v>89.43</v>
@@ -4272,7 +4418,7 @@
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I129">
         <v>89.43</v>
@@ -4298,19 +4444,19 @@
         <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H130" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I130">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4329,8 +4475,14 @@
       <c r="F131" t="s">
         <v>12</v>
       </c>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
       <c r="I131">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J131" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4353,7 +4505,7 @@
         <v>29</v>
       </c>
       <c r="H132" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I132">
         <v>89.43</v>
@@ -4382,7 +4534,7 @@
         <v>29</v>
       </c>
       <c r="H133" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I133">
         <v>89.43</v>
@@ -4411,7 +4563,7 @@
         <v>29</v>
       </c>
       <c r="H134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I134">
         <v>89.43</v>
@@ -4440,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I135">
         <v>89.43</v>
@@ -4469,16 +4621,16 @@
         <v>29</v>
       </c>
       <c r="H136" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I136">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J136" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4497,8 +4649,14 @@
       <c r="F137" t="s">
         <v>12</v>
       </c>
+      <c r="H137" t="s">
+        <v>50</v>
+      </c>
       <c r="I137">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J137" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4521,16 +4679,16 @@
         <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I138">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J138" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4549,8 +4707,14 @@
       <c r="F139" t="s">
         <v>12</v>
       </c>
+      <c r="H139" t="s">
+        <v>34</v>
+      </c>
       <c r="I139">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J139" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4570,10 +4734,10 @@
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H140" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I140">
         <v>89.43</v>
@@ -4602,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I141">
         <v>89.43</v>
@@ -4631,7 +4795,7 @@
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I142">
         <v>89.43</v>
@@ -4657,7 +4821,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
         <v>45</v>
@@ -4686,10 +4850,10 @@
         <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I144">
         <v>89.43</v>
@@ -4718,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I145">
         <v>89.43</v>
@@ -4747,7 +4911,7 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I146">
         <v>89.43</v>
@@ -4773,19 +4937,19 @@
         <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I147">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J147" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4804,8 +4968,14 @@
       <c r="F148" t="s">
         <v>12</v>
       </c>
+      <c r="H148" t="s">
+        <v>21</v>
+      </c>
       <c r="I148">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J148" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -4828,7 +4998,7 @@
         <v>29</v>
       </c>
       <c r="H149" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I149">
         <v>89.43</v>
@@ -4886,7 +5056,7 @@
         <v>29</v>
       </c>
       <c r="H151" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I151">
         <v>89.43</v>
@@ -4915,16 +5085,16 @@
         <v>29</v>
       </c>
       <c r="H152" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I152">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J152" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4943,8 +5113,14 @@
       <c r="F153" t="s">
         <v>12</v>
       </c>
+      <c r="H153" t="s">
+        <v>27</v>
+      </c>
       <c r="I153">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J153" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -4964,7 +5140,7 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -4993,19 +5169,19 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I155">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J155" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5024,8 +5200,14 @@
       <c r="F156" t="s">
         <v>12</v>
       </c>
+      <c r="H156" t="s">
+        <v>27</v>
+      </c>
       <c r="I156">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J156" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5045,10 +5227,10 @@
         <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I157">
         <v>89.43</v>
@@ -5074,10 +5256,10 @@
         <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I158">
         <v>89.43</v>
@@ -5103,10 +5285,10 @@
         <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I159">
         <v>89.43</v>
@@ -5164,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I161">
         <v>89.43</v>
@@ -5190,10 +5372,10 @@
         <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H162" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I162">
         <v>89.43</v>
@@ -5219,10 +5401,10 @@
         <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H163" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I163">
         <v>89.43</v>
@@ -5248,19 +5430,19 @@
         <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I164">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J164" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5279,8 +5461,14 @@
       <c r="F165" t="s">
         <v>12</v>
       </c>
+      <c r="H165" t="s">
+        <v>27</v>
+      </c>
       <c r="I165">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J165" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5300,10 +5488,10 @@
         <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H166" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I166">
         <v>89.43</v>
@@ -5361,7 +5549,7 @@
         <v>29</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I168">
         <v>89.43</v>
@@ -5387,19 +5575,19 @@
         <v>28</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I169">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J169" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5418,8 +5606,14 @@
       <c r="F170" t="s">
         <v>12</v>
       </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
       <c r="I170">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J170" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5439,7 +5633,7 @@
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -5468,19 +5662,19 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I172">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J172" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5497,10 +5691,16 @@
         <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>16</v>
       </c>
       <c r="I173">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J173" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5520,10 +5720,10 @@
         <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I174">
         <v>89.43</v>
@@ -5549,10 +5749,10 @@
         <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H175" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I175">
         <v>89.43</v>
@@ -5578,10 +5778,10 @@
         <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H176" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I176">
         <v>89.43</v>
@@ -5610,7 +5810,7 @@
         <v>18</v>
       </c>
       <c r="H177" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I177">
         <v>89.43</v>
@@ -5636,10 +5836,10 @@
         <v>17</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H178" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I178">
         <v>89.43</v>
@@ -5665,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I179">
         <v>89.43</v>
@@ -5694,19 +5894,19 @@
         <v>17</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I180">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J180" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5723,10 +5923,16 @@
         <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="H181" t="s">
+        <v>27</v>
       </c>
       <c r="I181">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J181" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -5749,7 +5955,7 @@
         <v>29</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I182">
         <v>89.43</v>
@@ -5778,7 +5984,7 @@
         <v>29</v>
       </c>
       <c r="H183" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I183">
         <v>89.43</v>
@@ -5807,16 +6013,16 @@
         <v>29</v>
       </c>
       <c r="H184" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I184">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J184" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5835,8 +6041,14 @@
       <c r="F185" t="s">
         <v>12</v>
       </c>
+      <c r="H185" t="s">
+        <v>27</v>
+      </c>
       <c r="I185">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J185" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -5856,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
@@ -5885,19 +6097,19 @@
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H187" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I187">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J187" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5914,10 +6126,16 @@
         <v>17</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="H188" t="s">
+        <v>55</v>
       </c>
       <c r="I188">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J188" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -5937,10 +6155,10 @@
         <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I189">
         <v>89.43</v>
@@ -5966,10 +6184,10 @@
         <v>17</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H190" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I190">
         <v>89.43</v>
@@ -5995,10 +6213,10 @@
         <v>17</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I191">
         <v>89.43</v>
@@ -6024,7 +6242,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H192" t="s">
         <v>31</v>
@@ -6053,10 +6271,10 @@
         <v>17</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I193">
         <v>89.43</v>
@@ -6082,10 +6300,10 @@
         <v>17</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H194" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I194">
         <v>89.43</v>
@@ -6111,10 +6329,10 @@
         <v>17</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I195">
         <v>89.43</v>
@@ -6140,19 +6358,19 @@
         <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H196" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I196">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J196" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6169,10 +6387,16 @@
         <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="H197" t="s">
+        <v>16</v>
       </c>
       <c r="I197">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J197" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6195,7 +6419,7 @@
         <v>29</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I198">
         <v>89.43</v>
@@ -6253,7 +6477,7 @@
         <v>29</v>
       </c>
       <c r="H200" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I200">
         <v>89.43</v>
@@ -6282,16 +6506,16 @@
         <v>29</v>
       </c>
       <c r="H201" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I201">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J201" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6310,8 +6534,14 @@
       <c r="F202" t="s">
         <v>12</v>
       </c>
+      <c r="H202" t="s">
+        <v>27</v>
+      </c>
       <c r="I202">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J202" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6331,7 +6561,7 @@
         <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H203" t="s">
         <v>14</v>
@@ -6360,19 +6590,19 @@
         <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H204" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I204">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J204" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6389,10 +6619,16 @@
         <v>17</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="H205" t="s">
+        <v>55</v>
       </c>
       <c r="I205">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J205" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6412,10 +6648,10 @@
         <v>17</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I206">
         <v>89.43</v>
@@ -6441,10 +6677,10 @@
         <v>17</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H207" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I207">
         <v>89.43</v>
@@ -6470,10 +6706,10 @@
         <v>17</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H208" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I208">
         <v>89.43</v>
@@ -6499,7 +6735,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H209" t="s">
         <v>31</v>
@@ -6528,10 +6764,10 @@
         <v>17</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I210">
         <v>89.43</v>
@@ -6557,10 +6793,10 @@
         <v>17</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H211" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I211">
         <v>89.43</v>
@@ -6586,10 +6822,10 @@
         <v>17</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H212" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I212">
         <v>89.43</v>
@@ -6615,19 +6851,19 @@
         <v>17</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I213">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J213" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6644,10 +6880,16 @@
         <v>28</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
       </c>
       <c r="I214">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J214" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -6670,7 +6912,7 @@
         <v>29</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I215">
         <v>89.43</v>
@@ -6728,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="H217" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I217">
         <v>89.43</v>
@@ -6757,16 +6999,16 @@
         <v>29</v>
       </c>
       <c r="H218" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I218">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J218" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6785,8 +7027,14 @@
       <c r="F219" t="s">
         <v>12</v>
       </c>
+      <c r="H219" t="s">
+        <v>26</v>
+      </c>
       <c r="I219">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J219" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -6806,7 +7054,7 @@
         <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -6835,19 +7083,19 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I221">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J221" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6864,10 +7112,16 @@
         <v>17</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
       </c>
       <c r="I222">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J222" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -6887,10 +7141,10 @@
         <v>17</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I223">
         <v>89.43</v>
@@ -6916,10 +7170,10 @@
         <v>17</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H224" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I224">
         <v>89.43</v>
@@ -6945,10 +7199,10 @@
         <v>17</v>
       </c>
       <c r="F225" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I225">
         <v>89.43</v>
@@ -6977,7 +7231,7 @@
         <v>24</v>
       </c>
       <c r="H226" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I226">
         <v>89.43</v>
@@ -7003,10 +7257,10 @@
         <v>17</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H227" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I227">
         <v>89.43</v>
@@ -7032,10 +7286,10 @@
         <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H228" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I228">
         <v>89.43</v>
@@ -7061,19 +7315,19 @@
         <v>17</v>
       </c>
       <c r="F229" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H229" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I229">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J229" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7090,10 +7344,16 @@
         <v>28</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="H230" t="s">
+        <v>16</v>
       </c>
       <c r="I230">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J230" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,7 +7376,7 @@
         <v>29</v>
       </c>
       <c r="H231" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I231">
         <v>89.43</v>
@@ -7174,7 +7434,7 @@
         <v>29</v>
       </c>
       <c r="H233" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I233">
         <v>89.43</v>
@@ -7203,16 +7463,16 @@
         <v>29</v>
       </c>
       <c r="H234" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I234">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J234" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7231,8 +7491,14 @@
       <c r="F235" t="s">
         <v>12</v>
       </c>
+      <c r="H235" t="s">
+        <v>27</v>
+      </c>
       <c r="I235">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J235" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7252,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
@@ -7281,19 +7547,19 @@
         <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H237" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I237">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J237" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7312,8 +7578,14 @@
       <c r="F238" t="s">
         <v>12</v>
       </c>
+      <c r="H238" t="s">
+        <v>27</v>
+      </c>
       <c r="I238">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J238" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7333,10 +7605,10 @@
         <v>17</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H239" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I239">
         <v>89.43</v>
@@ -7362,10 +7634,10 @@
         <v>17</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H240" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I240">
         <v>89.43</v>
@@ -7391,10 +7663,10 @@
         <v>17</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H241" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I241">
         <v>89.43</v>
@@ -7452,7 +7724,7 @@
         <v>24</v>
       </c>
       <c r="H243" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I243">
         <v>89.43</v>
@@ -7478,10 +7750,10 @@
         <v>17</v>
       </c>
       <c r="F244" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H244" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I244">
         <v>89.43</v>
@@ -7507,10 +7779,10 @@
         <v>17</v>
       </c>
       <c r="F245" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H245" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I245">
         <v>89.43</v>
@@ -7536,19 +7808,19 @@
         <v>17</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H246" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I246">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J246" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7567,8 +7839,14 @@
       <c r="F247" t="s">
         <v>12</v>
       </c>
+      <c r="H247" t="s">
+        <v>26</v>
+      </c>
       <c r="I247">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J247" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -7588,10 +7866,10 @@
         <v>28</v>
       </c>
       <c r="F248" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H248" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I248">
         <v>89.43</v>
@@ -7649,7 +7927,7 @@
         <v>29</v>
       </c>
       <c r="H250" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I250">
         <v>89.43</v>
@@ -7675,19 +7953,19 @@
         <v>28</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I251">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J251" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7706,8 +7984,14 @@
       <c r="F252" t="s">
         <v>12</v>
       </c>
+      <c r="H252" t="s">
+        <v>16</v>
+      </c>
       <c r="I252">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J252" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -7759,16 +8043,16 @@
         <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I254">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J254" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7785,10 +8069,16 @@
         <v>17</v>
       </c>
       <c r="F255" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H255" t="s">
+        <v>55</v>
       </c>
       <c r="I255">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J255" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -7808,10 +8098,10 @@
         <v>17</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H256" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I256">
         <v>89.43</v>
@@ -7837,10 +8127,10 @@
         <v>17</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H257" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I257">
         <v>89.43</v>
@@ -7869,7 +8159,7 @@
         <v>24</v>
       </c>
       <c r="H258" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I258">
         <v>89.43</v>
@@ -7898,7 +8188,7 @@
         <v>24</v>
       </c>
       <c r="H259" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I259">
         <v>89.43</v>
@@ -7927,7 +8217,7 @@
         <v>24</v>
       </c>
       <c r="H260" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I260">
         <v>89.43</v>
@@ -7953,10 +8243,10 @@
         <v>17</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H261" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I261">
         <v>89.43</v>
@@ -7982,19 +8272,19 @@
         <v>17</v>
       </c>
       <c r="F262" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I262">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J262" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8011,10 +8301,16 @@
         <v>28</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="H263" t="s">
+        <v>27</v>
       </c>
       <c r="I263">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J263" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8037,7 +8333,7 @@
         <v>29</v>
       </c>
       <c r="H264" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I264">
         <v>89.43</v>
@@ -8066,7 +8362,7 @@
         <v>29</v>
       </c>
       <c r="H265" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I265">
         <v>89.43</v>
@@ -8095,16 +8391,16 @@
         <v>29</v>
       </c>
       <c r="H266" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I266">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J266" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8121,10 +8417,16 @@
         <v>11</v>
       </c>
       <c r="F267" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="H267" t="s">
+        <v>16</v>
       </c>
       <c r="I267">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J267" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -8147,16 +8449,16 @@
         <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I268">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J268" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8175,8 +8477,14 @@
       <c r="F269" t="s">
         <v>12</v>
       </c>
+      <c r="H269" t="s">
+        <v>55</v>
+      </c>
       <c r="I269">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J269" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -8196,10 +8504,10 @@
         <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H270" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I270">
         <v>89.43</v>
@@ -8225,10 +8533,10 @@
         <v>17</v>
       </c>
       <c r="F271" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I271">
         <v>89.43</v>
@@ -8254,7 +8562,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H272" t="s">
         <v>31</v>
@@ -8283,10 +8591,10 @@
         <v>17</v>
       </c>
       <c r="F273" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H273" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I273">
         <v>89.43</v>
@@ -8312,10 +8620,10 @@
         <v>17</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H274" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I274">
         <v>89.43</v>
@@ -8341,19 +8649,19 @@
         <v>17</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H275" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I275">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J275" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8372,8 +8680,14 @@
       <c r="F276" t="s">
         <v>12</v>
       </c>
+      <c r="H276" t="s">
+        <v>27</v>
+      </c>
       <c r="I276">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J276" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8425,16 +8739,16 @@
         <v>29</v>
       </c>
       <c r="H278" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I278">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J278" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8453,8 +8767,14 @@
       <c r="F279" t="s">
         <v>12</v>
       </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
       <c r="I279">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J279" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -8474,7 +8794,7 @@
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H280" t="s">
         <v>14</v>
@@ -8503,19 +8823,19 @@
         <v>11</v>
       </c>
       <c r="F281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H281" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I281">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J281" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8534,8 +8854,14 @@
       <c r="F282" t="s">
         <v>12</v>
       </c>
+      <c r="H282" t="s">
+        <v>27</v>
+      </c>
       <c r="I282">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J282" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -8555,10 +8881,10 @@
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H283" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I283">
         <v>89.43</v>
@@ -8584,10 +8910,10 @@
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H284" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I284">
         <v>89.43</v>
@@ -8613,10 +8939,10 @@
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H285" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I285">
         <v>89.43</v>
@@ -8642,10 +8968,10 @@
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H286" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I286">
         <v>89.43</v>
@@ -8674,7 +9000,7 @@
         <v>24</v>
       </c>
       <c r="H287" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I287">
         <v>89.43</v>
@@ -8700,10 +9026,10 @@
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H288" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I288">
         <v>89.43</v>
@@ -8729,10 +9055,10 @@
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H289" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I289">
         <v>89.43</v>
@@ -8758,10 +9084,10 @@
         <v>17</v>
       </c>
       <c r="F290" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H290" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I290">
         <v>89.43</v>
@@ -8787,19 +9113,19 @@
         <v>17</v>
       </c>
       <c r="F291" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I291">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J291" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8818,8 +9144,14 @@
       <c r="F292" t="s">
         <v>12</v>
       </c>
+      <c r="H292" t="s">
+        <v>26</v>
+      </c>
       <c r="I292">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J292" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -8839,10 +9171,10 @@
         <v>28</v>
       </c>
       <c r="F293" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H293" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I293">
         <v>89.43</v>
@@ -8900,7 +9232,7 @@
         <v>29</v>
       </c>
       <c r="H295" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I295">
         <v>89.43</v>
@@ -8926,19 +9258,19 @@
         <v>28</v>
       </c>
       <c r="F296" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H296" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I296">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J296" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8957,8 +9289,14 @@
       <c r="F297" t="s">
         <v>12</v>
       </c>
+      <c r="H297" t="s">
+        <v>27</v>
+      </c>
       <c r="I297">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J297" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -8978,7 +9316,7 @@
         <v>11</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H298" t="s">
         <v>14</v>
@@ -9007,19 +9345,19 @@
         <v>11</v>
       </c>
       <c r="F299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H299" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I299">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J299" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9038,8 +9376,14 @@
       <c r="F300" t="s">
         <v>12</v>
       </c>
+      <c r="H300" t="s">
+        <v>27</v>
+      </c>
       <c r="I300">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J300" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -9059,10 +9403,10 @@
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H301" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I301">
         <v>89.43</v>
@@ -9088,10 +9432,10 @@
         <v>17</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H302" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I302">
         <v>89.43</v>
@@ -9117,10 +9461,10 @@
         <v>17</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H303" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I303">
         <v>89.43</v>
@@ -9178,7 +9522,7 @@
         <v>24</v>
       </c>
       <c r="H305" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I305">
         <v>89.43</v>
@@ -9204,10 +9548,10 @@
         <v>17</v>
       </c>
       <c r="F306" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H306" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I306">
         <v>89.43</v>
@@ -9233,10 +9577,10 @@
         <v>17</v>
       </c>
       <c r="F307" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H307" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I307">
         <v>89.43</v>
@@ -9262,19 +9606,19 @@
         <v>17</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H308" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I308">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J308" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9293,8 +9637,14 @@
       <c r="F309" t="s">
         <v>12</v>
       </c>
+      <c r="H309" t="s">
+        <v>26</v>
+      </c>
       <c r="I309">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J309" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -9314,10 +9664,10 @@
         <v>28</v>
       </c>
       <c r="F310" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H310" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I310">
         <v>89.43</v>
@@ -9375,7 +9725,7 @@
         <v>29</v>
       </c>
       <c r="H312" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I312">
         <v>89.43</v>
@@ -9401,19 +9751,19 @@
         <v>28</v>
       </c>
       <c r="F313" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H313" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I313">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J313" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9432,8 +9782,14 @@
       <c r="F314" t="s">
         <v>12</v>
       </c>
+      <c r="H314" t="s">
+        <v>26</v>
+      </c>
       <c r="I314">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J314" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -9453,7 +9809,7 @@
         <v>11</v>
       </c>
       <c r="F315" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H315" t="s">
         <v>14</v>
@@ -9482,19 +9838,19 @@
         <v>11</v>
       </c>
       <c r="F316" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H316" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I316">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J316" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9513,8 +9869,14 @@
       <c r="F317" t="s">
         <v>12</v>
       </c>
+      <c r="H317" t="s">
+        <v>27</v>
+      </c>
       <c r="I317">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J317" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -9534,10 +9896,10 @@
         <v>17</v>
       </c>
       <c r="F318" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H318" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I318">
         <v>89.43</v>
@@ -9563,10 +9925,10 @@
         <v>17</v>
       </c>
       <c r="F319" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H319" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I319">
         <v>89.43</v>
@@ -9592,10 +9954,10 @@
         <v>17</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H320" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I320">
         <v>89.43</v>
@@ -9621,10 +9983,10 @@
         <v>17</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H321" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I321">
         <v>89.43</v>
@@ -9653,7 +10015,7 @@
         <v>24</v>
       </c>
       <c r="H322" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I322">
         <v>89.43</v>
@@ -9679,10 +10041,10 @@
         <v>17</v>
       </c>
       <c r="F323" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H323" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I323">
         <v>89.43</v>
@@ -9708,10 +10070,10 @@
         <v>17</v>
       </c>
       <c r="F324" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H324" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I324">
         <v>89.43</v>
@@ -9737,10 +10099,10 @@
         <v>17</v>
       </c>
       <c r="F325" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H325" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I325">
         <v>89.43</v>
@@ -9766,19 +10128,19 @@
         <v>17</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H326" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I326">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J326" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9797,8 +10159,14 @@
       <c r="F327" t="s">
         <v>12</v>
       </c>
+      <c r="H327" t="s">
+        <v>26</v>
+      </c>
       <c r="I327">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J327" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -9818,10 +10186,10 @@
         <v>28</v>
       </c>
       <c r="F328" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H328" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I328">
         <v>89.43</v>
@@ -9879,7 +10247,7 @@
         <v>29</v>
       </c>
       <c r="H330" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I330">
         <v>89.43</v>
@@ -9905,19 +10273,19 @@
         <v>28</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H331" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I331">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J331" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9936,8 +10304,14 @@
       <c r="F332" t="s">
         <v>12</v>
       </c>
+      <c r="H332" t="s">
+        <v>27</v>
+      </c>
       <c r="I332">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J332" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -9989,16 +10363,16 @@
         <v>15</v>
       </c>
       <c r="H334" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I334">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J334" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -10017,8 +10391,14 @@
       <c r="F335" t="s">
         <v>12</v>
       </c>
+      <c r="H335" t="s">
+        <v>26</v>
+      </c>
       <c r="I335">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J335" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -10038,10 +10418,10 @@
         <v>17</v>
       </c>
       <c r="F336" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H336" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I336">
         <v>89.43</v>
@@ -10070,7 +10450,7 @@
         <v>18</v>
       </c>
       <c r="H337" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I337">
         <v>89.43</v>
@@ -10096,10 +10476,10 @@
         <v>17</v>
       </c>
       <c r="F338" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H338" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I338">
         <v>89.43</v>
@@ -10125,7 +10505,7 @@
         <v>17</v>
       </c>
       <c r="F339" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H339" t="s">
         <v>21</v>
@@ -10154,10 +10534,10 @@
         <v>17</v>
       </c>
       <c r="F340" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H340" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I340">
         <v>89.43</v>
@@ -10183,10 +10563,10 @@
         <v>17</v>
       </c>
       <c r="F341" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H341" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I341">
         <v>89.43</v>
@@ -10215,7 +10595,7 @@
         <v>18</v>
       </c>
       <c r="H342" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I342">
         <v>89.43</v>
@@ -10241,19 +10621,19 @@
         <v>17</v>
       </c>
       <c r="F343" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H343" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I343">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J343" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -10272,8 +10652,14 @@
       <c r="F344" t="s">
         <v>12</v>
       </c>
+      <c r="H344" t="s">
+        <v>31</v>
+      </c>
       <c r="I344">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J344" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -10296,7 +10682,7 @@
         <v>29</v>
       </c>
       <c r="H345" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I345">
         <v>89.43</v>
@@ -10325,7 +10711,7 @@
         <v>29</v>
       </c>
       <c r="H346" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I346">
         <v>89.43</v>
@@ -10354,16 +10740,16 @@
         <v>29</v>
       </c>
       <c r="H347" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I347">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J347" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10382,8 +10768,14 @@
       <c r="F348" t="s">
         <v>12</v>
       </c>
+      <c r="H348" t="s">
+        <v>21</v>
+      </c>
       <c r="I348">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J348" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -10406,16 +10798,16 @@
         <v>15</v>
       </c>
       <c r="H349" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I349">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J349" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10434,8 +10826,14 @@
       <c r="F350" t="s">
         <v>12</v>
       </c>
+      <c r="H350" t="s">
+        <v>26</v>
+      </c>
       <c r="I350">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J350" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -10455,10 +10853,10 @@
         <v>17</v>
       </c>
       <c r="F351" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H351" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I351">
         <v>89.43</v>
@@ -10487,7 +10885,7 @@
         <v>18</v>
       </c>
       <c r="H352" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I352">
         <v>89.43</v>
@@ -10513,10 +10911,10 @@
         <v>17</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H353" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I353">
         <v>89.43</v>
@@ -10542,7 +10940,7 @@
         <v>17</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H354" t="s">
         <v>21</v>
@@ -10571,10 +10969,10 @@
         <v>17</v>
       </c>
       <c r="F355" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H355" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I355">
         <v>89.43</v>
@@ -10600,10 +10998,10 @@
         <v>17</v>
       </c>
       <c r="F356" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H356" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I356">
         <v>89.43</v>
@@ -10632,7 +11030,7 @@
         <v>18</v>
       </c>
       <c r="H357" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I357">
         <v>89.43</v>
@@ -10658,19 +11056,19 @@
         <v>17</v>
       </c>
       <c r="F358" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H358" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I358">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J358" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10689,8 +11087,14 @@
       <c r="F359" t="s">
         <v>12</v>
       </c>
+      <c r="H359" t="s">
+        <v>27</v>
+      </c>
       <c r="I359">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J359" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,7 +11117,7 @@
         <v>29</v>
       </c>
       <c r="H360" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I360">
         <v>89.43</v>
@@ -10771,7 +11175,7 @@
         <v>29</v>
       </c>
       <c r="H362" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I362">
         <v>89.43</v>
@@ -10800,16 +11204,16 @@
         <v>29</v>
       </c>
       <c r="H363" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I363">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J363" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10828,8 +11232,14 @@
       <c r="F364" t="s">
         <v>12</v>
       </c>
+      <c r="H364" t="s">
+        <v>27</v>
+      </c>
       <c r="I364">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J364" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -10849,7 +11259,7 @@
         <v>11</v>
       </c>
       <c r="F365" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H365" t="s">
         <v>14</v>
@@ -10878,19 +11288,19 @@
         <v>11</v>
       </c>
       <c r="F366" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H366" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I366">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J366" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10909,8 +11319,14 @@
       <c r="F367" t="s">
         <v>12</v>
       </c>
+      <c r="H367" t="s">
+        <v>16</v>
+      </c>
       <c r="I367">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J367" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -10930,10 +11346,10 @@
         <v>17</v>
       </c>
       <c r="F368" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H368" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I368">
         <v>89.43</v>
@@ -10959,10 +11375,10 @@
         <v>17</v>
       </c>
       <c r="F369" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H369" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I369">
         <v>89.43</v>
@@ -10988,10 +11404,10 @@
         <v>17</v>
       </c>
       <c r="F370" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H370" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I370">
         <v>89.43</v>
@@ -11017,7 +11433,7 @@
         <v>17</v>
       </c>
       <c r="F371" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H371" t="s">
         <v>23</v>
@@ -11046,10 +11462,10 @@
         <v>17</v>
       </c>
       <c r="F372" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H372" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I372">
         <v>89.43</v>
@@ -11075,10 +11491,10 @@
         <v>17</v>
       </c>
       <c r="F373" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H373" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I373">
         <v>89.43</v>
@@ -11104,10 +11520,10 @@
         <v>17</v>
       </c>
       <c r="F374" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H374" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I374">
         <v>89.43</v>
@@ -11133,19 +11549,19 @@
         <v>17</v>
       </c>
       <c r="F375" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H375" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I375">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J375" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -11164,8 +11580,14 @@
       <c r="F376" t="s">
         <v>12</v>
       </c>
+      <c r="H376" t="s">
+        <v>26</v>
+      </c>
       <c r="I376">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J376" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -11185,10 +11607,10 @@
         <v>28</v>
       </c>
       <c r="F377" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H377" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I377">
         <v>89.43</v>
@@ -11246,7 +11668,7 @@
         <v>29</v>
       </c>
       <c r="H379" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I379">
         <v>89.43</v>
@@ -11272,19 +11694,19 @@
         <v>28</v>
       </c>
       <c r="F380" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H380" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I380">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J380" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -11303,8 +11725,14 @@
       <c r="F381" t="s">
         <v>12</v>
       </c>
+      <c r="H381" t="s">
+        <v>27</v>
+      </c>
       <c r="I381">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J381" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -11356,16 +11784,16 @@
         <v>15</v>
       </c>
       <c r="H383" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I383">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J383" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -11384,8 +11812,14 @@
       <c r="F384" t="s">
         <v>12</v>
       </c>
+      <c r="H384" t="s">
+        <v>26</v>
+      </c>
       <c r="I384">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J384" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -11405,10 +11839,10 @@
         <v>17</v>
       </c>
       <c r="F385" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H385" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I385">
         <v>89.43</v>
@@ -11437,7 +11871,7 @@
         <v>18</v>
       </c>
       <c r="H386" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I386">
         <v>89.43</v>
@@ -11463,10 +11897,10 @@
         <v>17</v>
       </c>
       <c r="F387" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H387" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I387">
         <v>89.43</v>
@@ -11492,7 +11926,7 @@
         <v>17</v>
       </c>
       <c r="F388" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H388" t="s">
         <v>21</v>
@@ -11521,10 +11955,10 @@
         <v>17</v>
       </c>
       <c r="F389" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H389" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I389">
         <v>89.43</v>
@@ -11550,10 +11984,10 @@
         <v>17</v>
       </c>
       <c r="F390" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H390" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I390">
         <v>89.43</v>
@@ -11582,7 +12016,7 @@
         <v>18</v>
       </c>
       <c r="H391" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I391">
         <v>89.43</v>
@@ -11608,19 +12042,19 @@
         <v>17</v>
       </c>
       <c r="F392" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H392" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I392">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J392" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -11639,8 +12073,14 @@
       <c r="F393" t="s">
         <v>12</v>
       </c>
+      <c r="H393" t="s">
+        <v>31</v>
+      </c>
       <c r="I393">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J393" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -11663,7 +12103,7 @@
         <v>29</v>
       </c>
       <c r="H394" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I394">
         <v>89.43</v>
@@ -11692,7 +12132,7 @@
         <v>29</v>
       </c>
       <c r="H395" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I395">
         <v>89.43</v>
@@ -11721,16 +12161,16 @@
         <v>29</v>
       </c>
       <c r="H396" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I396">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J396" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -11749,8 +12189,14 @@
       <c r="F397" t="s">
         <v>12</v>
       </c>
+      <c r="H397" t="s">
+        <v>21</v>
+      </c>
       <c r="I397">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J397" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -11773,16 +12219,16 @@
         <v>15</v>
       </c>
       <c r="H398" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I398">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J398" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -11801,8 +12247,14 @@
       <c r="F399" t="s">
         <v>12</v>
       </c>
+      <c r="H399" t="s">
+        <v>26</v>
+      </c>
       <c r="I399">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J399" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -11822,10 +12274,10 @@
         <v>17</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H400" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I400">
         <v>89.43</v>
@@ -11854,7 +12306,7 @@
         <v>18</v>
       </c>
       <c r="H401" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I401">
         <v>89.43</v>
@@ -11880,10 +12332,10 @@
         <v>17</v>
       </c>
       <c r="F402" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H402" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I402">
         <v>89.43</v>
@@ -11909,7 +12361,7 @@
         <v>17</v>
       </c>
       <c r="F403" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H403" t="s">
         <v>21</v>
@@ -11938,10 +12390,10 @@
         <v>17</v>
       </c>
       <c r="F404" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H404" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I404">
         <v>89.43</v>
@@ -11967,10 +12419,10 @@
         <v>17</v>
       </c>
       <c r="F405" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H405" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I405">
         <v>89.43</v>
@@ -11999,7 +12451,7 @@
         <v>18</v>
       </c>
       <c r="H406" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I406">
         <v>89.43</v>
@@ -12025,19 +12477,19 @@
         <v>17</v>
       </c>
       <c r="F407" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H407" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I407">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J407" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -12056,8 +12508,14 @@
       <c r="F408" t="s">
         <v>12</v>
       </c>
+      <c r="H408" t="s">
+        <v>27</v>
+      </c>
       <c r="I408">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J408" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -12080,7 +12538,7 @@
         <v>29</v>
       </c>
       <c r="H409" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I409">
         <v>89.43</v>
@@ -12138,7 +12596,7 @@
         <v>29</v>
       </c>
       <c r="H411" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I411">
         <v>89.43</v>
@@ -12167,16 +12625,16 @@
         <v>29</v>
       </c>
       <c r="H412" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I412">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J412" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -12195,8 +12653,14 @@
       <c r="F413" t="s">
         <v>12</v>
       </c>
+      <c r="H413" t="s">
+        <v>37</v>
+      </c>
       <c r="I413">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J413" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -12248,16 +12712,16 @@
         <v>15</v>
       </c>
       <c r="H415" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I415">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J415" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -12276,8 +12740,14 @@
       <c r="F416" t="s">
         <v>12</v>
       </c>
+      <c r="H416" t="s">
+        <v>26</v>
+      </c>
       <c r="I416">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J416" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -12297,10 +12767,10 @@
         <v>17</v>
       </c>
       <c r="F417" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H417" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I417">
         <v>89.43</v>
@@ -12326,10 +12796,10 @@
         <v>17</v>
       </c>
       <c r="F418" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H418" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I418">
         <v>89.43</v>
@@ -12355,10 +12825,10 @@
         <v>17</v>
       </c>
       <c r="F419" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H419" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I419">
         <v>89.43</v>
@@ -12416,7 +12886,7 @@
         <v>33</v>
       </c>
       <c r="H421" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I421">
         <v>89.43</v>
@@ -12442,10 +12912,10 @@
         <v>17</v>
       </c>
       <c r="F422" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H422" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I422">
         <v>89.43</v>
@@ -12471,10 +12941,10 @@
         <v>17</v>
       </c>
       <c r="F423" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H423" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I423">
         <v>89.43</v>
@@ -12500,19 +12970,19 @@
         <v>17</v>
       </c>
       <c r="F424" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H424" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I424">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J424" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -12531,8 +13001,14 @@
       <c r="F425" t="s">
         <v>12</v>
       </c>
+      <c r="H425" t="s">
+        <v>26</v>
+      </c>
       <c r="I425">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J425" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -12555,7 +13031,7 @@
         <v>29</v>
       </c>
       <c r="H426" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I426">
         <v>89.43</v>
@@ -12584,7 +13060,7 @@
         <v>29</v>
       </c>
       <c r="H427" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I427">
         <v>89.43</v>
@@ -12613,7 +13089,7 @@
         <v>29</v>
       </c>
       <c r="H428" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I428">
         <v>89.43</v>
@@ -12642,7 +13118,7 @@
         <v>29</v>
       </c>
       <c r="H429" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I429">
         <v>89.43</v>
@@ -12671,16 +13147,16 @@
         <v>29</v>
       </c>
       <c r="H430" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I430">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J430" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -12699,8 +13175,14 @@
       <c r="F431" t="s">
         <v>12</v>
       </c>
+      <c r="H431" t="s">
+        <v>37</v>
+      </c>
       <c r="I431">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J431" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -12752,16 +13234,16 @@
         <v>15</v>
       </c>
       <c r="H433" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I433">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J433" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -12780,8 +13262,14 @@
       <c r="F434" t="s">
         <v>12</v>
       </c>
+      <c r="H434" t="s">
+        <v>31</v>
+      </c>
       <c r="I434">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J434" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -12801,10 +13289,10 @@
         <v>17</v>
       </c>
       <c r="F435" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H435" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I435">
         <v>89.43</v>
@@ -12830,10 +13318,10 @@
         <v>17</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H436" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I436">
         <v>89.43</v>
@@ -12859,10 +13347,10 @@
         <v>17</v>
       </c>
       <c r="F437" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H437" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I437">
         <v>89.43</v>
@@ -12920,7 +13408,7 @@
         <v>33</v>
       </c>
       <c r="H439" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I439">
         <v>89.43</v>
@@ -12946,10 +13434,10 @@
         <v>17</v>
       </c>
       <c r="F440" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H440" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I440">
         <v>89.43</v>
@@ -12975,10 +13463,10 @@
         <v>17</v>
       </c>
       <c r="F441" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H441" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I441">
         <v>89.43</v>
@@ -13004,19 +13492,19 @@
         <v>17</v>
       </c>
       <c r="F442" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H442" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I442">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J442" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -13035,8 +13523,14 @@
       <c r="F443" t="s">
         <v>12</v>
       </c>
+      <c r="H443" t="s">
+        <v>25</v>
+      </c>
       <c r="I443">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J443" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -13059,7 +13553,7 @@
         <v>29</v>
       </c>
       <c r="H444" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I444">
         <v>89.43</v>
@@ -13117,7 +13611,7 @@
         <v>29</v>
       </c>
       <c r="H446" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I446">
         <v>89.43</v>
@@ -13146,16 +13640,16 @@
         <v>29</v>
       </c>
       <c r="H447" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I447">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J447" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -13172,10 +13666,16 @@
         <v>11</v>
       </c>
       <c r="F448" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H448" t="s">
+        <v>37</v>
       </c>
       <c r="I448">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J448" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -13198,16 +13698,16 @@
         <v>15</v>
       </c>
       <c r="H449" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I449">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J449" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -13224,10 +13724,16 @@
         <v>17</v>
       </c>
       <c r="F450" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="H450" t="s">
+        <v>26</v>
       </c>
       <c r="I450">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J450" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -13247,10 +13753,10 @@
         <v>17</v>
       </c>
       <c r="F451" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H451" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I451">
         <v>89.43</v>
@@ -13279,7 +13785,7 @@
         <v>18</v>
       </c>
       <c r="H452" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I452">
         <v>89.43</v>
@@ -13305,10 +13811,10 @@
         <v>17</v>
       </c>
       <c r="F453" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H453" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I453">
         <v>89.43</v>
@@ -13366,7 +13872,7 @@
         <v>33</v>
       </c>
       <c r="H455" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I455">
         <v>89.43</v>
@@ -13392,10 +13898,10 @@
         <v>17</v>
       </c>
       <c r="F456" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H456" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I456">
         <v>89.43</v>
@@ -13424,7 +13930,7 @@
         <v>18</v>
       </c>
       <c r="H457" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I457">
         <v>89.43</v>
@@ -13450,19 +13956,19 @@
         <v>17</v>
       </c>
       <c r="F458" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H458" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I458">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J458" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -13479,10 +13985,16 @@
         <v>28</v>
       </c>
       <c r="F459" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="H459" t="s">
+        <v>25</v>
       </c>
       <c r="I459">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J459" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -13505,7 +14017,7 @@
         <v>29</v>
       </c>
       <c r="H460" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I460">
         <v>89.43</v>
@@ -13534,7 +14046,7 @@
         <v>29</v>
       </c>
       <c r="H461" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I461">
         <v>89.43</v>
@@ -13563,16 +14075,16 @@
         <v>29</v>
       </c>
       <c r="H462" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I462">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J462" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -13589,10 +14101,16 @@
         <v>11</v>
       </c>
       <c r="F463" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="H463" t="s">
+        <v>37</v>
       </c>
       <c r="I463">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J463" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -13644,16 +14162,16 @@
         <v>15</v>
       </c>
       <c r="H465" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I465">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J465" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -13672,8 +14190,14 @@
       <c r="F466" t="s">
         <v>12</v>
       </c>
+      <c r="H466" t="s">
+        <v>26</v>
+      </c>
       <c r="I466">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J466" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -13693,10 +14217,10 @@
         <v>17</v>
       </c>
       <c r="F467" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H467" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I467">
         <v>89.43</v>
@@ -13722,10 +14246,10 @@
         <v>17</v>
       </c>
       <c r="F468" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H468" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I468">
         <v>89.43</v>
@@ -13751,10 +14275,10 @@
         <v>17</v>
       </c>
       <c r="F469" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H469" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I469">
         <v>89.43</v>
@@ -13812,7 +14336,7 @@
         <v>33</v>
       </c>
       <c r="H471" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I471">
         <v>89.43</v>
@@ -13838,10 +14362,10 @@
         <v>17</v>
       </c>
       <c r="F472" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H472" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I472">
         <v>89.43</v>
@@ -13867,10 +14391,10 @@
         <v>17</v>
       </c>
       <c r="F473" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H473" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I473">
         <v>89.43</v>
@@ -13896,19 +14420,19 @@
         <v>17</v>
       </c>
       <c r="F474" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H474" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I474">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J474" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -13927,8 +14451,14 @@
       <c r="F475" t="s">
         <v>12</v>
       </c>
+      <c r="H475" t="s">
+        <v>26</v>
+      </c>
       <c r="I475">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J475" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -13951,7 +14481,7 @@
         <v>29</v>
       </c>
       <c r="H476" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I476">
         <v>89.43</v>
@@ -13980,7 +14510,7 @@
         <v>29</v>
       </c>
       <c r="H477" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I477">
         <v>89.43</v>
@@ -14009,7 +14539,7 @@
         <v>29</v>
       </c>
       <c r="H478" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I478">
         <v>89.43</v>
@@ -14038,7 +14568,7 @@
         <v>29</v>
       </c>
       <c r="H479" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I479">
         <v>89.43</v>
@@ -14067,16 +14597,16 @@
         <v>29</v>
       </c>
       <c r="H480" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I480">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J480" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -14095,8 +14625,14 @@
       <c r="F481" t="s">
         <v>12</v>
       </c>
+      <c r="H481" t="s">
+        <v>27</v>
+      </c>
       <c r="I481">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J481" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -14116,7 +14652,7 @@
         <v>11</v>
       </c>
       <c r="F482" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H482" t="s">
         <v>14</v>
@@ -14145,19 +14681,19 @@
         <v>11</v>
       </c>
       <c r="F483" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H483" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I483">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J483" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -14176,8 +14712,14 @@
       <c r="F484" t="s">
         <v>12</v>
       </c>
+      <c r="H484" t="s">
+        <v>16</v>
+      </c>
       <c r="I484">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J484" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -14197,10 +14739,10 @@
         <v>17</v>
       </c>
       <c r="F485" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H485" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I485">
         <v>89.43</v>
@@ -14226,10 +14768,10 @@
         <v>17</v>
       </c>
       <c r="F486" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H486" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I486">
         <v>89.43</v>
@@ -14255,10 +14797,10 @@
         <v>17</v>
       </c>
       <c r="F487" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H487" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I487">
         <v>89.43</v>
@@ -14284,7 +14826,7 @@
         <v>17</v>
       </c>
       <c r="F488" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H488" t="s">
         <v>23</v>
@@ -14313,10 +14855,10 @@
         <v>17</v>
       </c>
       <c r="F489" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H489" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I489">
         <v>89.43</v>
@@ -14342,10 +14884,10 @@
         <v>17</v>
       </c>
       <c r="F490" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H490" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I490">
         <v>89.43</v>
@@ -14371,10 +14913,10 @@
         <v>17</v>
       </c>
       <c r="F491" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H491" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I491">
         <v>89.43</v>
@@ -14400,19 +14942,19 @@
         <v>17</v>
       </c>
       <c r="F492" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H492" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I492">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J492" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -14431,8 +14973,14 @@
       <c r="F493" t="s">
         <v>12</v>
       </c>
+      <c r="H493" t="s">
+        <v>26</v>
+      </c>
       <c r="I493">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J493" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -14452,10 +15000,10 @@
         <v>28</v>
       </c>
       <c r="F494" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H494" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I494">
         <v>89.43</v>
@@ -14513,7 +15061,7 @@
         <v>29</v>
       </c>
       <c r="H496" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I496">
         <v>89.43</v>
@@ -14539,19 +15087,19 @@
         <v>28</v>
       </c>
       <c r="F497" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H497" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I497">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J497" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -14570,8 +15118,14 @@
       <c r="F498" t="s">
         <v>12</v>
       </c>
+      <c r="H498" t="s">
+        <v>37</v>
+      </c>
       <c r="I498">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J498" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14623,16 +15177,16 @@
         <v>15</v>
       </c>
       <c r="H500" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I500">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J500" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -14651,8 +15205,14 @@
       <c r="F501" t="s">
         <v>12</v>
       </c>
+      <c r="H501" t="s">
+        <v>31</v>
+      </c>
       <c r="I501">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J501" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14672,10 +15232,10 @@
         <v>17</v>
       </c>
       <c r="F502" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H502" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I502">
         <v>89.43</v>
@@ -14701,10 +15261,10 @@
         <v>17</v>
       </c>
       <c r="F503" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H503" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I503">
         <v>89.43</v>
@@ -14730,10 +15290,10 @@
         <v>17</v>
       </c>
       <c r="F504" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H504" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I504">
         <v>89.43</v>
@@ -14791,7 +15351,7 @@
         <v>33</v>
       </c>
       <c r="H506" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I506">
         <v>89.43</v>
@@ -14817,10 +15377,10 @@
         <v>17</v>
       </c>
       <c r="F507" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H507" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I507">
         <v>89.43</v>
@@ -14846,10 +15406,10 @@
         <v>17</v>
       </c>
       <c r="F508" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H508" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I508">
         <v>89.43</v>
@@ -14875,19 +15435,19 @@
         <v>17</v>
       </c>
       <c r="F509" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H509" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I509">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J509" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -14906,8 +15466,14 @@
       <c r="F510" t="s">
         <v>12</v>
       </c>
+      <c r="H510" t="s">
+        <v>25</v>
+      </c>
       <c r="I510">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J510" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14930,7 +15496,7 @@
         <v>29</v>
       </c>
       <c r="H511" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I511">
         <v>89.43</v>
@@ -14988,7 +15554,7 @@
         <v>29</v>
       </c>
       <c r="H513" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I513">
         <v>89.43</v>
@@ -15017,16 +15583,16 @@
         <v>29</v>
       </c>
       <c r="H514" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I514">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J514" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -15045,8 +15611,14 @@
       <c r="F515" t="s">
         <v>12</v>
       </c>
+      <c r="H515" t="s">
+        <v>37</v>
+      </c>
       <c r="I515">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J515" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -15098,16 +15670,16 @@
         <v>15</v>
       </c>
       <c r="H517" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I517">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J517" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -15126,8 +15698,14 @@
       <c r="F518" t="s">
         <v>12</v>
       </c>
+      <c r="H518" t="s">
+        <v>31</v>
+      </c>
       <c r="I518">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J518" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -15147,10 +15725,10 @@
         <v>17</v>
       </c>
       <c r="F519" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H519" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I519">
         <v>89.43</v>
@@ -15176,10 +15754,10 @@
         <v>17</v>
       </c>
       <c r="F520" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H520" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I520">
         <v>89.43</v>
@@ -15205,10 +15783,10 @@
         <v>17</v>
       </c>
       <c r="F521" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H521" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I521">
         <v>89.43</v>
@@ -15234,7 +15812,7 @@
         <v>17</v>
       </c>
       <c r="F522" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H522" t="s">
         <v>32</v>
@@ -15263,10 +15841,10 @@
         <v>17</v>
       </c>
       <c r="F523" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H523" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I523">
         <v>89.43</v>
@@ -15292,10 +15870,10 @@
         <v>17</v>
       </c>
       <c r="F524" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H524" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I524">
         <v>89.43</v>
@@ -15321,10 +15899,10 @@
         <v>17</v>
       </c>
       <c r="F525" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H525" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I525">
         <v>89.43</v>
@@ -15350,19 +15928,19 @@
         <v>17</v>
       </c>
       <c r="F526" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H526" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I526">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J526" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -15381,8 +15959,14 @@
       <c r="F527" t="s">
         <v>12</v>
       </c>
+      <c r="H527" t="s">
+        <v>25</v>
+      </c>
       <c r="I527">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J527" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -15405,7 +15989,7 @@
         <v>29</v>
       </c>
       <c r="H528" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I528">
         <v>89.43</v>
@@ -15463,7 +16047,7 @@
         <v>29</v>
       </c>
       <c r="H530" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I530">
         <v>89.43</v>
@@ -15492,16 +16076,16 @@
         <v>29</v>
       </c>
       <c r="H531" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I531">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J531" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -15520,8 +16104,14 @@
       <c r="F532" t="s">
         <v>12</v>
       </c>
+      <c r="H532" t="s">
+        <v>25</v>
+      </c>
       <c r="I532">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J532" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -15573,16 +16163,16 @@
         <v>15</v>
       </c>
       <c r="H534" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I534">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J534" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -15601,8 +16191,14 @@
       <c r="F535" t="s">
         <v>12</v>
       </c>
+      <c r="H535" t="s">
+        <v>31</v>
+      </c>
       <c r="I535">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J535" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -15625,7 +16221,7 @@
         <v>19</v>
       </c>
       <c r="H536" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I536">
         <v>89.43</v>
@@ -15651,10 +16247,10 @@
         <v>17</v>
       </c>
       <c r="F537" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H537" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I537">
         <v>89.43</v>
@@ -15680,10 +16276,10 @@
         <v>17</v>
       </c>
       <c r="F538" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H538" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I538">
         <v>89.43</v>
@@ -15741,7 +16337,7 @@
         <v>33</v>
       </c>
       <c r="H540" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I540">
         <v>89.43</v>
@@ -15767,10 +16363,10 @@
         <v>17</v>
       </c>
       <c r="F541" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H541" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I541">
         <v>89.43</v>
@@ -15796,10 +16392,10 @@
         <v>17</v>
       </c>
       <c r="F542" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H542" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I542">
         <v>89.43</v>
@@ -15828,16 +16424,16 @@
         <v>19</v>
       </c>
       <c r="H543" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I543">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J543" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -15856,8 +16452,14 @@
       <c r="F544" t="s">
         <v>12</v>
       </c>
+      <c r="H544" t="s">
+        <v>37</v>
+      </c>
       <c r="I544">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J544" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -15880,7 +16482,7 @@
         <v>29</v>
       </c>
       <c r="H545" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I545">
         <v>89.43</v>
@@ -15938,7 +16540,7 @@
         <v>29</v>
       </c>
       <c r="H547" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I547">
         <v>89.43</v>
@@ -15967,16 +16569,16 @@
         <v>29</v>
       </c>
       <c r="H548" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I548">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J548" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -15995,8 +16597,14 @@
       <c r="F549" t="s">
         <v>12</v>
       </c>
+      <c r="H549" t="s">
+        <v>25</v>
+      </c>
       <c r="I549">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J549" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -16048,16 +16656,16 @@
         <v>15</v>
       </c>
       <c r="H551" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I551">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J551" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -16076,8 +16684,14 @@
       <c r="F552" t="s">
         <v>12</v>
       </c>
+      <c r="H552" t="s">
+        <v>31</v>
+      </c>
       <c r="I552">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J552" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -16097,10 +16711,10 @@
         <v>17</v>
       </c>
       <c r="F553" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H553" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I553">
         <v>89.43</v>
@@ -16126,10 +16740,10 @@
         <v>17</v>
       </c>
       <c r="F554" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H554" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I554">
         <v>89.43</v>
@@ -16158,7 +16772,7 @@
         <v>18</v>
       </c>
       <c r="H555" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I555">
         <v>89.43</v>
@@ -16216,7 +16830,7 @@
         <v>33</v>
       </c>
       <c r="H557" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I557">
         <v>89.43</v>
@@ -16245,7 +16859,7 @@
         <v>18</v>
       </c>
       <c r="H558" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I558">
         <v>89.43</v>
@@ -16271,10 +16885,10 @@
         <v>17</v>
       </c>
       <c r="F559" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H559" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I559">
         <v>89.43</v>
@@ -16300,19 +16914,19 @@
         <v>17</v>
       </c>
       <c r="F560" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H560" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I560">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J560" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -16331,8 +16945,14 @@
       <c r="F561" t="s">
         <v>12</v>
       </c>
+      <c r="H561" t="s">
+        <v>25</v>
+      </c>
       <c r="I561">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J561" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
@@ -16355,7 +16975,7 @@
         <v>29</v>
       </c>
       <c r="H562" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I562">
         <v>89.43</v>
@@ -16413,7 +17033,7 @@
         <v>29</v>
       </c>
       <c r="H564" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I564">
         <v>89.43</v>
@@ -16442,16 +17062,16 @@
         <v>29</v>
       </c>
       <c r="H565" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I565">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J565" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -16470,8 +17090,14 @@
       <c r="F566" t="s">
         <v>12</v>
       </c>
+      <c r="H566" t="s">
+        <v>31</v>
+      </c>
       <c r="I566">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J566" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
@@ -16491,7 +17117,7 @@
         <v>11</v>
       </c>
       <c r="F567" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H567" t="s">
         <v>14</v>
@@ -16520,19 +17146,19 @@
         <v>11</v>
       </c>
       <c r="F568" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H568" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I568">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J568" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -16551,8 +17177,14 @@
       <c r="F569" t="s">
         <v>12</v>
       </c>
+      <c r="H569" t="s">
+        <v>27</v>
+      </c>
       <c r="I569">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J569" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -16575,7 +17207,7 @@
         <v>18</v>
       </c>
       <c r="H570" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I570">
         <v>89.43</v>
@@ -16601,10 +17233,10 @@
         <v>17</v>
       </c>
       <c r="F571" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H571" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I571">
         <v>89.43</v>
@@ -16630,10 +17262,10 @@
         <v>17</v>
       </c>
       <c r="F572" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H572" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I572">
         <v>89.43</v>
@@ -16691,7 +17323,7 @@
         <v>24</v>
       </c>
       <c r="H574" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I574">
         <v>89.43</v>
@@ -16717,10 +17349,10 @@
         <v>17</v>
       </c>
       <c r="F575" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H575" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I575">
         <v>89.43</v>
@@ -16746,10 +17378,10 @@
         <v>17</v>
       </c>
       <c r="F576" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H576" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I576">
         <v>89.43</v>
@@ -16778,16 +17410,16 @@
         <v>18</v>
       </c>
       <c r="H577" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I577">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J577" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -16806,8 +17438,14 @@
       <c r="F578" t="s">
         <v>12</v>
       </c>
+      <c r="H578" t="s">
+        <v>27</v>
+      </c>
       <c r="I578">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J578" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
@@ -16827,10 +17465,10 @@
         <v>28</v>
       </c>
       <c r="F579" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H579" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I579">
         <v>89.43</v>
@@ -16888,7 +17526,7 @@
         <v>29</v>
       </c>
       <c r="H581" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I581">
         <v>89.43</v>
@@ -16914,19 +17552,19 @@
         <v>28</v>
       </c>
       <c r="F582" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H582" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I582">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J582" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -16945,8 +17583,14 @@
       <c r="F583" t="s">
         <v>12</v>
       </c>
+      <c r="H583" t="s">
+        <v>25</v>
+      </c>
       <c r="I583">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J583" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
@@ -16998,16 +17642,16 @@
         <v>15</v>
       </c>
       <c r="H585" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I585">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J585" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -17026,8 +17670,14 @@
       <c r="F586" t="s">
         <v>12</v>
       </c>
+      <c r="H586" t="s">
+        <v>25</v>
+      </c>
       <c r="I586">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J586" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
@@ -17047,10 +17697,10 @@
         <v>17</v>
       </c>
       <c r="F587" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H587" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I587">
         <v>89.43</v>
@@ -17076,10 +17726,10 @@
         <v>17</v>
       </c>
       <c r="F588" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H588" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I588">
         <v>89.43</v>
@@ -17108,7 +17758,7 @@
         <v>24</v>
       </c>
       <c r="H589" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I589">
         <v>89.43</v>
@@ -17166,7 +17816,7 @@
         <v>18</v>
       </c>
       <c r="H591" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I591">
         <v>89.43</v>
@@ -17195,7 +17845,7 @@
         <v>24</v>
       </c>
       <c r="H592" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I592">
         <v>89.43</v>
@@ -17221,10 +17871,10 @@
         <v>17</v>
       </c>
       <c r="F593" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H593" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I593">
         <v>89.43</v>
@@ -17250,19 +17900,19 @@
         <v>17</v>
       </c>
       <c r="F594" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H594" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I594">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J594" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -17281,8 +17931,14 @@
       <c r="F595" t="s">
         <v>12</v>
       </c>
+      <c r="H595" t="s">
+        <v>25</v>
+      </c>
       <c r="I595">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J595" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -17305,7 +17961,7 @@
         <v>29</v>
       </c>
       <c r="H596" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I596">
         <v>89.43</v>
@@ -17363,7 +18019,7 @@
         <v>29</v>
       </c>
       <c r="H598" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I598">
         <v>89.43</v>
@@ -17392,16 +18048,16 @@
         <v>29</v>
       </c>
       <c r="H599" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I599">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J599" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -17420,8 +18076,14 @@
       <c r="F600" t="s">
         <v>12</v>
       </c>
+      <c r="H600" t="s">
+        <v>37</v>
+      </c>
       <c r="I600">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J600" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
@@ -17473,16 +18135,16 @@
         <v>15</v>
       </c>
       <c r="H602" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I602">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J602" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -17501,8 +18163,14 @@
       <c r="F603" t="s">
         <v>12</v>
       </c>
+      <c r="H603" t="s">
+        <v>31</v>
+      </c>
       <c r="I603">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J603" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
@@ -17522,10 +18190,10 @@
         <v>17</v>
       </c>
       <c r="F604" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H604" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I604">
         <v>89.43</v>
@@ -17551,10 +18219,10 @@
         <v>17</v>
       </c>
       <c r="F605" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H605" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I605">
         <v>89.43</v>
@@ -17580,10 +18248,10 @@
         <v>17</v>
       </c>
       <c r="F606" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H606" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I606">
         <v>89.43</v>
@@ -17609,7 +18277,7 @@
         <v>17</v>
       </c>
       <c r="F607" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H607" t="s">
         <v>32</v>
@@ -17638,10 +18306,10 @@
         <v>17</v>
       </c>
       <c r="F608" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H608" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I608">
         <v>89.43</v>
@@ -17667,10 +18335,10 @@
         <v>17</v>
       </c>
       <c r="F609" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H609" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I609">
         <v>89.43</v>
@@ -17696,10 +18364,10 @@
         <v>17</v>
       </c>
       <c r="F610" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H610" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I610">
         <v>89.43</v>
@@ -17725,19 +18393,19 @@
         <v>17</v>
       </c>
       <c r="F611" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H611" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I611">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J611" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -17756,8 +18424,14 @@
       <c r="F612" t="s">
         <v>12</v>
       </c>
+      <c r="H612" t="s">
+        <v>25</v>
+      </c>
       <c r="I612">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J612" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -17780,7 +18454,7 @@
         <v>29</v>
       </c>
       <c r="H613" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I613">
         <v>89.43</v>
@@ -17838,7 +18512,7 @@
         <v>29</v>
       </c>
       <c r="H615" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I615">
         <v>89.43</v>
@@ -17867,16 +18541,16 @@
         <v>29</v>
       </c>
       <c r="H616" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I616">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J616" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -17895,8 +18569,14 @@
       <c r="F617" t="s">
         <v>12</v>
       </c>
+      <c r="H617" t="s">
+        <v>37</v>
+      </c>
       <c r="I617">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J617" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
@@ -17948,16 +18628,16 @@
         <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I619">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J619" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -17974,10 +18654,16 @@
         <v>17</v>
       </c>
       <c r="F620" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="H620" t="s">
+        <v>25</v>
       </c>
       <c r="I620">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J620" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -17997,10 +18683,10 @@
         <v>17</v>
       </c>
       <c r="F621" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H621" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I621">
         <v>89.43</v>
@@ -18026,10 +18712,10 @@
         <v>17</v>
       </c>
       <c r="F622" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H622" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I622">
         <v>89.43</v>
@@ -18058,7 +18744,7 @@
         <v>24</v>
       </c>
       <c r="H623" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I623">
         <v>89.43</v>
@@ -18084,7 +18770,7 @@
         <v>17</v>
       </c>
       <c r="F624" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H624" t="s">
         <v>32</v>
@@ -18113,10 +18799,10 @@
         <v>17</v>
       </c>
       <c r="F625" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H625" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I625">
         <v>89.43</v>
@@ -18145,7 +18831,7 @@
         <v>24</v>
       </c>
       <c r="H626" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I626">
         <v>89.43</v>
@@ -18171,10 +18857,10 @@
         <v>17</v>
       </c>
       <c r="F627" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H627" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I627">
         <v>89.43</v>
@@ -18200,19 +18886,19 @@
         <v>17</v>
       </c>
       <c r="F628" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H628" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I628">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J628" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -18229,10 +18915,16 @@
         <v>28</v>
       </c>
       <c r="F629" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="H629" t="s">
+        <v>25</v>
       </c>
       <c r="I629">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J629" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -18255,7 +18947,7 @@
         <v>29</v>
       </c>
       <c r="H630" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I630">
         <v>89.43</v>
@@ -18313,7 +19005,7 @@
         <v>29</v>
       </c>
       <c r="H632" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I632">
         <v>89.43</v>
@@ -18342,16 +19034,16 @@
         <v>29</v>
       </c>
       <c r="H633" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I633">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J633" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -18368,10 +19060,16 @@
         <v>11</v>
       </c>
       <c r="F634" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="H634" t="s">
+        <v>37</v>
       </c>
       <c r="I634">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J634" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -18423,16 +19121,16 @@
         <v>15</v>
       </c>
       <c r="H636" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I636">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J636" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -18451,8 +19149,14 @@
       <c r="F637" t="s">
         <v>12</v>
       </c>
+      <c r="H637" t="s">
+        <v>31</v>
+      </c>
       <c r="I637">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J637" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -18472,10 +19176,10 @@
         <v>17</v>
       </c>
       <c r="F638" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H638" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I638">
         <v>89.43</v>
@@ -18504,7 +19208,7 @@
         <v>18</v>
       </c>
       <c r="H639" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I639">
         <v>89.43</v>
@@ -18533,7 +19237,7 @@
         <v>24</v>
       </c>
       <c r="H640" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I640">
         <v>89.43</v>
@@ -18559,10 +19263,10 @@
         <v>17</v>
       </c>
       <c r="F641" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H641" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I641">
         <v>89.43</v>
@@ -18591,7 +19295,7 @@
         <v>18</v>
       </c>
       <c r="H642" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I642">
         <v>89.43</v>
@@ -18617,10 +19321,10 @@
         <v>17</v>
       </c>
       <c r="F643" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H643" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I643">
         <v>89.43</v>
@@ -18649,7 +19353,7 @@
         <v>24</v>
       </c>
       <c r="H644" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I644">
         <v>89.43</v>
@@ -18678,7 +19382,7 @@
         <v>18</v>
       </c>
       <c r="H645" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I645">
         <v>89.43</v>
@@ -18704,19 +19408,19 @@
         <v>17</v>
       </c>
       <c r="F646" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H646" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I646">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J646" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -18735,8 +19439,14 @@
       <c r="F647" t="s">
         <v>12</v>
       </c>
+      <c r="H647" t="s">
+        <v>25</v>
+      </c>
       <c r="I647">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J647" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
@@ -18759,7 +19469,7 @@
         <v>29</v>
       </c>
       <c r="H648" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I648">
         <v>89.43</v>
@@ -18817,7 +19527,7 @@
         <v>29</v>
       </c>
       <c r="H650" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I650">
         <v>89.43</v>
@@ -18846,16 +19556,16 @@
         <v>29</v>
       </c>
       <c r="H651" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I651">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J651" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -18874,8 +19584,14 @@
       <c r="F652" t="s">
         <v>12</v>
       </c>
+      <c r="H652" t="s">
+        <v>37</v>
+      </c>
       <c r="I652">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J652" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -18927,16 +19643,16 @@
         <v>15</v>
       </c>
       <c r="H654" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I654">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J654" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -18955,8 +19671,14 @@
       <c r="F655" t="s">
         <v>12</v>
       </c>
+      <c r="H655" t="s">
+        <v>25</v>
+      </c>
       <c r="I655">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J655" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -18976,10 +19698,10 @@
         <v>17</v>
       </c>
       <c r="F656" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H656" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I656">
         <v>89.43</v>
@@ -19008,7 +19730,7 @@
         <v>18</v>
       </c>
       <c r="H657" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I657">
         <v>89.43</v>
@@ -19034,10 +19756,10 @@
         <v>17</v>
       </c>
       <c r="F658" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H658" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I658">
         <v>89.43</v>
@@ -19063,10 +19785,10 @@
         <v>17</v>
       </c>
       <c r="F659" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H659" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I659">
         <v>89.43</v>
@@ -19095,7 +19817,7 @@
         <v>18</v>
       </c>
       <c r="H660" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I660">
         <v>89.43</v>
@@ -19121,10 +19843,10 @@
         <v>17</v>
       </c>
       <c r="F661" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H661" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I661">
         <v>89.43</v>
@@ -19150,10 +19872,10 @@
         <v>17</v>
       </c>
       <c r="F662" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H662" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I662">
         <v>89.43</v>
@@ -19182,7 +19904,7 @@
         <v>18</v>
       </c>
       <c r="H663" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I663">
         <v>89.43</v>
@@ -19208,19 +19930,19 @@
         <v>17</v>
       </c>
       <c r="F664" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H664" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I664">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J664" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -19239,8 +19961,14 @@
       <c r="F665" t="s">
         <v>12</v>
       </c>
+      <c r="H665" t="s">
+        <v>25</v>
+      </c>
       <c r="I665">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J665" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -19263,7 +19991,7 @@
         <v>29</v>
       </c>
       <c r="H666" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I666">
         <v>89.43</v>
@@ -19292,7 +20020,7 @@
         <v>29</v>
       </c>
       <c r="H667" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I667">
         <v>89.43</v>
@@ -19321,7 +20049,7 @@
         <v>29</v>
       </c>
       <c r="H668" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I668">
         <v>89.43</v>
@@ -19350,7 +20078,7 @@
         <v>29</v>
       </c>
       <c r="H669" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I669">
         <v>89.43</v>
@@ -19379,16 +20107,16 @@
         <v>29</v>
       </c>
       <c r="H670" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I670">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J670" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -19407,8 +20135,14 @@
       <c r="F671" t="s">
         <v>12</v>
       </c>
+      <c r="H671" t="s">
+        <v>25</v>
+      </c>
       <c r="I671">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J671" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
@@ -19460,16 +20194,16 @@
         <v>15</v>
       </c>
       <c r="H673" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I673">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J673" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -19488,8 +20222,14 @@
       <c r="F674" t="s">
         <v>12</v>
       </c>
+      <c r="H674" t="s">
+        <v>25</v>
+      </c>
       <c r="I674">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J674" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
@@ -19509,10 +20249,10 @@
         <v>17</v>
       </c>
       <c r="F675" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H675" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I675">
         <v>89.43</v>
@@ -19538,10 +20278,10 @@
         <v>17</v>
       </c>
       <c r="F676" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H676" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I676">
         <v>89.43</v>
@@ -19570,7 +20310,7 @@
         <v>24</v>
       </c>
       <c r="H677" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I677">
         <v>89.43</v>
@@ -19628,7 +20368,7 @@
         <v>18</v>
       </c>
       <c r="H679" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I679">
         <v>89.43</v>
@@ -19657,7 +20397,7 @@
         <v>24</v>
       </c>
       <c r="H680" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I680">
         <v>89.43</v>
@@ -19683,10 +20423,10 @@
         <v>17</v>
       </c>
       <c r="F681" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H681" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I681">
         <v>89.43</v>
@@ -19712,19 +20452,19 @@
         <v>17</v>
       </c>
       <c r="F682" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H682" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I682">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J682" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -19743,8 +20483,14 @@
       <c r="F683" t="s">
         <v>12</v>
       </c>
+      <c r="H683" t="s">
+        <v>25</v>
+      </c>
       <c r="I683">
-        <v>-100</v>
+        <v>89.43</v>
+      </c>
+      <c r="J683" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -19767,7 +20513,7 @@
         <v>29</v>
       </c>
       <c r="H684" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I684">
         <v>89.43</v>
@@ -19825,7 +20571,7 @@
         <v>29</v>
       </c>
       <c r="H686" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I686">
         <v>89.43</v>
@@ -19854,13 +20600,13 @@
         <v>29</v>
       </c>
       <c r="H687" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I687">
-        <v>89.43</v>
+        <v>-100</v>
       </c>
       <c r="J687" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="689" spans="9:9" x14ac:dyDescent="0.25">
@@ -19870,13 +20616,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J687" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="89,43"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J689" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70012672.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5AC17-B64E-4D5E-B4F2-4EE730532AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FCF5AC17-B64E-4D5E-B4F2-4EE730532AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B62554D-2001-4F80-A98F-9032EC66D266}"/>
   <bookViews>
-    <workbookView xWindow="-675" yWindow="11715" windowWidth="7545" windowHeight="4545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="6495" windowWidth="20925" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="89">
   <si>
     <t>archivo</t>
   </si>
@@ -303,9 +303,6 @@
   <si>
     <t>PAST DUE</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -323,6 +320,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -673,7 +671,7 @@
   <dimension ref="A1:J689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +717,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -735,13 +733,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I2">
-        <v>89.43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -790,23 +785,23 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -819,16 +814,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I5">
-        <v>89.43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>89.43</v>
@@ -877,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>89.43</v>
@@ -906,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>89.43</v>
@@ -938,7 +930,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>89.43</v>
@@ -964,10 +956,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>89.43</v>
@@ -993,10 +985,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>89.43</v>
@@ -1025,20 +1017,20 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
@@ -1051,16 +1043,13 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I13">
-        <v>89.43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>89.43</v>
@@ -1112,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <v>89.43</v>
@@ -1141,20 +1130,20 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
@@ -1170,13 +1159,10 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I17">
-        <v>89.43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1225,23 +1211,23 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I19">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
@@ -1257,13 +1243,10 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I20">
-        <v>89.43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1286,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>89.43</v>
@@ -1312,10 +1295,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I22">
         <v>89.43</v>
@@ -1341,10 +1324,10 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>89.43</v>
@@ -1402,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I25">
         <v>89.43</v>
@@ -1428,10 +1411,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>89.43</v>
@@ -1457,10 +1440,10 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>89.43</v>
@@ -1489,20 +1472,20 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
@@ -1518,13 +1501,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I29">
-        <v>89.43</v>
-      </c>
-      <c r="J29" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1544,10 +1524,10 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I30">
         <v>89.43</v>
@@ -1605,7 +1585,7 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I32">
         <v>89.43</v>
@@ -1631,23 +1611,23 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I33">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
@@ -1663,13 +1643,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I34">
-        <v>89.43</v>
-      </c>
-      <c r="J34" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1721,20 +1698,20 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I36">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
@@ -1747,16 +1724,13 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I37">
-        <v>89.43</v>
-      </c>
-      <c r="J37" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I38">
         <v>89.43</v>
@@ -1805,10 +1779,10 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <v>89.43</v>
@@ -1837,7 +1811,7 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I40">
         <v>89.43</v>
@@ -1863,7 +1837,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
@@ -1892,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I42">
         <v>89.43</v>
@@ -1924,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I43">
         <v>89.43</v>
@@ -1950,10 +1924,10 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I44">
         <v>89.43</v>
@@ -1979,23 +1953,23 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I45">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C46" t="s">
@@ -2008,16 +1982,13 @@
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I46">
-        <v>89.43</v>
-      </c>
-      <c r="J46" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2040,7 +2011,7 @@
         <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I47">
         <v>89.43</v>
@@ -2098,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I49">
         <v>89.43</v>
@@ -2127,20 +2098,20 @@
         <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I50">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
@@ -2153,16 +2124,13 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I51">
-        <v>89.43</v>
-      </c>
-      <c r="J51" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2182,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2211,23 +2179,23 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I53">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
@@ -2243,13 +2211,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I54">
-        <v>89.43</v>
-      </c>
-      <c r="J54" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2269,10 +2234,10 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I55">
         <v>89.43</v>
@@ -2298,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I56">
         <v>89.43</v>
@@ -2327,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I57">
         <v>89.43</v>
@@ -2388,7 +2353,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I59">
         <v>89.43</v>
@@ -2414,10 +2379,10 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I60">
         <v>89.43</v>
@@ -2443,10 +2408,10 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I61">
         <v>89.43</v>
@@ -2472,23 +2437,23 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I62">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C63" t="s">
@@ -2504,13 +2469,10 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I63">
-        <v>89.43</v>
-      </c>
-      <c r="J63" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2530,10 +2492,10 @@
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I64">
         <v>89.43</v>
@@ -2591,7 +2553,7 @@
         <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I66">
         <v>89.43</v>
@@ -2617,23 +2579,23 @@
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I67">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C68" t="s">
@@ -2649,13 +2611,10 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I68">
-        <v>89.43</v>
-      </c>
-      <c r="J68" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,20 +2666,20 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I70">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C71" t="s">
@@ -2736,13 +2695,10 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I71">
-        <v>89.43</v>
-      </c>
-      <c r="J71" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2762,10 +2718,10 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I72">
         <v>89.43</v>
@@ -2794,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I73">
         <v>89.43</v>
@@ -2820,10 +2776,10 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I74">
         <v>89.43</v>
@@ -2849,10 +2805,10 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I75">
         <v>89.43</v>
@@ -2881,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I76">
         <v>89.43</v>
@@ -2907,10 +2863,10 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I77">
         <v>89.43</v>
@@ -2936,10 +2892,10 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I78">
         <v>89.43</v>
@@ -2968,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I79">
         <v>89.43</v>
@@ -2994,23 +2950,23 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I80">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C81" t="s">
@@ -3026,13 +2982,10 @@
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I81">
-        <v>89.43</v>
-      </c>
-      <c r="J81" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3055,7 +3008,7 @@
         <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I82">
         <v>89.43</v>
@@ -3084,7 +3037,7 @@
         <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I83">
         <v>89.43</v>
@@ -3113,7 +3066,7 @@
         <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I84">
         <v>89.43</v>
@@ -3142,7 +3095,7 @@
         <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I85">
         <v>89.43</v>
@@ -3171,20 +3124,20 @@
         <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I86">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C87" t="s">
@@ -3200,13 +3153,10 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I87">
-        <v>89.43</v>
-      </c>
-      <c r="J87" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3229,20 +3179,20 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I88">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C89" t="s">
@@ -3258,13 +3208,10 @@
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I89">
-        <v>89.43</v>
-      </c>
-      <c r="J89" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,10 +3231,10 @@
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I90">
         <v>89.43</v>
@@ -3313,10 +3260,10 @@
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I91">
         <v>89.43</v>
@@ -3345,7 +3292,7 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I92">
         <v>89.43</v>
@@ -3371,7 +3318,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
         <v>45</v>
@@ -3400,10 +3347,10 @@
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I94">
         <v>89.43</v>
@@ -3432,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I95">
         <v>89.43</v>
@@ -3458,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I96">
         <v>89.43</v>
@@ -3487,23 +3434,23 @@
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I97">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C98" t="s">
@@ -3519,13 +3466,10 @@
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I98">
-        <v>89.43</v>
-      </c>
-      <c r="J98" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3548,7 +3492,7 @@
         <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I99">
         <v>89.43</v>
@@ -3606,7 +3550,7 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I101">
         <v>89.43</v>
@@ -3635,20 +3579,20 @@
         <v>29</v>
       </c>
       <c r="H102" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="I102">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C103" t="s">
@@ -3664,13 +3608,10 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I103">
-        <v>89.43</v>
-      </c>
-      <c r="J103" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3693,20 +3634,20 @@
         <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I104">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C105" t="s">
@@ -3722,13 +3663,10 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I105">
-        <v>89.43</v>
-      </c>
-      <c r="J105" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3748,10 +3686,10 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I106">
         <v>89.43</v>
@@ -3777,10 +3715,10 @@
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I107">
         <v>89.43</v>
@@ -3809,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I108">
         <v>89.43</v>
@@ -3835,7 +3773,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
         <v>45</v>
@@ -3864,10 +3802,10 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I110">
         <v>89.43</v>
@@ -3896,7 +3834,7 @@
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I111">
         <v>89.43</v>
@@ -3922,10 +3860,10 @@
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I112">
         <v>89.43</v>
@@ -3951,23 +3889,23 @@
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H113" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I113">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C114" t="s">
@@ -3983,13 +3921,10 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I114">
-        <v>89.43</v>
-      </c>
-      <c r="J114" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4012,7 +3947,7 @@
         <v>29</v>
       </c>
       <c r="H115" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I115">
         <v>89.43</v>
@@ -4070,7 +4005,7 @@
         <v>29</v>
       </c>
       <c r="H117" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I117">
         <v>89.43</v>
@@ -4099,20 +4034,20 @@
         <v>29</v>
       </c>
       <c r="H118" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I118">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J118" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C119" t="s">
@@ -4128,13 +4063,10 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I119">
-        <v>89.43</v>
-      </c>
-      <c r="J119" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4186,20 +4118,20 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I121">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C122" t="s">
@@ -4215,13 +4147,10 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I122">
-        <v>89.43</v>
-      </c>
-      <c r="J122" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4241,10 +4170,10 @@
         <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H123" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I123">
         <v>89.43</v>
@@ -4273,7 +4202,7 @@
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I124">
         <v>89.43</v>
@@ -4302,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I125">
         <v>89.43</v>
@@ -4328,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H126" t="s">
         <v>39</v>
@@ -4357,10 +4286,10 @@
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I127">
         <v>89.43</v>
@@ -4389,7 +4318,7 @@
         <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I128">
         <v>89.43</v>
@@ -4418,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I129">
         <v>89.43</v>
@@ -4444,23 +4373,23 @@
         <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H130" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I130">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C131" t="s">
@@ -4476,13 +4405,10 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I131">
-        <v>89.43</v>
-      </c>
-      <c r="J131" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4505,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I132">
         <v>89.43</v>
@@ -4534,7 +4460,7 @@
         <v>29</v>
       </c>
       <c r="H133" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I133">
         <v>89.43</v>
@@ -4563,7 +4489,7 @@
         <v>29</v>
       </c>
       <c r="H134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I134">
         <v>89.43</v>
@@ -4592,7 +4518,7 @@
         <v>29</v>
       </c>
       <c r="H135" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I135">
         <v>89.43</v>
@@ -4621,20 +4547,20 @@
         <v>29</v>
       </c>
       <c r="H136" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I136">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J136" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C137" t="s">
@@ -4650,13 +4576,10 @@
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I137">
-        <v>89.43</v>
-      </c>
-      <c r="J137" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4679,20 +4602,20 @@
         <v>15</v>
       </c>
       <c r="H138" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I138">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J138" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C139" t="s">
@@ -4708,13 +4631,10 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I139">
-        <v>89.43</v>
-      </c>
-      <c r="J139" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4734,10 +4654,10 @@
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H140" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I140">
         <v>89.43</v>
@@ -4766,7 +4686,7 @@
         <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I141">
         <v>89.43</v>
@@ -4795,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I142">
         <v>89.43</v>
@@ -4821,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
         <v>45</v>
@@ -4850,10 +4770,10 @@
         <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I144">
         <v>89.43</v>
@@ -4882,7 +4802,7 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I145">
         <v>89.43</v>
@@ -4911,7 +4831,7 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I146">
         <v>89.43</v>
@@ -4937,23 +4857,23 @@
         <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H147" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I147">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J147" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C148" t="s">
@@ -4969,13 +4889,10 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I148">
-        <v>89.43</v>
-      </c>
-      <c r="J148" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -4998,7 +4915,7 @@
         <v>29</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I149">
         <v>89.43</v>
@@ -5056,7 +4973,7 @@
         <v>29</v>
       </c>
       <c r="H151" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I151">
         <v>89.43</v>
@@ -5085,20 +5002,20 @@
         <v>29</v>
       </c>
       <c r="H152" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I152">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J152" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C153" t="s">
@@ -5114,13 +5031,10 @@
         <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I153">
-        <v>89.43</v>
-      </c>
-      <c r="J153" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5140,7 +5054,7 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -5169,23 +5083,23 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I155">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J155" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C156" t="s">
@@ -5201,13 +5115,10 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I156">
-        <v>89.43</v>
-      </c>
-      <c r="J156" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5227,10 +5138,10 @@
         <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I157">
         <v>89.43</v>
@@ -5256,10 +5167,10 @@
         <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H158" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I158">
         <v>89.43</v>
@@ -5285,10 +5196,10 @@
         <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H159" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I159">
         <v>89.43</v>
@@ -5346,7 +5257,7 @@
         <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I161">
         <v>89.43</v>
@@ -5372,10 +5283,10 @@
         <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I162">
         <v>89.43</v>
@@ -5401,10 +5312,10 @@
         <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I163">
         <v>89.43</v>
@@ -5430,23 +5341,23 @@
         <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I164">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J164" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C165" t="s">
@@ -5462,13 +5373,10 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I165">
-        <v>89.43</v>
-      </c>
-      <c r="J165" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5488,10 +5396,10 @@
         <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I166">
         <v>89.43</v>
@@ -5549,7 +5457,7 @@
         <v>29</v>
       </c>
       <c r="H168" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I168">
         <v>89.43</v>
@@ -5575,23 +5483,23 @@
         <v>28</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H169" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I169">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J169" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C170" t="s">
@@ -5607,13 +5515,10 @@
         <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I170">
-        <v>89.43</v>
-      </c>
-      <c r="J170" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5633,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -5662,23 +5567,23 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I172">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J172" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C173" t="s">
@@ -5691,16 +5596,13 @@
         <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H173" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I173">
-        <v>89.43</v>
-      </c>
-      <c r="J173" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5720,10 +5622,10 @@
         <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I174">
         <v>89.43</v>
@@ -5749,10 +5651,10 @@
         <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I175">
         <v>89.43</v>
@@ -5778,10 +5680,10 @@
         <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H176" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I176">
         <v>89.43</v>
@@ -5810,7 +5712,7 @@
         <v>18</v>
       </c>
       <c r="H177" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I177">
         <v>89.43</v>
@@ -5836,10 +5738,10 @@
         <v>17</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H178" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I178">
         <v>89.43</v>
@@ -5865,10 +5767,10 @@
         <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I179">
         <v>89.43</v>
@@ -5894,23 +5796,23 @@
         <v>17</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H180" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I180">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J180" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C181" t="s">
@@ -5923,16 +5825,13 @@
         <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I181">
-        <v>89.43</v>
-      </c>
-      <c r="J181" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -5955,7 +5854,7 @@
         <v>29</v>
       </c>
       <c r="H182" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I182">
         <v>89.43</v>
@@ -5984,7 +5883,7 @@
         <v>29</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I183">
         <v>89.43</v>
@@ -6013,20 +5912,20 @@
         <v>29</v>
       </c>
       <c r="H184" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I184">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J184" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C185" t="s">
@@ -6042,13 +5941,10 @@
         <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I185">
-        <v>89.43</v>
-      </c>
-      <c r="J185" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6068,7 +5964,7 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
@@ -6097,23 +5993,23 @@
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H187" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I187">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J187" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C188" t="s">
@@ -6126,16 +6022,13 @@
         <v>17</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H188" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I188">
-        <v>89.43</v>
-      </c>
-      <c r="J188" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6155,10 +6048,10 @@
         <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I189">
         <v>89.43</v>
@@ -6184,10 +6077,10 @@
         <v>17</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I190">
         <v>89.43</v>
@@ -6213,10 +6106,10 @@
         <v>17</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H191" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I191">
         <v>89.43</v>
@@ -6242,7 +6135,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H192" t="s">
         <v>31</v>
@@ -6271,10 +6164,10 @@
         <v>17</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H193" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I193">
         <v>89.43</v>
@@ -6300,10 +6193,10 @@
         <v>17</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H194" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I194">
         <v>89.43</v>
@@ -6329,10 +6222,10 @@
         <v>17</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I195">
         <v>89.43</v>
@@ -6358,23 +6251,23 @@
         <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H196" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I196">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J196" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C197" t="s">
@@ -6387,16 +6280,13 @@
         <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I197">
-        <v>89.43</v>
-      </c>
-      <c r="J197" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6419,7 +6309,7 @@
         <v>29</v>
       </c>
       <c r="H198" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I198">
         <v>89.43</v>
@@ -6477,7 +6367,7 @@
         <v>29</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I200">
         <v>89.43</v>
@@ -6506,20 +6396,20 @@
         <v>29</v>
       </c>
       <c r="H201" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I201">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J201" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C202" t="s">
@@ -6535,13 +6425,10 @@
         <v>12</v>
       </c>
       <c r="H202" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I202">
-        <v>89.43</v>
-      </c>
-      <c r="J202" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6561,7 +6448,7 @@
         <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H203" t="s">
         <v>14</v>
@@ -6590,23 +6477,23 @@
         <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H204" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I204">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J204" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C205" t="s">
@@ -6619,16 +6506,13 @@
         <v>17</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H205" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I205">
-        <v>89.43</v>
-      </c>
-      <c r="J205" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6648,10 +6532,10 @@
         <v>17</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I206">
         <v>89.43</v>
@@ -6677,10 +6561,10 @@
         <v>17</v>
       </c>
       <c r="F207" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I207">
         <v>89.43</v>
@@ -6706,10 +6590,10 @@
         <v>17</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H208" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I208">
         <v>89.43</v>
@@ -6735,7 +6619,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H209" t="s">
         <v>31</v>
@@ -6764,10 +6648,10 @@
         <v>17</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H210" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I210">
         <v>89.43</v>
@@ -6793,10 +6677,10 @@
         <v>17</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H211" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I211">
         <v>89.43</v>
@@ -6822,10 +6706,10 @@
         <v>17</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I212">
         <v>89.43</v>
@@ -6851,23 +6735,23 @@
         <v>17</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H213" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I213">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J213" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C214" t="s">
@@ -6880,16 +6764,13 @@
         <v>28</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I214">
-        <v>89.43</v>
-      </c>
-      <c r="J214" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -6912,7 +6793,7 @@
         <v>29</v>
       </c>
       <c r="H215" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I215">
         <v>89.43</v>
@@ -6970,7 +6851,7 @@
         <v>29</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I217">
         <v>89.43</v>
@@ -6999,20 +6880,20 @@
         <v>29</v>
       </c>
       <c r="H218" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I218">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J218" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C219" t="s">
@@ -7028,13 +6909,10 @@
         <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I219">
-        <v>89.43</v>
-      </c>
-      <c r="J219" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7054,7 +6932,7 @@
         <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -7083,23 +6961,23 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H221" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I221">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J221" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C222" t="s">
@@ -7112,16 +6990,13 @@
         <v>17</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H222" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I222">
-        <v>89.43</v>
-      </c>
-      <c r="J222" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7141,10 +7016,10 @@
         <v>17</v>
       </c>
       <c r="F223" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I223">
         <v>89.43</v>
@@ -7170,10 +7045,10 @@
         <v>17</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H224" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I224">
         <v>89.43</v>
@@ -7199,10 +7074,10 @@
         <v>17</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H225" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I225">
         <v>89.43</v>
@@ -7231,7 +7106,7 @@
         <v>24</v>
       </c>
       <c r="H226" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I226">
         <v>89.43</v>
@@ -7257,10 +7132,10 @@
         <v>17</v>
       </c>
       <c r="F227" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H227" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I227">
         <v>89.43</v>
@@ -7286,10 +7161,10 @@
         <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H228" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I228">
         <v>89.43</v>
@@ -7315,23 +7190,23 @@
         <v>17</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H229" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I229">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J229" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C230" t="s">
@@ -7344,16 +7219,13 @@
         <v>28</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I230">
-        <v>89.43</v>
-      </c>
-      <c r="J230" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7376,7 +7248,7 @@
         <v>29</v>
       </c>
       <c r="H231" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I231">
         <v>89.43</v>
@@ -7434,7 +7306,7 @@
         <v>29</v>
       </c>
       <c r="H233" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I233">
         <v>89.43</v>
@@ -7463,20 +7335,20 @@
         <v>29</v>
       </c>
       <c r="H234" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I234">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J234" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C235" t="s">
@@ -7492,13 +7364,10 @@
         <v>12</v>
       </c>
       <c r="H235" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I235">
-        <v>89.43</v>
-      </c>
-      <c r="J235" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7518,7 +7387,7 @@
         <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
@@ -7547,23 +7416,23 @@
         <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H237" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I237">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J237" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C238" t="s">
@@ -7579,13 +7448,10 @@
         <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I238">
-        <v>89.43</v>
-      </c>
-      <c r="J238" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7605,10 +7471,10 @@
         <v>17</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I239">
         <v>89.43</v>
@@ -7634,10 +7500,10 @@
         <v>17</v>
       </c>
       <c r="F240" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H240" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I240">
         <v>89.43</v>
@@ -7663,10 +7529,10 @@
         <v>17</v>
       </c>
       <c r="F241" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H241" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I241">
         <v>89.43</v>
@@ -7724,7 +7590,7 @@
         <v>24</v>
       </c>
       <c r="H243" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I243">
         <v>89.43</v>
@@ -7750,10 +7616,10 @@
         <v>17</v>
       </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H244" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I244">
         <v>89.43</v>
@@ -7779,10 +7645,10 @@
         <v>17</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H245" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I245">
         <v>89.43</v>
@@ -7808,23 +7674,23 @@
         <v>17</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H246" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I246">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J246" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C247" t="s">
@@ -7840,13 +7706,10 @@
         <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I247">
-        <v>89.43</v>
-      </c>
-      <c r="J247" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -7866,10 +7729,10 @@
         <v>28</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H248" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I248">
         <v>89.43</v>
@@ -7927,7 +7790,7 @@
         <v>29</v>
       </c>
       <c r="H250" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I250">
         <v>89.43</v>
@@ -7953,23 +7816,23 @@
         <v>28</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H251" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I251">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J251" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C252" t="s">
@@ -7985,13 +7848,10 @@
         <v>12</v>
       </c>
       <c r="H252" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I252">
-        <v>89.43</v>
-      </c>
-      <c r="J252" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8043,20 +7903,20 @@
         <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I254">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J254" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C255" t="s">
@@ -8069,16 +7929,13 @@
         <v>17</v>
       </c>
       <c r="F255" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H255" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I255">
-        <v>89.43</v>
-      </c>
-      <c r="J255" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8098,10 +7955,10 @@
         <v>17</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I256">
         <v>89.43</v>
@@ -8127,10 +7984,10 @@
         <v>17</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H257" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I257">
         <v>89.43</v>
@@ -8159,7 +8016,7 @@
         <v>24</v>
       </c>
       <c r="H258" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I258">
         <v>89.43</v>
@@ -8188,7 +8045,7 @@
         <v>24</v>
       </c>
       <c r="H259" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I259">
         <v>89.43</v>
@@ -8217,7 +8074,7 @@
         <v>24</v>
       </c>
       <c r="H260" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I260">
         <v>89.43</v>
@@ -8243,10 +8100,10 @@
         <v>17</v>
       </c>
       <c r="F261" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H261" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I261">
         <v>89.43</v>
@@ -8272,23 +8129,23 @@
         <v>17</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H262" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I262">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J262" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C263" t="s">
@@ -8301,16 +8158,13 @@
         <v>28</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H263" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I263">
-        <v>89.43</v>
-      </c>
-      <c r="J263" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8333,7 +8187,7 @@
         <v>29</v>
       </c>
       <c r="H264" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I264">
         <v>89.43</v>
@@ -8362,7 +8216,7 @@
         <v>29</v>
       </c>
       <c r="H265" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I265">
         <v>89.43</v>
@@ -8391,20 +8245,20 @@
         <v>29</v>
       </c>
       <c r="H266" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I266">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J266" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C267" t="s">
@@ -8417,16 +8271,13 @@
         <v>11</v>
       </c>
       <c r="F267" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I267">
-        <v>89.43</v>
-      </c>
-      <c r="J267" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -8449,20 +8300,20 @@
         <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I268">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J268" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C269" t="s">
@@ -8478,13 +8329,10 @@
         <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I269">
-        <v>89.43</v>
-      </c>
-      <c r="J269" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -8504,10 +8352,10 @@
         <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H270" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I270">
         <v>89.43</v>
@@ -8533,10 +8381,10 @@
         <v>17</v>
       </c>
       <c r="F271" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H271" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I271">
         <v>89.43</v>
@@ -8562,7 +8410,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H272" t="s">
         <v>31</v>
@@ -8591,10 +8439,10 @@
         <v>17</v>
       </c>
       <c r="F273" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H273" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I273">
         <v>89.43</v>
@@ -8620,10 +8468,10 @@
         <v>17</v>
       </c>
       <c r="F274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I274">
         <v>89.43</v>
@@ -8649,23 +8497,23 @@
         <v>17</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H275" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I275">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J275" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C276" t="s">
@@ -8681,13 +8529,10 @@
         <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I276">
-        <v>89.43</v>
-      </c>
-      <c r="J276" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8739,20 +8584,20 @@
         <v>29</v>
       </c>
       <c r="H278" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I278">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J278" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C279" t="s">
@@ -8768,13 +8613,10 @@
         <v>12</v>
       </c>
       <c r="H279" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I279">
-        <v>89.43</v>
-      </c>
-      <c r="J279" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -8794,7 +8636,7 @@
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H280" t="s">
         <v>14</v>
@@ -8823,23 +8665,23 @@
         <v>11</v>
       </c>
       <c r="F281" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I281">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J281" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C282" t="s">
@@ -8855,13 +8697,10 @@
         <v>12</v>
       </c>
       <c r="H282" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I282">
-        <v>89.43</v>
-      </c>
-      <c r="J282" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -8881,10 +8720,10 @@
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H283" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I283">
         <v>89.43</v>
@@ -8910,10 +8749,10 @@
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H284" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I284">
         <v>89.43</v>
@@ -8939,10 +8778,10 @@
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H285" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I285">
         <v>89.43</v>
@@ -8968,10 +8807,10 @@
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H286" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I286">
         <v>89.43</v>
@@ -9000,7 +8839,7 @@
         <v>24</v>
       </c>
       <c r="H287" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I287">
         <v>89.43</v>
@@ -9026,10 +8865,10 @@
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H288" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I288">
         <v>89.43</v>
@@ -9055,10 +8894,10 @@
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I289">
         <v>89.43</v>
@@ -9084,10 +8923,10 @@
         <v>17</v>
       </c>
       <c r="F290" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H290" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I290">
         <v>89.43</v>
@@ -9113,23 +8952,23 @@
         <v>17</v>
       </c>
       <c r="F291" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H291" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I291">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J291" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C292" t="s">
@@ -9145,13 +8984,10 @@
         <v>12</v>
       </c>
       <c r="H292" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I292">
-        <v>89.43</v>
-      </c>
-      <c r="J292" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9171,10 +9007,10 @@
         <v>28</v>
       </c>
       <c r="F293" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H293" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I293">
         <v>89.43</v>
@@ -9232,7 +9068,7 @@
         <v>29</v>
       </c>
       <c r="H295" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I295">
         <v>89.43</v>
@@ -9258,23 +9094,23 @@
         <v>28</v>
       </c>
       <c r="F296" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H296" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I296">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J296" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C297" t="s">
@@ -9290,13 +9126,10 @@
         <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I297">
-        <v>89.43</v>
-      </c>
-      <c r="J297" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -9316,7 +9149,7 @@
         <v>11</v>
       </c>
       <c r="F298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H298" t="s">
         <v>14</v>
@@ -9345,23 +9178,23 @@
         <v>11</v>
       </c>
       <c r="F299" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H299" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I299">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J299" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C300" t="s">
@@ -9377,13 +9210,10 @@
         <v>12</v>
       </c>
       <c r="H300" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I300">
-        <v>89.43</v>
-      </c>
-      <c r="J300" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -9403,10 +9233,10 @@
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H301" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I301">
         <v>89.43</v>
@@ -9432,10 +9262,10 @@
         <v>17</v>
       </c>
       <c r="F302" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H302" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I302">
         <v>89.43</v>
@@ -9461,10 +9291,10 @@
         <v>17</v>
       </c>
       <c r="F303" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H303" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I303">
         <v>89.43</v>
@@ -9522,7 +9352,7 @@
         <v>24</v>
       </c>
       <c r="H305" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I305">
         <v>89.43</v>
@@ -9548,10 +9378,10 @@
         <v>17</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H306" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I306">
         <v>89.43</v>
@@ -9577,10 +9407,10 @@
         <v>17</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H307" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I307">
         <v>89.43</v>
@@ -9606,23 +9436,23 @@
         <v>17</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H308" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I308">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J308" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C309" t="s">
@@ -9638,13 +9468,10 @@
         <v>12</v>
       </c>
       <c r="H309" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I309">
-        <v>89.43</v>
-      </c>
-      <c r="J309" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -9664,10 +9491,10 @@
         <v>28</v>
       </c>
       <c r="F310" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H310" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I310">
         <v>89.43</v>
@@ -9725,7 +9552,7 @@
         <v>29</v>
       </c>
       <c r="H312" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I312">
         <v>89.43</v>
@@ -9751,23 +9578,23 @@
         <v>28</v>
       </c>
       <c r="F313" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H313" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I313">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J313" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C314" t="s">
@@ -9783,13 +9610,10 @@
         <v>12</v>
       </c>
       <c r="H314" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I314">
-        <v>89.43</v>
-      </c>
-      <c r="J314" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -9809,7 +9633,7 @@
         <v>11</v>
       </c>
       <c r="F315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H315" t="s">
         <v>14</v>
@@ -9838,23 +9662,23 @@
         <v>11</v>
       </c>
       <c r="F316" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H316" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I316">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J316" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C317" t="s">
@@ -9870,13 +9694,10 @@
         <v>12</v>
       </c>
       <c r="H317" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I317">
-        <v>89.43</v>
-      </c>
-      <c r="J317" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -9896,10 +9717,10 @@
         <v>17</v>
       </c>
       <c r="F318" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H318" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I318">
         <v>89.43</v>
@@ -9925,10 +9746,10 @@
         <v>17</v>
       </c>
       <c r="F319" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H319" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I319">
         <v>89.43</v>
@@ -9954,10 +9775,10 @@
         <v>17</v>
       </c>
       <c r="F320" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H320" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I320">
         <v>89.43</v>
@@ -9983,10 +9804,10 @@
         <v>17</v>
       </c>
       <c r="F321" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H321" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I321">
         <v>89.43</v>
@@ -10015,7 +9836,7 @@
         <v>24</v>
       </c>
       <c r="H322" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I322">
         <v>89.43</v>
@@ -10041,10 +9862,10 @@
         <v>17</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H323" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I323">
         <v>89.43</v>
@@ -10070,10 +9891,10 @@
         <v>17</v>
       </c>
       <c r="F324" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I324">
         <v>89.43</v>
@@ -10099,10 +9920,10 @@
         <v>17</v>
       </c>
       <c r="F325" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I325">
         <v>89.43</v>
@@ -10128,23 +9949,23 @@
         <v>17</v>
       </c>
       <c r="F326" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H326" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I326">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J326" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C327" t="s">
@@ -10160,13 +9981,10 @@
         <v>12</v>
       </c>
       <c r="H327" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I327">
-        <v>89.43</v>
-      </c>
-      <c r="J327" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -10186,10 +10004,10 @@
         <v>28</v>
       </c>
       <c r="F328" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H328" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I328">
         <v>89.43</v>
@@ -10247,7 +10065,7 @@
         <v>29</v>
       </c>
       <c r="H330" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I330">
         <v>89.43</v>
@@ -10273,23 +10091,23 @@
         <v>28</v>
       </c>
       <c r="F331" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H331" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I331">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J331" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C332" t="s">
@@ -10305,13 +10123,10 @@
         <v>12</v>
       </c>
       <c r="H332" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I332">
-        <v>89.43</v>
-      </c>
-      <c r="J332" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -10363,20 +10178,20 @@
         <v>15</v>
       </c>
       <c r="H334" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I334">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J334" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C335" t="s">
@@ -10392,13 +10207,10 @@
         <v>12</v>
       </c>
       <c r="H335" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I335">
-        <v>89.43</v>
-      </c>
-      <c r="J335" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -10418,10 +10230,10 @@
         <v>17</v>
       </c>
       <c r="F336" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H336" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I336">
         <v>89.43</v>
@@ -10450,7 +10262,7 @@
         <v>18</v>
       </c>
       <c r="H337" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I337">
         <v>89.43</v>
@@ -10476,10 +10288,10 @@
         <v>17</v>
       </c>
       <c r="F338" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H338" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I338">
         <v>89.43</v>
@@ -10505,7 +10317,7 @@
         <v>17</v>
       </c>
       <c r="F339" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H339" t="s">
         <v>21</v>
@@ -10534,10 +10346,10 @@
         <v>17</v>
       </c>
       <c r="F340" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H340" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I340">
         <v>89.43</v>
@@ -10563,10 +10375,10 @@
         <v>17</v>
       </c>
       <c r="F341" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H341" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I341">
         <v>89.43</v>
@@ -10595,7 +10407,7 @@
         <v>18</v>
       </c>
       <c r="H342" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I342">
         <v>89.43</v>
@@ -10621,23 +10433,23 @@
         <v>17</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H343" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I343">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J343" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C344" t="s">
@@ -10653,13 +10465,10 @@
         <v>12</v>
       </c>
       <c r="H344" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I344">
-        <v>89.43</v>
-      </c>
-      <c r="J344" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -10682,7 +10491,7 @@
         <v>29</v>
       </c>
       <c r="H345" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I345">
         <v>89.43</v>
@@ -10711,7 +10520,7 @@
         <v>29</v>
       </c>
       <c r="H346" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I346">
         <v>89.43</v>
@@ -10740,20 +10549,20 @@
         <v>29</v>
       </c>
       <c r="H347" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I347">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J347" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C348" t="s">
@@ -10769,13 +10578,10 @@
         <v>12</v>
       </c>
       <c r="H348" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I348">
-        <v>89.43</v>
-      </c>
-      <c r="J348" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -10798,20 +10604,20 @@
         <v>15</v>
       </c>
       <c r="H349" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I349">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J349" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C350" t="s">
@@ -10827,13 +10633,10 @@
         <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I350">
-        <v>89.43</v>
-      </c>
-      <c r="J350" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -10853,10 +10656,10 @@
         <v>17</v>
       </c>
       <c r="F351" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H351" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I351">
         <v>89.43</v>
@@ -10885,7 +10688,7 @@
         <v>18</v>
       </c>
       <c r="H352" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I352">
         <v>89.43</v>
@@ -10911,10 +10714,10 @@
         <v>17</v>
       </c>
       <c r="F353" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H353" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I353">
         <v>89.43</v>
@@ -10940,7 +10743,7 @@
         <v>17</v>
       </c>
       <c r="F354" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H354" t="s">
         <v>21</v>
@@ -10969,10 +10772,10 @@
         <v>17</v>
       </c>
       <c r="F355" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H355" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I355">
         <v>89.43</v>
@@ -10998,10 +10801,10 @@
         <v>17</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H356" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I356">
         <v>89.43</v>
@@ -11030,7 +10833,7 @@
         <v>18</v>
       </c>
       <c r="H357" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I357">
         <v>89.43</v>
@@ -11056,23 +10859,23 @@
         <v>17</v>
       </c>
       <c r="F358" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H358" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I358">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J358" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C359" t="s">
@@ -11088,13 +10891,10 @@
         <v>12</v>
       </c>
       <c r="H359" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I359">
-        <v>89.43</v>
-      </c>
-      <c r="J359" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -11117,7 +10917,7 @@
         <v>29</v>
       </c>
       <c r="H360" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I360">
         <v>89.43</v>
@@ -11175,7 +10975,7 @@
         <v>29</v>
       </c>
       <c r="H362" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I362">
         <v>89.43</v>
@@ -11204,20 +11004,20 @@
         <v>29</v>
       </c>
       <c r="H363" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I363">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J363" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C364" t="s">
@@ -11233,13 +11033,10 @@
         <v>12</v>
       </c>
       <c r="H364" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I364">
-        <v>89.43</v>
-      </c>
-      <c r="J364" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -11259,7 +11056,7 @@
         <v>11</v>
       </c>
       <c r="F365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H365" t="s">
         <v>14</v>
@@ -11288,23 +11085,23 @@
         <v>11</v>
       </c>
       <c r="F366" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H366" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I366">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J366" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C367" t="s">
@@ -11320,13 +11117,10 @@
         <v>12</v>
       </c>
       <c r="H367" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I367">
-        <v>89.43</v>
-      </c>
-      <c r="J367" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -11346,10 +11140,10 @@
         <v>17</v>
       </c>
       <c r="F368" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H368" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I368">
         <v>89.43</v>
@@ -11375,10 +11169,10 @@
         <v>17</v>
       </c>
       <c r="F369" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H369" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I369">
         <v>89.43</v>
@@ -11404,10 +11198,10 @@
         <v>17</v>
       </c>
       <c r="F370" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I370">
         <v>89.43</v>
@@ -11433,7 +11227,7 @@
         <v>17</v>
       </c>
       <c r="F371" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H371" t="s">
         <v>23</v>
@@ -11462,10 +11256,10 @@
         <v>17</v>
       </c>
       <c r="F372" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H372" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I372">
         <v>89.43</v>
@@ -11491,10 +11285,10 @@
         <v>17</v>
       </c>
       <c r="F373" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H373" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I373">
         <v>89.43</v>
@@ -11520,10 +11314,10 @@
         <v>17</v>
       </c>
       <c r="F374" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H374" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I374">
         <v>89.43</v>
@@ -11549,23 +11343,23 @@
         <v>17</v>
       </c>
       <c r="F375" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H375" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I375">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J375" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C376" t="s">
@@ -11581,13 +11375,10 @@
         <v>12</v>
       </c>
       <c r="H376" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I376">
-        <v>89.43</v>
-      </c>
-      <c r="J376" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -11607,10 +11398,10 @@
         <v>28</v>
       </c>
       <c r="F377" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H377" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I377">
         <v>89.43</v>
@@ -11668,7 +11459,7 @@
         <v>29</v>
       </c>
       <c r="H379" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I379">
         <v>89.43</v>
@@ -11694,23 +11485,23 @@
         <v>28</v>
       </c>
       <c r="F380" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H380" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I380">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J380" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C381" t="s">
@@ -11726,13 +11517,10 @@
         <v>12</v>
       </c>
       <c r="H381" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I381">
-        <v>89.43</v>
-      </c>
-      <c r="J381" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -11784,20 +11572,20 @@
         <v>15</v>
       </c>
       <c r="H383" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I383">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J383" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C384" t="s">
@@ -11813,13 +11601,10 @@
         <v>12</v>
       </c>
       <c r="H384" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I384">
-        <v>89.43</v>
-      </c>
-      <c r="J384" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -11839,10 +11624,10 @@
         <v>17</v>
       </c>
       <c r="F385" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H385" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I385">
         <v>89.43</v>
@@ -11871,7 +11656,7 @@
         <v>18</v>
       </c>
       <c r="H386" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I386">
         <v>89.43</v>
@@ -11897,10 +11682,10 @@
         <v>17</v>
       </c>
       <c r="F387" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H387" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I387">
         <v>89.43</v>
@@ -11926,7 +11711,7 @@
         <v>17</v>
       </c>
       <c r="F388" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H388" t="s">
         <v>21</v>
@@ -11955,10 +11740,10 @@
         <v>17</v>
       </c>
       <c r="F389" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H389" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I389">
         <v>89.43</v>
@@ -11984,10 +11769,10 @@
         <v>17</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H390" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I390">
         <v>89.43</v>
@@ -12016,7 +11801,7 @@
         <v>18</v>
       </c>
       <c r="H391" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I391">
         <v>89.43</v>
@@ -12042,23 +11827,23 @@
         <v>17</v>
       </c>
       <c r="F392" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H392" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I392">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J392" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C393" t="s">
@@ -12074,13 +11859,10 @@
         <v>12</v>
       </c>
       <c r="H393" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I393">
-        <v>89.43</v>
-      </c>
-      <c r="J393" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -12103,7 +11885,7 @@
         <v>29</v>
       </c>
       <c r="H394" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I394">
         <v>89.43</v>
@@ -12132,7 +11914,7 @@
         <v>29</v>
       </c>
       <c r="H395" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I395">
         <v>89.43</v>
@@ -12161,20 +11943,20 @@
         <v>29</v>
       </c>
       <c r="H396" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I396">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J396" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C397" t="s">
@@ -12190,13 +11972,10 @@
         <v>12</v>
       </c>
       <c r="H397" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I397">
-        <v>89.43</v>
-      </c>
-      <c r="J397" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -12219,20 +11998,20 @@
         <v>15</v>
       </c>
       <c r="H398" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I398">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J398" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C399" t="s">
@@ -12248,13 +12027,10 @@
         <v>12</v>
       </c>
       <c r="H399" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I399">
-        <v>89.43</v>
-      </c>
-      <c r="J399" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -12274,10 +12050,10 @@
         <v>17</v>
       </c>
       <c r="F400" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H400" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I400">
         <v>89.43</v>
@@ -12306,7 +12082,7 @@
         <v>18</v>
       </c>
       <c r="H401" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I401">
         <v>89.43</v>
@@ -12332,10 +12108,10 @@
         <v>17</v>
       </c>
       <c r="F402" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H402" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I402">
         <v>89.43</v>
@@ -12361,7 +12137,7 @@
         <v>17</v>
       </c>
       <c r="F403" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H403" t="s">
         <v>21</v>
@@ -12390,10 +12166,10 @@
         <v>17</v>
       </c>
       <c r="F404" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H404" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I404">
         <v>89.43</v>
@@ -12419,10 +12195,10 @@
         <v>17</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H405" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I405">
         <v>89.43</v>
@@ -12451,7 +12227,7 @@
         <v>18</v>
       </c>
       <c r="H406" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I406">
         <v>89.43</v>
@@ -12477,23 +12253,23 @@
         <v>17</v>
       </c>
       <c r="F407" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H407" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I407">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J407" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C408" t="s">
@@ -12509,13 +12285,10 @@
         <v>12</v>
       </c>
       <c r="H408" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I408">
-        <v>89.43</v>
-      </c>
-      <c r="J408" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -12538,7 +12311,7 @@
         <v>29</v>
       </c>
       <c r="H409" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I409">
         <v>89.43</v>
@@ -12596,7 +12369,7 @@
         <v>29</v>
       </c>
       <c r="H411" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I411">
         <v>89.43</v>
@@ -12625,20 +12398,20 @@
         <v>29</v>
       </c>
       <c r="H412" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I412">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J412" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C413" t="s">
@@ -12654,13 +12427,10 @@
         <v>12</v>
       </c>
       <c r="H413" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I413">
-        <v>89.43</v>
-      </c>
-      <c r="J413" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -12712,20 +12482,20 @@
         <v>15</v>
       </c>
       <c r="H415" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I415">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J415" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C416" t="s">
@@ -12741,13 +12511,10 @@
         <v>12</v>
       </c>
       <c r="H416" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I416">
-        <v>89.43</v>
-      </c>
-      <c r="J416" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -12767,10 +12534,10 @@
         <v>17</v>
       </c>
       <c r="F417" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H417" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I417">
         <v>89.43</v>
@@ -12796,10 +12563,10 @@
         <v>17</v>
       </c>
       <c r="F418" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H418" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I418">
         <v>89.43</v>
@@ -12825,10 +12592,10 @@
         <v>17</v>
       </c>
       <c r="F419" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H419" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I419">
         <v>89.43</v>
@@ -12886,7 +12653,7 @@
         <v>33</v>
       </c>
       <c r="H421" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I421">
         <v>89.43</v>
@@ -12912,10 +12679,10 @@
         <v>17</v>
       </c>
       <c r="F422" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H422" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I422">
         <v>89.43</v>
@@ -12941,10 +12708,10 @@
         <v>17</v>
       </c>
       <c r="F423" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H423" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I423">
         <v>89.43</v>
@@ -12970,23 +12737,23 @@
         <v>17</v>
       </c>
       <c r="F424" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H424" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I424">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J424" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C425" t="s">
@@ -13002,13 +12769,10 @@
         <v>12</v>
       </c>
       <c r="H425" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I425">
-        <v>89.43</v>
-      </c>
-      <c r="J425" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -13031,7 +12795,7 @@
         <v>29</v>
       </c>
       <c r="H426" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I426">
         <v>89.43</v>
@@ -13060,7 +12824,7 @@
         <v>29</v>
       </c>
       <c r="H427" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I427">
         <v>89.43</v>
@@ -13089,7 +12853,7 @@
         <v>29</v>
       </c>
       <c r="H428" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I428">
         <v>89.43</v>
@@ -13118,7 +12882,7 @@
         <v>29</v>
       </c>
       <c r="H429" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I429">
         <v>89.43</v>
@@ -13147,20 +12911,20 @@
         <v>29</v>
       </c>
       <c r="H430" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I430">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J430" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C431" t="s">
@@ -13176,13 +12940,10 @@
         <v>12</v>
       </c>
       <c r="H431" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I431">
-        <v>89.43</v>
-      </c>
-      <c r="J431" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -13234,20 +12995,20 @@
         <v>15</v>
       </c>
       <c r="H433" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I433">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J433" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C434" t="s">
@@ -13263,13 +13024,10 @@
         <v>12</v>
       </c>
       <c r="H434" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I434">
-        <v>89.43</v>
-      </c>
-      <c r="J434" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -13289,10 +13047,10 @@
         <v>17</v>
       </c>
       <c r="F435" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H435" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I435">
         <v>89.43</v>
@@ -13318,10 +13076,10 @@
         <v>17</v>
       </c>
       <c r="F436" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H436" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I436">
         <v>89.43</v>
@@ -13347,10 +13105,10 @@
         <v>17</v>
       </c>
       <c r="F437" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H437" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I437">
         <v>89.43</v>
@@ -13408,7 +13166,7 @@
         <v>33</v>
       </c>
       <c r="H439" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I439">
         <v>89.43</v>
@@ -13434,10 +13192,10 @@
         <v>17</v>
       </c>
       <c r="F440" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H440" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I440">
         <v>89.43</v>
@@ -13463,10 +13221,10 @@
         <v>17</v>
       </c>
       <c r="F441" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H441" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I441">
         <v>89.43</v>
@@ -13492,23 +13250,23 @@
         <v>17</v>
       </c>
       <c r="F442" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H442" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I442">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J442" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C443" t="s">
@@ -13524,13 +13282,10 @@
         <v>12</v>
       </c>
       <c r="H443" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I443">
-        <v>89.43</v>
-      </c>
-      <c r="J443" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -13553,7 +13308,7 @@
         <v>29</v>
       </c>
       <c r="H444" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I444">
         <v>89.43</v>
@@ -13611,7 +13366,7 @@
         <v>29</v>
       </c>
       <c r="H446" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I446">
         <v>89.43</v>
@@ -13640,20 +13395,20 @@
         <v>29</v>
       </c>
       <c r="H447" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I447">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J447" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C448" t="s">
@@ -13666,16 +13421,13 @@
         <v>11</v>
       </c>
       <c r="F448" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H448" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I448">
-        <v>89.43</v>
-      </c>
-      <c r="J448" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -13698,20 +13450,20 @@
         <v>15</v>
       </c>
       <c r="H449" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I449">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J449" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C450" t="s">
@@ -13724,16 +13476,13 @@
         <v>17</v>
       </c>
       <c r="F450" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H450" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I450">
-        <v>89.43</v>
-      </c>
-      <c r="J450" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -13753,10 +13502,10 @@
         <v>17</v>
       </c>
       <c r="F451" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H451" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I451">
         <v>89.43</v>
@@ -13785,7 +13534,7 @@
         <v>18</v>
       </c>
       <c r="H452" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I452">
         <v>89.43</v>
@@ -13811,10 +13560,10 @@
         <v>17</v>
       </c>
       <c r="F453" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H453" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I453">
         <v>89.43</v>
@@ -13872,7 +13621,7 @@
         <v>33</v>
       </c>
       <c r="H455" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I455">
         <v>89.43</v>
@@ -13898,10 +13647,10 @@
         <v>17</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H456" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I456">
         <v>89.43</v>
@@ -13930,7 +13679,7 @@
         <v>18</v>
       </c>
       <c r="H457" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I457">
         <v>89.43</v>
@@ -13956,23 +13705,23 @@
         <v>17</v>
       </c>
       <c r="F458" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H458" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I458">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J458" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C459" t="s">
@@ -13985,16 +13734,13 @@
         <v>28</v>
       </c>
       <c r="F459" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H459" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I459">
-        <v>89.43</v>
-      </c>
-      <c r="J459" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -14017,7 +13763,7 @@
         <v>29</v>
       </c>
       <c r="H460" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I460">
         <v>89.43</v>
@@ -14046,7 +13792,7 @@
         <v>29</v>
       </c>
       <c r="H461" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I461">
         <v>89.43</v>
@@ -14075,20 +13821,20 @@
         <v>29</v>
       </c>
       <c r="H462" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I462">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J462" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C463" t="s">
@@ -14101,16 +13847,13 @@
         <v>11</v>
       </c>
       <c r="F463" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H463" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I463">
-        <v>89.43</v>
-      </c>
-      <c r="J463" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -14162,20 +13905,20 @@
         <v>15</v>
       </c>
       <c r="H465" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I465">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J465" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C466" t="s">
@@ -14191,13 +13934,10 @@
         <v>12</v>
       </c>
       <c r="H466" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I466">
-        <v>89.43</v>
-      </c>
-      <c r="J466" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -14217,10 +13957,10 @@
         <v>17</v>
       </c>
       <c r="F467" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H467" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I467">
         <v>89.43</v>
@@ -14246,10 +13986,10 @@
         <v>17</v>
       </c>
       <c r="F468" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H468" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I468">
         <v>89.43</v>
@@ -14275,10 +14015,10 @@
         <v>17</v>
       </c>
       <c r="F469" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H469" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I469">
         <v>89.43</v>
@@ -14336,7 +14076,7 @@
         <v>33</v>
       </c>
       <c r="H471" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I471">
         <v>89.43</v>
@@ -14362,10 +14102,10 @@
         <v>17</v>
       </c>
       <c r="F472" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H472" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I472">
         <v>89.43</v>
@@ -14391,10 +14131,10 @@
         <v>17</v>
       </c>
       <c r="F473" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H473" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I473">
         <v>89.43</v>
@@ -14420,23 +14160,23 @@
         <v>17</v>
       </c>
       <c r="F474" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H474" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I474">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J474" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C475" t="s">
@@ -14452,13 +14192,10 @@
         <v>12</v>
       </c>
       <c r="H475" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I475">
-        <v>89.43</v>
-      </c>
-      <c r="J475" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -14481,7 +14218,7 @@
         <v>29</v>
       </c>
       <c r="H476" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I476">
         <v>89.43</v>
@@ -14510,7 +14247,7 @@
         <v>29</v>
       </c>
       <c r="H477" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I477">
         <v>89.43</v>
@@ -14539,7 +14276,7 @@
         <v>29</v>
       </c>
       <c r="H478" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I478">
         <v>89.43</v>
@@ -14568,7 +14305,7 @@
         <v>29</v>
       </c>
       <c r="H479" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I479">
         <v>89.43</v>
@@ -14597,20 +14334,20 @@
         <v>29</v>
       </c>
       <c r="H480" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I480">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J480" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C481" t="s">
@@ -14626,13 +14363,10 @@
         <v>12</v>
       </c>
       <c r="H481" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I481">
-        <v>89.43</v>
-      </c>
-      <c r="J481" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -14652,7 +14386,7 @@
         <v>11</v>
       </c>
       <c r="F482" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H482" t="s">
         <v>14</v>
@@ -14681,23 +14415,23 @@
         <v>11</v>
       </c>
       <c r="F483" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H483" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I483">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J483" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C484" t="s">
@@ -14713,13 +14447,10 @@
         <v>12</v>
       </c>
       <c r="H484" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I484">
-        <v>89.43</v>
-      </c>
-      <c r="J484" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -14739,10 +14470,10 @@
         <v>17</v>
       </c>
       <c r="F485" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H485" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I485">
         <v>89.43</v>
@@ -14768,10 +14499,10 @@
         <v>17</v>
       </c>
       <c r="F486" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H486" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I486">
         <v>89.43</v>
@@ -14797,10 +14528,10 @@
         <v>17</v>
       </c>
       <c r="F487" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H487" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I487">
         <v>89.43</v>
@@ -14826,7 +14557,7 @@
         <v>17</v>
       </c>
       <c r="F488" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H488" t="s">
         <v>23</v>
@@ -14855,10 +14586,10 @@
         <v>17</v>
       </c>
       <c r="F489" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H489" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I489">
         <v>89.43</v>
@@ -14884,10 +14615,10 @@
         <v>17</v>
       </c>
       <c r="F490" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H490" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I490">
         <v>89.43</v>
@@ -14913,10 +14644,10 @@
         <v>17</v>
       </c>
       <c r="F491" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H491" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I491">
         <v>89.43</v>
@@ -14942,23 +14673,23 @@
         <v>17</v>
       </c>
       <c r="F492" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H492" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I492">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J492" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C493" t="s">
@@ -14974,13 +14705,10 @@
         <v>12</v>
       </c>
       <c r="H493" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I493">
-        <v>89.43</v>
-      </c>
-      <c r="J493" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -15000,10 +14728,10 @@
         <v>28</v>
       </c>
       <c r="F494" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H494" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I494">
         <v>89.43</v>
@@ -15061,7 +14789,7 @@
         <v>29</v>
       </c>
       <c r="H496" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I496">
         <v>89.43</v>
@@ -15087,23 +14815,23 @@
         <v>28</v>
       </c>
       <c r="F497" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H497" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I497">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J497" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C498" t="s">
@@ -15119,13 +14847,10 @@
         <v>12</v>
       </c>
       <c r="H498" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I498">
-        <v>89.43</v>
-      </c>
-      <c r="J498" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -15177,20 +14902,20 @@
         <v>15</v>
       </c>
       <c r="H500" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I500">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J500" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C501" t="s">
@@ -15206,13 +14931,10 @@
         <v>12</v>
       </c>
       <c r="H501" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I501">
-        <v>89.43</v>
-      </c>
-      <c r="J501" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -15232,10 +14954,10 @@
         <v>17</v>
       </c>
       <c r="F502" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H502" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I502">
         <v>89.43</v>
@@ -15261,10 +14983,10 @@
         <v>17</v>
       </c>
       <c r="F503" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H503" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I503">
         <v>89.43</v>
@@ -15290,10 +15012,10 @@
         <v>17</v>
       </c>
       <c r="F504" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H504" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I504">
         <v>89.43</v>
@@ -15351,7 +15073,7 @@
         <v>33</v>
       </c>
       <c r="H506" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I506">
         <v>89.43</v>
@@ -15377,10 +15099,10 @@
         <v>17</v>
       </c>
       <c r="F507" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H507" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I507">
         <v>89.43</v>
@@ -15406,10 +15128,10 @@
         <v>17</v>
       </c>
       <c r="F508" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H508" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I508">
         <v>89.43</v>
@@ -15435,23 +15157,23 @@
         <v>17</v>
       </c>
       <c r="F509" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H509" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I509">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J509" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C510" t="s">
@@ -15467,13 +15189,10 @@
         <v>12</v>
       </c>
       <c r="H510" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I510">
-        <v>89.43</v>
-      </c>
-      <c r="J510" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -15496,7 +15215,7 @@
         <v>29</v>
       </c>
       <c r="H511" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I511">
         <v>89.43</v>
@@ -15554,7 +15273,7 @@
         <v>29</v>
       </c>
       <c r="H513" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I513">
         <v>89.43</v>
@@ -15583,20 +15302,20 @@
         <v>29</v>
       </c>
       <c r="H514" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I514">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J514" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C515" t="s">
@@ -15612,13 +15331,10 @@
         <v>12</v>
       </c>
       <c r="H515" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I515">
-        <v>89.43</v>
-      </c>
-      <c r="J515" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -15670,20 +15386,20 @@
         <v>15</v>
       </c>
       <c r="H517" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I517">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J517" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C518" t="s">
@@ -15699,13 +15415,10 @@
         <v>12</v>
       </c>
       <c r="H518" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I518">
-        <v>89.43</v>
-      </c>
-      <c r="J518" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -15725,10 +15438,10 @@
         <v>17</v>
       </c>
       <c r="F519" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H519" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I519">
         <v>89.43</v>
@@ -15754,10 +15467,10 @@
         <v>17</v>
       </c>
       <c r="F520" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H520" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I520">
         <v>89.43</v>
@@ -15783,10 +15496,10 @@
         <v>17</v>
       </c>
       <c r="F521" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H521" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I521">
         <v>89.43</v>
@@ -15812,7 +15525,7 @@
         <v>17</v>
       </c>
       <c r="F522" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H522" t="s">
         <v>32</v>
@@ -15841,10 +15554,10 @@
         <v>17</v>
       </c>
       <c r="F523" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H523" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I523">
         <v>89.43</v>
@@ -15870,10 +15583,10 @@
         <v>17</v>
       </c>
       <c r="F524" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H524" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I524">
         <v>89.43</v>
@@ -15899,10 +15612,10 @@
         <v>17</v>
       </c>
       <c r="F525" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H525" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I525">
         <v>89.43</v>
@@ -15928,23 +15641,23 @@
         <v>17</v>
       </c>
       <c r="F526" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H526" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I526">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J526" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C527" t="s">
@@ -15960,13 +15673,10 @@
         <v>12</v>
       </c>
       <c r="H527" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I527">
-        <v>89.43</v>
-      </c>
-      <c r="J527" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
@@ -15989,7 +15699,7 @@
         <v>29</v>
       </c>
       <c r="H528" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I528">
         <v>89.43</v>
@@ -16047,7 +15757,7 @@
         <v>29</v>
       </c>
       <c r="H530" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I530">
         <v>89.43</v>
@@ -16076,20 +15786,20 @@
         <v>29</v>
       </c>
       <c r="H531" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I531">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J531" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C532" t="s">
@@ -16105,13 +15815,10 @@
         <v>12</v>
       </c>
       <c r="H532" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I532">
-        <v>89.43</v>
-      </c>
-      <c r="J532" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -16163,20 +15870,20 @@
         <v>15</v>
       </c>
       <c r="H534" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I534">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J534" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C535" t="s">
@@ -16192,13 +15899,10 @@
         <v>12</v>
       </c>
       <c r="H535" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I535">
-        <v>89.43</v>
-      </c>
-      <c r="J535" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -16221,7 +15925,7 @@
         <v>19</v>
       </c>
       <c r="H536" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I536">
         <v>89.43</v>
@@ -16247,10 +15951,10 @@
         <v>17</v>
       </c>
       <c r="F537" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H537" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I537">
         <v>89.43</v>
@@ -16276,10 +15980,10 @@
         <v>17</v>
       </c>
       <c r="F538" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H538" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I538">
         <v>89.43</v>
@@ -16337,7 +16041,7 @@
         <v>33</v>
       </c>
       <c r="H540" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I540">
         <v>89.43</v>
@@ -16363,10 +16067,10 @@
         <v>17</v>
       </c>
       <c r="F541" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H541" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I541">
         <v>89.43</v>
@@ -16392,10 +16096,10 @@
         <v>17</v>
       </c>
       <c r="F542" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H542" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I542">
         <v>89.43</v>
@@ -16424,20 +16128,20 @@
         <v>19</v>
       </c>
       <c r="H543" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I543">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J543" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C544" t="s">
@@ -16453,13 +16157,10 @@
         <v>12</v>
       </c>
       <c r="H544" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I544">
-        <v>89.43</v>
-      </c>
-      <c r="J544" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -16482,7 +16183,7 @@
         <v>29</v>
       </c>
       <c r="H545" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I545">
         <v>89.43</v>
@@ -16540,7 +16241,7 @@
         <v>29</v>
       </c>
       <c r="H547" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I547">
         <v>89.43</v>
@@ -16569,20 +16270,20 @@
         <v>29</v>
       </c>
       <c r="H548" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I548">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J548" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C549" t="s">
@@ -16598,13 +16299,10 @@
         <v>12</v>
       </c>
       <c r="H549" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I549">
-        <v>89.43</v>
-      </c>
-      <c r="J549" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -16656,20 +16354,20 @@
         <v>15</v>
       </c>
       <c r="H551" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I551">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J551" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C552" t="s">
@@ -16685,13 +16383,10 @@
         <v>12</v>
       </c>
       <c r="H552" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I552">
-        <v>89.43</v>
-      </c>
-      <c r="J552" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -16711,10 +16406,10 @@
         <v>17</v>
       </c>
       <c r="F553" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H553" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I553">
         <v>89.43</v>
@@ -16740,10 +16435,10 @@
         <v>17</v>
       </c>
       <c r="F554" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H554" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I554">
         <v>89.43</v>
@@ -16772,7 +16467,7 @@
         <v>18</v>
       </c>
       <c r="H555" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I555">
         <v>89.43</v>
@@ -16830,7 +16525,7 @@
         <v>33</v>
       </c>
       <c r="H557" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I557">
         <v>89.43</v>
@@ -16859,7 +16554,7 @@
         <v>18</v>
       </c>
       <c r="H558" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I558">
         <v>89.43</v>
@@ -16885,10 +16580,10 @@
         <v>17</v>
       </c>
       <c r="F559" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H559" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I559">
         <v>89.43</v>
@@ -16914,23 +16609,23 @@
         <v>17</v>
       </c>
       <c r="F560" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H560" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I560">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J560" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C561" t="s">
@@ -16946,13 +16641,10 @@
         <v>12</v>
       </c>
       <c r="H561" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I561">
-        <v>89.43</v>
-      </c>
-      <c r="J561" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
@@ -16975,7 +16667,7 @@
         <v>29</v>
       </c>
       <c r="H562" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I562">
         <v>89.43</v>
@@ -17033,7 +16725,7 @@
         <v>29</v>
       </c>
       <c r="H564" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I564">
         <v>89.43</v>
@@ -17062,20 +16754,20 @@
         <v>29</v>
       </c>
       <c r="H565" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I565">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J565" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C566" t="s">
@@ -17091,13 +16783,10 @@
         <v>12</v>
       </c>
       <c r="H566" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I566">
-        <v>89.43</v>
-      </c>
-      <c r="J566" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
@@ -17117,7 +16806,7 @@
         <v>11</v>
       </c>
       <c r="F567" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H567" t="s">
         <v>14</v>
@@ -17146,23 +16835,23 @@
         <v>11</v>
       </c>
       <c r="F568" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H568" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I568">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J568" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C569" t="s">
@@ -17178,13 +16867,10 @@
         <v>12</v>
       </c>
       <c r="H569" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I569">
-        <v>89.43</v>
-      </c>
-      <c r="J569" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -17207,7 +16893,7 @@
         <v>18</v>
       </c>
       <c r="H570" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I570">
         <v>89.43</v>
@@ -17233,10 +16919,10 @@
         <v>17</v>
       </c>
       <c r="F571" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H571" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I571">
         <v>89.43</v>
@@ -17262,10 +16948,10 @@
         <v>17</v>
       </c>
       <c r="F572" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H572" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I572">
         <v>89.43</v>
@@ -17323,7 +17009,7 @@
         <v>24</v>
       </c>
       <c r="H574" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I574">
         <v>89.43</v>
@@ -17349,10 +17035,10 @@
         <v>17</v>
       </c>
       <c r="F575" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H575" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I575">
         <v>89.43</v>
@@ -17378,10 +17064,10 @@
         <v>17</v>
       </c>
       <c r="F576" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H576" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I576">
         <v>89.43</v>
@@ -17410,20 +17096,20 @@
         <v>18</v>
       </c>
       <c r="H577" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I577">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J577" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C578" t="s">
@@ -17439,13 +17125,10 @@
         <v>12</v>
       </c>
       <c r="H578" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I578">
-        <v>89.43</v>
-      </c>
-      <c r="J578" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
@@ -17465,10 +17148,10 @@
         <v>28</v>
       </c>
       <c r="F579" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H579" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I579">
         <v>89.43</v>
@@ -17526,7 +17209,7 @@
         <v>29</v>
       </c>
       <c r="H581" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I581">
         <v>89.43</v>
@@ -17552,23 +17235,23 @@
         <v>28</v>
       </c>
       <c r="F582" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H582" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I582">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J582" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C583" t="s">
@@ -17584,13 +17267,10 @@
         <v>12</v>
       </c>
       <c r="H583" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I583">
-        <v>89.43</v>
-      </c>
-      <c r="J583" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
@@ -17642,20 +17322,20 @@
         <v>15</v>
       </c>
       <c r="H585" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I585">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J585" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C586" t="s">
@@ -17671,13 +17351,10 @@
         <v>12</v>
       </c>
       <c r="H586" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I586">
-        <v>89.43</v>
-      </c>
-      <c r="J586" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
@@ -17697,10 +17374,10 @@
         <v>17</v>
       </c>
       <c r="F587" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H587" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I587">
         <v>89.43</v>
@@ -17726,10 +17403,10 @@
         <v>17</v>
       </c>
       <c r="F588" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H588" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I588">
         <v>89.43</v>
@@ -17758,7 +17435,7 @@
         <v>24</v>
       </c>
       <c r="H589" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I589">
         <v>89.43</v>
@@ -17816,7 +17493,7 @@
         <v>18</v>
       </c>
       <c r="H591" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I591">
         <v>89.43</v>
@@ -17845,7 +17522,7 @@
         <v>24</v>
       </c>
       <c r="H592" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I592">
         <v>89.43</v>
@@ -17871,10 +17548,10 @@
         <v>17</v>
       </c>
       <c r="F593" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H593" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I593">
         <v>89.43</v>
@@ -17900,23 +17577,23 @@
         <v>17</v>
       </c>
       <c r="F594" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H594" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I594">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J594" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C595" t="s">
@@ -17932,13 +17609,10 @@
         <v>12</v>
       </c>
       <c r="H595" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I595">
-        <v>89.43</v>
-      </c>
-      <c r="J595" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -17961,7 +17635,7 @@
         <v>29</v>
       </c>
       <c r="H596" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I596">
         <v>89.43</v>
@@ -18019,7 +17693,7 @@
         <v>29</v>
       </c>
       <c r="H598" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I598">
         <v>89.43</v>
@@ -18048,20 +17722,20 @@
         <v>29</v>
       </c>
       <c r="H599" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I599">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J599" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C600" t="s">
@@ -18077,13 +17751,10 @@
         <v>12</v>
       </c>
       <c r="H600" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I600">
-        <v>89.43</v>
-      </c>
-      <c r="J600" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
@@ -18135,20 +17806,20 @@
         <v>15</v>
       </c>
       <c r="H602" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I602">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J602" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C603" t="s">
@@ -18164,13 +17835,10 @@
         <v>12</v>
       </c>
       <c r="H603" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I603">
-        <v>89.43</v>
-      </c>
-      <c r="J603" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
@@ -18190,10 +17858,10 @@
         <v>17</v>
       </c>
       <c r="F604" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H604" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I604">
         <v>89.43</v>
@@ -18219,10 +17887,10 @@
         <v>17</v>
       </c>
       <c r="F605" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H605" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I605">
         <v>89.43</v>
@@ -18248,10 +17916,10 @@
         <v>17</v>
       </c>
       <c r="F606" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H606" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I606">
         <v>89.43</v>
@@ -18277,7 +17945,7 @@
         <v>17</v>
       </c>
       <c r="F607" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H607" t="s">
         <v>32</v>
@@ -18306,10 +17974,10 @@
         <v>17</v>
       </c>
       <c r="F608" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H608" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I608">
         <v>89.43</v>
@@ -18335,10 +18003,10 @@
         <v>17</v>
       </c>
       <c r="F609" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H609" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I609">
         <v>89.43</v>
@@ -18364,10 +18032,10 @@
         <v>17</v>
       </c>
       <c r="F610" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H610" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I610">
         <v>89.43</v>
@@ -18393,23 +18061,23 @@
         <v>17</v>
       </c>
       <c r="F611" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H611" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I611">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J611" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C612" t="s">
@@ -18425,13 +18093,10 @@
         <v>12</v>
       </c>
       <c r="H612" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I612">
-        <v>89.43</v>
-      </c>
-      <c r="J612" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -18454,7 +18119,7 @@
         <v>29</v>
       </c>
       <c r="H613" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I613">
         <v>89.43</v>
@@ -18512,7 +18177,7 @@
         <v>29</v>
       </c>
       <c r="H615" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I615">
         <v>89.43</v>
@@ -18541,20 +18206,20 @@
         <v>29</v>
       </c>
       <c r="H616" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I616">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J616" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C617" t="s">
@@ -18570,13 +18235,10 @@
         <v>12</v>
       </c>
       <c r="H617" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I617">
-        <v>89.43</v>
-      </c>
-      <c r="J617" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
@@ -18628,20 +18290,20 @@
         <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I619">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J619" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C620" t="s">
@@ -18654,16 +18316,13 @@
         <v>17</v>
       </c>
       <c r="F620" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H620" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I620">
-        <v>89.43</v>
-      </c>
-      <c r="J620" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -18683,10 +18342,10 @@
         <v>17</v>
       </c>
       <c r="F621" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H621" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I621">
         <v>89.43</v>
@@ -18712,10 +18371,10 @@
         <v>17</v>
       </c>
       <c r="F622" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H622" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I622">
         <v>89.43</v>
@@ -18744,7 +18403,7 @@
         <v>24</v>
       </c>
       <c r="H623" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I623">
         <v>89.43</v>
@@ -18770,7 +18429,7 @@
         <v>17</v>
       </c>
       <c r="F624" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H624" t="s">
         <v>32</v>
@@ -18799,10 +18458,10 @@
         <v>17</v>
       </c>
       <c r="F625" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H625" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I625">
         <v>89.43</v>
@@ -18831,7 +18490,7 @@
         <v>24</v>
       </c>
       <c r="H626" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I626">
         <v>89.43</v>
@@ -18857,10 +18516,10 @@
         <v>17</v>
       </c>
       <c r="F627" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H627" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I627">
         <v>89.43</v>
@@ -18886,23 +18545,23 @@
         <v>17</v>
       </c>
       <c r="F628" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H628" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I628">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J628" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C629" t="s">
@@ -18915,16 +18574,13 @@
         <v>28</v>
       </c>
       <c r="F629" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H629" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I629">
-        <v>89.43</v>
-      </c>
-      <c r="J629" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -18947,7 +18603,7 @@
         <v>29</v>
       </c>
       <c r="H630" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I630">
         <v>89.43</v>
@@ -19005,7 +18661,7 @@
         <v>29</v>
       </c>
       <c r="H632" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I632">
         <v>89.43</v>
@@ -19034,20 +18690,20 @@
         <v>29</v>
       </c>
       <c r="H633" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I633">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J633" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C634" t="s">
@@ -19060,16 +18716,13 @@
         <v>11</v>
       </c>
       <c r="F634" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H634" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I634">
-        <v>89.43</v>
-      </c>
-      <c r="J634" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -19121,20 +18774,20 @@
         <v>15</v>
       </c>
       <c r="H636" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I636">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J636" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C637" t="s">
@@ -19150,13 +18803,10 @@
         <v>12</v>
       </c>
       <c r="H637" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I637">
-        <v>89.43</v>
-      </c>
-      <c r="J637" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -19176,10 +18826,10 @@
         <v>17</v>
       </c>
       <c r="F638" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H638" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I638">
         <v>89.43</v>
@@ -19208,7 +18858,7 @@
         <v>18</v>
       </c>
       <c r="H639" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I639">
         <v>89.43</v>
@@ -19237,7 +18887,7 @@
         <v>24</v>
       </c>
       <c r="H640" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I640">
         <v>89.43</v>
@@ -19263,10 +18913,10 @@
         <v>17</v>
       </c>
       <c r="F641" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H641" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I641">
         <v>89.43</v>
@@ -19295,7 +18945,7 @@
         <v>18</v>
       </c>
       <c r="H642" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I642">
         <v>89.43</v>
@@ -19321,10 +18971,10 @@
         <v>17</v>
       </c>
       <c r="F643" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H643" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I643">
         <v>89.43</v>
@@ -19353,7 +19003,7 @@
         <v>24</v>
       </c>
       <c r="H644" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I644">
         <v>89.43</v>
@@ -19382,7 +19032,7 @@
         <v>18</v>
       </c>
       <c r="H645" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I645">
         <v>89.43</v>
@@ -19408,23 +19058,23 @@
         <v>17</v>
       </c>
       <c r="F646" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H646" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I646">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J646" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C647" t="s">
@@ -19440,13 +19090,10 @@
         <v>12</v>
       </c>
       <c r="H647" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I647">
-        <v>89.43</v>
-      </c>
-      <c r="J647" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
@@ -19469,7 +19116,7 @@
         <v>29</v>
       </c>
       <c r="H648" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I648">
         <v>89.43</v>
@@ -19527,7 +19174,7 @@
         <v>29</v>
       </c>
       <c r="H650" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I650">
         <v>89.43</v>
@@ -19556,20 +19203,20 @@
         <v>29</v>
       </c>
       <c r="H651" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I651">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J651" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C652" t="s">
@@ -19585,13 +19232,10 @@
         <v>12</v>
       </c>
       <c r="H652" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I652">
-        <v>89.43</v>
-      </c>
-      <c r="J652" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -19643,20 +19287,20 @@
         <v>15</v>
       </c>
       <c r="H654" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I654">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J654" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C655" t="s">
@@ -19672,13 +19316,10 @@
         <v>12</v>
       </c>
       <c r="H655" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I655">
-        <v>89.43</v>
-      </c>
-      <c r="J655" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -19698,10 +19339,10 @@
         <v>17</v>
       </c>
       <c r="F656" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H656" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I656">
         <v>89.43</v>
@@ -19730,7 +19371,7 @@
         <v>18</v>
       </c>
       <c r="H657" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I657">
         <v>89.43</v>
@@ -19756,10 +19397,10 @@
         <v>17</v>
       </c>
       <c r="F658" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H658" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I658">
         <v>89.43</v>
@@ -19785,10 +19426,10 @@
         <v>17</v>
       </c>
       <c r="F659" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H659" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I659">
         <v>89.43</v>
@@ -19817,7 +19458,7 @@
         <v>18</v>
       </c>
       <c r="H660" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I660">
         <v>89.43</v>
@@ -19843,10 +19484,10 @@
         <v>17</v>
       </c>
       <c r="F661" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H661" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I661">
         <v>89.43</v>
@@ -19872,10 +19513,10 @@
         <v>17</v>
       </c>
       <c r="F662" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H662" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I662">
         <v>89.43</v>
@@ -19904,7 +19545,7 @@
         <v>18</v>
       </c>
       <c r="H663" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I663">
         <v>89.43</v>
@@ -19930,23 +19571,23 @@
         <v>17</v>
       </c>
       <c r="F664" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H664" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I664">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J664" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C665" t="s">
@@ -19962,13 +19603,10 @@
         <v>12</v>
       </c>
       <c r="H665" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I665">
-        <v>89.43</v>
-      </c>
-      <c r="J665" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -19991,7 +19629,7 @@
         <v>29</v>
       </c>
       <c r="H666" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I666">
         <v>89.43</v>
@@ -20020,7 +19658,7 @@
         <v>29</v>
       </c>
       <c r="H667" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I667">
         <v>89.43</v>
@@ -20049,7 +19687,7 @@
         <v>29</v>
       </c>
       <c r="H668" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I668">
         <v>89.43</v>
@@ -20078,7 +19716,7 @@
         <v>29</v>
       </c>
       <c r="H669" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I669">
         <v>89.43</v>
@@ -20107,20 +19745,20 @@
         <v>29</v>
       </c>
       <c r="H670" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I670">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J670" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C671" t="s">
@@ -20136,13 +19774,10 @@
         <v>12</v>
       </c>
       <c r="H671" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I671">
-        <v>89.43</v>
-      </c>
-      <c r="J671" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
@@ -20194,20 +19829,20 @@
         <v>15</v>
       </c>
       <c r="H673" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I673">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J673" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C674" t="s">
@@ -20223,13 +19858,10 @@
         <v>12</v>
       </c>
       <c r="H674" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I674">
-        <v>89.43</v>
-      </c>
-      <c r="J674" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
@@ -20249,10 +19881,10 @@
         <v>17</v>
       </c>
       <c r="F675" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H675" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I675">
         <v>89.43</v>
@@ -20278,10 +19910,10 @@
         <v>17</v>
       </c>
       <c r="F676" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H676" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I676">
         <v>89.43</v>
@@ -20310,7 +19942,7 @@
         <v>24</v>
       </c>
       <c r="H677" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I677">
         <v>89.43</v>
@@ -20368,7 +20000,7 @@
         <v>18</v>
       </c>
       <c r="H679" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I679">
         <v>89.43</v>
@@ -20397,7 +20029,7 @@
         <v>24</v>
       </c>
       <c r="H680" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I680">
         <v>89.43</v>
@@ -20423,10 +20055,10 @@
         <v>17</v>
       </c>
       <c r="F681" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H681" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I681">
         <v>89.43</v>
@@ -20452,23 +20084,23 @@
         <v>17</v>
       </c>
       <c r="F682" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H682" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I682">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J682" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B683" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C683" t="s">
@@ -20484,13 +20116,10 @@
         <v>12</v>
       </c>
       <c r="H683" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I683">
-        <v>89.43</v>
-      </c>
-      <c r="J683" t="s">
-        <v>86</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -20513,7 +20142,7 @@
         <v>29</v>
       </c>
       <c r="H684" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I684">
         <v>89.43</v>
@@ -20571,7 +20200,7 @@
         <v>29</v>
       </c>
       <c r="H686" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I686">
         <v>89.43</v>
@@ -20600,13 +20229,13 @@
         <v>29</v>
       </c>
       <c r="H687" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I687">
-        <v>-100</v>
+        <v>89.43</v>
       </c>
       <c r="J687" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="689" spans="9:9" x14ac:dyDescent="0.25">
